--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE670B5-F6B3-4248-B2C2-8B8E124A4E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4E6F22-D812-44A4-9057-59F9DCBA80AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C82372FB-4B77-4F4E-834B-854DAAB03125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF81A3F2-2FC7-4C47-A59A-D1F5F312B16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,21 +69,39 @@
     <t>Willman zega</t>
   </si>
   <si>
+    <t>Xinghao_s2l</t>
+  </si>
+  <si>
+    <t>Pertiwi</t>
+  </si>
+  <si>
+    <t>Dimas Eka Putra</t>
+  </si>
+  <si>
+    <t>Desi Skarsari</t>
+  </si>
+  <si>
     <t>Selomita Maharani</t>
   </si>
   <si>
-    <t>Xinghao_s2l</t>
-  </si>
-  <si>
-    <t>Pertiwi</t>
-  </si>
-  <si>
-    <t>Dimas Eka Putra</t>
+    <t>Zakka_S2l</t>
+  </si>
+  <si>
+    <t>Indra Gunawan</t>
+  </si>
+  <si>
+    <t>Fikri Adriansyah</t>
+  </si>
+  <si>
+    <t>Anzelma Tamalia</t>
   </si>
   <si>
     <t>Rahma amelia</t>
   </si>
   <si>
+    <t>Feriyan Wijaya S</t>
+  </si>
+  <si>
     <t>Cpu_s2l</t>
   </si>
   <si>
@@ -96,118 +114,127 @@
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>Feriyan Wijaya S</t>
+    <t>Desi Eka</t>
+  </si>
+  <si>
+    <t>EDN_S2l</t>
+  </si>
+  <si>
+    <t>Dwi Rahayu Maulani Putri</t>
   </si>
   <si>
     <t>Febrianto</t>
   </si>
   <si>
-    <t>Zakka_S2l</t>
-  </si>
-  <si>
-    <t>Desi Eka</t>
-  </si>
-  <si>
-    <t>Anzelma Tamalia</t>
-  </si>
-  <si>
-    <t>Fikri Adriansyah</t>
-  </si>
-  <si>
-    <t>Indra Gunawan</t>
-  </si>
-  <si>
-    <t>EDN_S2l</t>
-  </si>
-  <si>
-    <t>Dwi Rahayu Maulani Putri</t>
+    <t xml:space="preserve">Miranti </t>
+  </si>
+  <si>
+    <t>Dimas</t>
+  </si>
+  <si>
+    <t>Ahmad Fauzi</t>
+  </si>
+  <si>
+    <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
     <t>Dende Ayu Kencana Wungu</t>
   </si>
   <si>
-    <t>Dimas</t>
-  </si>
-  <si>
-    <t>Desi Skarsari</t>
+    <t>Indisabellia</t>
+  </si>
+  <si>
+    <t>Elena Juwita Sari</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t xml:space="preserve">Miranti </t>
-  </si>
-  <si>
-    <t>Ahmad Fauzi</t>
-  </si>
-  <si>
-    <t>Indisabellia</t>
-  </si>
-  <si>
-    <t>Elena Juwita Sari</t>
+    <t>Rahmat Hidayat</t>
   </si>
   <si>
     <t>Helmy Hidayat</t>
   </si>
   <si>
-    <t>Rahmat Hidayat</t>
+    <t>Defister Zalukhu</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>Bagoes Tjahaya</t>
   </si>
   <si>
     <t>Susanti</t>
   </si>
   <si>
+    <t>Erika Fitriyanti</t>
+  </si>
+  <si>
+    <t>Rifal</t>
+  </si>
+  <si>
     <t>Irvan Zaky Zulkarnain</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>Defister Zalukhu</t>
-  </si>
-  <si>
-    <t>Bagoes Tjahaya</t>
-  </si>
-  <si>
     <t>Winda Ayu Utami</t>
   </si>
   <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>Erika Fitriyanti</t>
+    <t>Muhammad Fadhil Fakhruddin</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
   </si>
   <si>
     <t>Lenny Nuraida</t>
   </si>
   <si>
-    <t>Wahyu Febrianto Nur Tantular</t>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Amirah Syahidah</t>
+  </si>
+  <si>
+    <t>Komariah</t>
   </si>
   <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
-    <t>Muhammad Fadhil Fakhruddin</t>
+    <t>Arisman Zega</t>
   </si>
   <si>
     <t>Ebiet Jaka Ramadan</t>
   </si>
   <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>Arisman Zega</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>Mutiara</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>Muhammad Ilham</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -216,82 +243,55 @@
     <t>Maya Margareta</t>
   </si>
   <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>Mutiara</t>
-  </si>
-  <si>
-    <t>Amirah Syahidah</t>
+    <t>Sema Salwanda Rivanka</t>
   </si>
   <si>
     <t>Afsyal Suwandi</t>
   </si>
   <si>
-    <t>Muhammad Ilham</t>
-  </si>
-  <si>
-    <t>Komariah</t>
+    <t>Aura Ramadhani</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>Sema Salwanda Rivanka</t>
+    <t>Saeful Aziz</t>
   </si>
   <si>
     <t>Adriansah</t>
   </si>
   <si>
-    <t>Aura Ramadhani</t>
-  </si>
-  <si>
-    <t>Rifal</t>
+    <t>Tasya Wiranda Agustin</t>
   </si>
   <si>
     <t>Muhammad Rizki Daelami</t>
   </si>
   <si>
-    <t>Tasya Wiranda Agustin</t>
-  </si>
-  <si>
-    <t>Saeful Aziz</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
     <t>Fitriyani</t>
   </si>
   <si>
+    <t>Imelda Astri Paidin</t>
+  </si>
+  <si>
+    <t>Ilham Syaid</t>
+  </si>
+  <si>
+    <t>Ahmad Septian</t>
+  </si>
+  <si>
     <t>Aura Devana Sopiyanti</t>
   </si>
   <si>
+    <t>Abdul Hamid</t>
+  </si>
+  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>Ahmad Septian</t>
+    <t>Nurhasanah</t>
   </si>
   <si>
     <t>Cici Fatma Ramadhani</t>
-  </si>
-  <si>
-    <t>Nurhasanah</t>
-  </si>
-  <si>
-    <t>Abdul Hamid</t>
-  </si>
-  <si>
-    <t>Imelda Astri Paidin</t>
-  </si>
-  <si>
-    <t>Ilham Syaid</t>
   </si>
   <si>
     <t>Mulhimah</t>
@@ -692,12 +692,17 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F2" sqref="F2:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,14 +736,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>298007096</v>
+        <v>311328578</v>
       </c>
       <c r="E2">
-        <v>51445815</v>
+        <v>56808401</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.17263285233986508</v>
+        <v>0.18247088450710747</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,14 +757,14 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>217462568</v>
+        <v>228684685</v>
       </c>
       <c r="E3">
-        <v>28421493</v>
+        <v>31807499</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.13069602397043339</v>
+        <v>0.13908889001465052</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -773,14 +778,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>298506570</v>
+        <v>310818464</v>
       </c>
       <c r="E4">
-        <v>38589220</v>
+        <v>41024847</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.12927427359471519</v>
+        <v>0.13198973597656025</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,20 +793,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>291034875</v>
+        <v>239221960</v>
       </c>
       <c r="E5">
-        <v>37622219</v>
+        <v>31360472</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.12927048347728085</v>
+        <v>0.13109361699068095</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,20 +814,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>231365775</v>
+        <v>344937616</v>
       </c>
       <c r="E6">
-        <v>29893453</v>
+        <v>44592858</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.12920429998775748</v>
+        <v>0.12927803733646723</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,20 +835,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>332727560</v>
+        <v>287800221</v>
       </c>
       <c r="E7">
-        <v>41661472</v>
+        <v>37072240</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.12521196621043354</v>
+        <v>0.12881240977226352</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,20 +856,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8">
-        <v>239845311</v>
+        <v>300952338</v>
       </c>
       <c r="E8">
-        <v>29444530</v>
+        <v>38596119</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.12276466809893148</v>
+        <v>0.12824661624658984</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -878,14 +883,14 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>286532450</v>
+        <v>290885641</v>
       </c>
       <c r="E9">
-        <v>34729883</v>
+        <v>37300320</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.12120750372252777</v>
+        <v>0.12823018651511919</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -893,20 +898,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10">
-        <v>292794213</v>
+        <v>325018607</v>
       </c>
       <c r="E10">
-        <v>35185688</v>
+        <v>40877787</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.12017207457580455</v>
+        <v>0.12577060549644162</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,20 +919,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>321508319</v>
+        <v>296553383</v>
       </c>
       <c r="E11">
-        <v>38174349</v>
+        <v>36837650</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.11873518271233287</v>
+        <v>0.12421928769566591</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -935,20 +940,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>288034202</v>
+        <v>252635249</v>
       </c>
       <c r="E12">
-        <v>33221595</v>
+        <v>30363423</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.11533906310195759</v>
+        <v>0.12018680338625272</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -956,20 +961,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>281381685</v>
+        <v>335813111</v>
       </c>
       <c r="E13">
-        <v>31559721</v>
+        <v>39836871</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.11215982660705155</v>
+        <v>0.11862809906787708</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -977,20 +982,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>284574363</v>
+        <v>301517257</v>
       </c>
       <c r="E14">
-        <v>31794980</v>
+        <v>35682847</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.11172819527667711</v>
+        <v>0.11834429430352639</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -998,20 +1003,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
-        <v>310045430</v>
+        <v>303034636</v>
       </c>
       <c r="E15">
-        <v>33936539</v>
+        <v>35785220</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.10945666575378969</v>
+        <v>0.11808953746132175</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,20 +1024,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>278588734</v>
+        <v>296817657</v>
       </c>
       <c r="E16">
-        <v>30401487</v>
+        <v>34821975</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.10912676389849993</v>
+        <v>0.11731773423438889</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,14 +1051,14 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>267789939</v>
+        <v>275485274</v>
       </c>
       <c r="E17">
-        <v>29126316</v>
+        <v>31344080</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.10876553506366048</v>
+        <v>0.11377769687972505</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,20 +1066,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>244731428</v>
+        <v>301584773</v>
       </c>
       <c r="E18">
-        <v>26399535</v>
+        <v>34126718</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.10787145409048159</v>
+        <v>0.11315796106191343</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,20 +1087,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19">
-        <v>286715740</v>
+        <v>365377093</v>
       </c>
       <c r="E19">
-        <v>30431382</v>
+        <v>40502545</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.10613781440809633</v>
+        <v>0.11085135268729066</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1109,14 +1114,14 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>277790835</v>
+        <v>297086044</v>
       </c>
       <c r="E20">
-        <v>28537551</v>
+        <v>32088533</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.10273035465694899</v>
+        <v>0.10801090676612193</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1124,20 +1129,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
-        <v>289310284</v>
+        <v>311041585</v>
       </c>
       <c r="E21">
-        <v>29651438</v>
+        <v>33125705</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.10249009330065847</v>
+        <v>0.10649928047402407</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,20 +1150,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22">
-        <v>351245443</v>
+        <v>245192860</v>
       </c>
       <c r="E22">
-        <v>34980837</v>
+        <v>25856072</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>9.959086358879822E-2</v>
+        <v>0.10545197767993733</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,20 +1171,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>298207589</v>
+        <v>252134294</v>
       </c>
       <c r="E23">
-        <v>29569078</v>
+        <v>26399535</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>9.915602114337875E-2</v>
+        <v>0.10470426129338836</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,14 +1198,14 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>279752436</v>
+        <v>289708347</v>
       </c>
       <c r="E24">
-        <v>27749628</v>
+        <v>29765045</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>9.9193516942243889E-2</v>
+        <v>0.10274141324619826</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1208,20 +1213,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>271697892</v>
+        <v>284932156</v>
       </c>
       <c r="E25">
-        <v>26371642</v>
+        <v>28768861</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>9.7062372497170493E-2</v>
+        <v>0.10096740713252456</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,20 +1234,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>236145660</v>
+        <v>297343499</v>
       </c>
       <c r="E26">
-        <v>22546965</v>
+        <v>29957114</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>9.5479057290318192E-2</v>
+        <v>0.10074918100025453</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,20 +1255,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>278165680</v>
+        <v>301221374</v>
       </c>
       <c r="E27">
-        <v>26397822</v>
+        <v>30310558</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>9.4899636792001085E-2</v>
+        <v>0.10062552201225933</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,20 +1276,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>280324882</v>
+        <v>290711514</v>
       </c>
       <c r="E28">
-        <v>26424942</v>
+        <v>28942790</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>9.4265417366696691E-2</v>
+        <v>9.9558457805011463E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1292,20 +1297,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>287056233</v>
+        <v>243529489</v>
       </c>
       <c r="E29">
-        <v>26253166</v>
+        <v>23527874</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>9.1456526568437196E-2</v>
+        <v>9.6612012354692703E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1313,20 +1318,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>298616905</v>
+        <v>302708689</v>
       </c>
       <c r="E30">
-        <v>27254234</v>
+        <v>28850489</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>9.1268222072022342E-2</v>
+        <v>9.530776633900985E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,20 +1339,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>283592763</v>
+        <v>294729567</v>
       </c>
       <c r="E31">
-        <v>25770483</v>
+        <v>27972515</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>9.0871440890753621E-2</v>
+        <v>9.4909089999782745E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,20 +1360,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>292771293</v>
+        <v>297175111</v>
       </c>
       <c r="E32">
-        <v>26535522</v>
+        <v>28032142</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>9.063566898275098E-2</v>
+        <v>9.4328700360105197E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1382,14 +1387,14 @@
         <v>45</v>
       </c>
       <c r="D33">
-        <v>287423681</v>
+        <v>291194557</v>
       </c>
       <c r="E33">
-        <v>25822315</v>
+        <v>27272600</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>8.9840596676513937E-2</v>
+        <v>9.3657657206827533E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,20 +1402,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>284637704</v>
+        <v>301382188</v>
       </c>
       <c r="E34">
-        <v>25563342</v>
+        <v>27882535</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>8.9810104707702398E-2</v>
+        <v>9.2515537115949273E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1418,20 +1423,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>288264197</v>
+        <v>374496839</v>
       </c>
       <c r="E35">
-        <v>25453118</v>
+        <v>34369596</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>8.8297881821237753E-2</v>
+        <v>9.1775396801146297E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,20 +1444,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>287938405</v>
+        <v>296822450</v>
       </c>
       <c r="E36">
-        <v>24867192</v>
+        <v>27245792</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>8.6362887229301702E-2</v>
+        <v>9.1791547438544493E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1460,20 +1465,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>278567190</v>
+        <v>310256930</v>
       </c>
       <c r="E37">
-        <v>23677062</v>
+        <v>28263472</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>8.499587478338709E-2</v>
+        <v>9.1096988550747285E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,20 +1486,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>238799922</v>
+        <v>295890777</v>
       </c>
       <c r="E38">
-        <v>19931071</v>
+        <v>26188409</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>8.34634736605986E-2</v>
+        <v>8.8507013518707947E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1502,20 +1507,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>316736241</v>
+        <v>293604935</v>
       </c>
       <c r="E39">
-        <v>26036206</v>
+        <v>25364248</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>8.220153752471919E-2</v>
+        <v>8.6389038385884076E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,20 +1528,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>279456112</v>
+        <v>259888244</v>
       </c>
       <c r="E40">
-        <v>22640572</v>
+        <v>22127315</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>8.1016556903933445E-2</v>
+        <v>8.5141654195023925E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,20 +1549,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>312127599</v>
+        <v>295120989</v>
       </c>
       <c r="E41">
-        <v>25054937</v>
+        <v>24773925</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>8.0271456546205641E-2</v>
+        <v>8.3944978240771614E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,20 +1570,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>252778725</v>
+        <v>295439273</v>
       </c>
       <c r="E42">
-        <v>20043254</v>
+        <v>24573394</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>7.9291696720125482E-2</v>
+        <v>8.3175786856204456E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,20 +1591,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>294163183</v>
+        <v>290714989</v>
       </c>
       <c r="E43">
-        <v>23116995</v>
+        <v>23677062</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>7.8585616202011252E-2</v>
+        <v>8.1444242285009946E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,20 +1612,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>282784501</v>
+        <v>315885113</v>
       </c>
       <c r="E44">
-        <v>22072846</v>
+        <v>25620519</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>7.8055359901071805E-2</v>
+        <v>8.1107079585608713E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,20 +1633,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>278568383</v>
+        <v>327813588</v>
       </c>
       <c r="E45">
-        <v>21739040</v>
+        <v>26441061</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>7.8038432667356938E-2</v>
+        <v>8.0658831628419261E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,20 +1654,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>285252588</v>
+        <v>333688271</v>
       </c>
       <c r="E46">
-        <v>22018342</v>
+        <v>26877495</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>7.7188929833653247E-2</v>
+        <v>8.0546717807770951E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1670,20 +1675,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>305083637</v>
+        <v>254263982</v>
       </c>
       <c r="E47">
-        <v>23465251</v>
+        <v>20010587</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>7.6914157805192285E-2</v>
+        <v>7.8700045687163031E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,20 +1696,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>243230651</v>
+        <v>330787143</v>
       </c>
       <c r="E48">
-        <v>18559446</v>
+        <v>26036206</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>7.6303894775169592E-2</v>
+        <v>7.8709848768215268E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,20 +1717,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>278310791</v>
+        <v>289956822</v>
       </c>
       <c r="E49">
-        <v>21234397</v>
+        <v>22823621</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>7.6297426067104962E-2</v>
+        <v>7.8713861058940696E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,20 +1738,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>314648098</v>
+        <v>326199049</v>
       </c>
       <c r="E50">
-        <v>23797640</v>
+        <v>25623775</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>7.5632556342355522E-2</v>
+        <v>7.8552574198338637E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1754,20 +1759,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>306110131</v>
+        <v>305583529</v>
       </c>
       <c r="E51">
-        <v>23106453</v>
+        <v>23705259</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>7.5484117185262323E-2</v>
+        <v>7.7573745802248392E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,20 +1780,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>290314140</v>
+        <v>289830213</v>
       </c>
       <c r="E52">
-        <v>21857146</v>
+        <v>22300225</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>7.5287913981730278E-2</v>
+        <v>7.6942375224352474E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,20 +1801,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>322642234</v>
+        <v>303803712</v>
       </c>
       <c r="E53">
-        <v>23832130</v>
+        <v>23016145</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>7.3865500199828155E-2</v>
+        <v>7.5759920273785197E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,20 +1822,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>297421461</v>
+        <v>288600229</v>
       </c>
       <c r="E54">
-        <v>21629993</v>
+        <v>21828477</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>7.2725057994385958E-2</v>
+        <v>7.5635688424904202E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,20 +1843,20 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55">
-        <v>292943431</v>
+        <v>306151375</v>
       </c>
       <c r="E55">
-        <v>20913595</v>
+        <v>23036330</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>7.1391240720465238E-2</v>
+        <v>7.52449013171997E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,20 +1864,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>240931845</v>
+        <v>318210186</v>
       </c>
       <c r="E56">
-        <v>16833238</v>
+        <v>23465251</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>6.986721908845217E-2</v>
+        <v>7.3741357229840529E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,20 +1885,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>307216594</v>
+        <v>255341740</v>
       </c>
       <c r="E57">
-        <v>21301624</v>
+        <v>18719514</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>6.9337478560809768E-2</v>
+        <v>7.3311609766581839E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,14 +1912,14 @@
         <v>70</v>
       </c>
       <c r="D58">
-        <v>281678461</v>
+        <v>292723620</v>
       </c>
       <c r="E58">
-        <v>19324752</v>
+        <v>21443923</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>6.8605714229601669E-2</v>
+        <v>7.3256551692002167E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,14 +1933,14 @@
         <v>71</v>
       </c>
       <c r="D59">
-        <v>297412486</v>
+        <v>309228687</v>
       </c>
       <c r="E59">
-        <v>20380726</v>
+        <v>22409769</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>6.8526800182827557E-2</v>
+        <v>7.2469890220760794E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,20 +1948,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>293718461</v>
+        <v>306553754</v>
       </c>
       <c r="E60">
-        <v>19674182</v>
+        <v>21831838</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>6.6983130488348835E-2</v>
+        <v>7.1216997721058731E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,20 +1969,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>357687774</v>
+        <v>321700547</v>
       </c>
       <c r="E61">
-        <v>23817565</v>
+        <v>22568848</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>6.6587584847113052E-2</v>
+        <v>7.0154832531260813E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,14 +1996,14 @@
         <v>74</v>
       </c>
       <c r="D62">
-        <v>230611086</v>
+        <v>220463660</v>
       </c>
       <c r="E62">
-        <v>15262730</v>
+        <v>14961265</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>6.6183852063382592E-2</v>
+        <v>6.7862726219822353E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2006,20 +2011,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>278598439</v>
+        <v>311813605</v>
       </c>
       <c r="E63">
-        <v>18278745</v>
+        <v>21034058</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>6.5609646147371276E-2</v>
+        <v>6.7457152807684578E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,20 +2032,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>208764143</v>
+        <v>288337165</v>
       </c>
       <c r="E64">
-        <v>13503258</v>
+        <v>19226915</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>6.4681883612551228E-2</v>
+        <v>6.668205605753251E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,20 +2053,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>277057148</v>
+        <v>241632300</v>
       </c>
       <c r="E65">
-        <v>17776239</v>
+        <v>15892582</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>6.4160910946791383E-2</v>
+        <v>6.5771761473942023E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,14 +2080,14 @@
         <v>78</v>
       </c>
       <c r="D66">
-        <v>291784156</v>
+        <v>308031337</v>
       </c>
       <c r="E66">
-        <v>18606071</v>
+        <v>20203207</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>6.3766556947663741E-2</v>
+        <v>6.5588154753228892E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,20 +2095,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>284597329</v>
+        <v>297938012</v>
       </c>
       <c r="E67">
-        <v>17233219</v>
+        <v>19330662</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>6.0552989237646709E-2</v>
+        <v>6.4881489509301019E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,20 +2116,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>256512602</v>
+        <v>251875864</v>
       </c>
       <c r="E68">
-        <v>15497789</v>
+        <v>15758525</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>6.0417261682917237E-2</v>
+        <v>6.2564648909750248E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,20 +2137,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>280550437</v>
+        <v>290029022</v>
       </c>
       <c r="E69">
-        <v>16231611</v>
+        <v>17797066</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>5.7856302679721007E-2</v>
+        <v>6.1363052143105869E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2153,20 +2158,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>274578300</v>
+        <v>297109256</v>
       </c>
       <c r="E70">
-        <v>15603788</v>
+        <v>18161410</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>5.6828190720096962E-2</v>
+        <v>6.1127042100633848E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,20 +2179,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>292681621</v>
+        <v>305044031</v>
       </c>
       <c r="E71">
-        <v>16637887</v>
+        <v>17966138</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>5.6846367541472653E-2</v>
+        <v>5.8896867908226666E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,20 +2200,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72">
-        <v>293038722</v>
+        <v>266663871</v>
       </c>
       <c r="E72">
-        <v>16275852</v>
+        <v>15497789</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>5.55416427184664E-2</v>
+        <v>5.8117318037432975E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,20 +2221,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>283286392</v>
+        <v>302710192</v>
       </c>
       <c r="E73">
-        <v>15064571</v>
+        <v>17545556</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>5.3177884379282149E-2</v>
+        <v>5.7961563448118057E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,20 +2242,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>241979962</v>
+        <v>285039579</v>
       </c>
       <c r="E74">
-        <v>12854687</v>
+        <v>15826343</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>5.3122939989551698E-2</v>
+        <v>5.5523317342536488E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2264,14 +2269,14 @@
         <v>87</v>
       </c>
       <c r="D75">
-        <v>296932280</v>
+        <v>307097005</v>
       </c>
       <c r="E75">
-        <v>14468990</v>
+        <v>15356141</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>4.8728248744124417E-2</v>
+        <v>5.0004203069320068E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,20 +2284,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>253164965</v>
+        <v>263902160</v>
       </c>
       <c r="E76">
         <v>10995443</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>4.343192984858707E-2</v>
+        <v>4.1664846547675091E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2306,14 +2311,14 @@
         <v>89</v>
       </c>
       <c r="D77">
-        <v>293988717</v>
+        <v>306748080</v>
       </c>
       <c r="E77">
-        <v>12216666</v>
+        <v>12516666</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>4.1554880488831825E-2</v>
+        <v>4.0804382540878495E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,23 +2326,24 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>243225411</v>
+        <v>252038933</v>
       </c>
       <c r="E78">
-        <v>7079978</v>
+        <v>7710152</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>2.9108710191469264E-2</v>
+        <v>3.0591115063957203E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF81A3F2-2FC7-4C47-A59A-D1F5F312B16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F2F081-8747-4E2E-8760-1F50A653D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="91">
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Jamalluddin salim</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -692,48 +692,40 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F78"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>311328578</v>
@@ -748,13 +740,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>228684685</v>
@@ -769,13 +761,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
       <c r="D4">
         <v>310818464</v>
@@ -790,13 +782,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5">
         <v>239221960</v>
@@ -811,13 +803,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>344937616</v>
@@ -832,13 +824,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>287800221</v>
@@ -853,13 +845,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>300952338</v>
@@ -874,13 +866,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
       <c r="D9">
         <v>290885641</v>
@@ -895,13 +887,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>325018607</v>
@@ -916,13 +908,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>296553383</v>
@@ -937,13 +929,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>252635249</v>
@@ -958,13 +950,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>335813111</v>
@@ -979,13 +971,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
       </c>
       <c r="D14">
         <v>301517257</v>
@@ -1000,13 +992,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
       <c r="D15">
         <v>303034636</v>
@@ -1021,13 +1013,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>296817657</v>
@@ -1042,13 +1034,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
       </c>
       <c r="D17">
         <v>275485274</v>
@@ -1063,13 +1055,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>301584773</v>
@@ -1084,13 +1076,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>365377093</v>
@@ -1105,13 +1097,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>297086044</v>
@@ -1126,13 +1118,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>311041585</v>
@@ -1147,13 +1139,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>245192860</v>
@@ -1168,13 +1160,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>252134294</v>
@@ -1189,13 +1181,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>289708347</v>
@@ -1210,13 +1202,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>284932156</v>
@@ -1231,13 +1223,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>297343499</v>
@@ -1252,13 +1244,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>301221374</v>
@@ -1273,13 +1265,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>290711514</v>
@@ -1294,13 +1286,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>243529489</v>
@@ -1315,13 +1307,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>302708689</v>
@@ -1336,13 +1328,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>294729567</v>
@@ -1357,13 +1349,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>297175111</v>
@@ -1378,13 +1370,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <v>291194557</v>
@@ -1399,13 +1391,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>301382188</v>
@@ -1420,13 +1412,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>374496839</v>
@@ -1441,13 +1433,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>296822450</v>
@@ -1462,13 +1454,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>310256930</v>
@@ -1483,13 +1475,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38">
         <v>295890777</v>
@@ -1504,13 +1496,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>293604935</v>
@@ -1525,13 +1517,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40">
         <v>259888244</v>
@@ -1546,13 +1538,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>295120989</v>
@@ -1567,13 +1559,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <v>295439273</v>
@@ -1588,13 +1580,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>290714989</v>
@@ -1609,13 +1601,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <v>315885113</v>
@@ -1630,13 +1622,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <v>327813588</v>
@@ -1651,13 +1643,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46">
         <v>333688271</v>
@@ -1672,13 +1664,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47">
         <v>254263982</v>
@@ -1693,13 +1685,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48">
         <v>330787143</v>
@@ -1714,13 +1706,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49">
         <v>289956822</v>
@@ -1735,13 +1727,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50">
         <v>326199049</v>
@@ -1756,13 +1748,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51">
         <v>305583529</v>
@@ -1777,13 +1769,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52">
         <v>289830213</v>
@@ -1798,13 +1790,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53">
         <v>303803712</v>
@@ -1819,13 +1811,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54">
         <v>288600229</v>
@@ -1840,13 +1832,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55">
         <v>306151375</v>
@@ -1861,13 +1853,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56">
         <v>318210186</v>
@@ -1882,13 +1874,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57">
         <v>255341740</v>
@@ -1903,13 +1895,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58">
         <v>292723620</v>
@@ -1924,13 +1916,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59">
         <v>309228687</v>
@@ -1945,13 +1937,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60">
         <v>306553754</v>
@@ -1966,13 +1958,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <v>321700547</v>
@@ -1987,13 +1979,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62">
         <v>220463660</v>
@@ -2008,13 +2000,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63">
         <v>311813605</v>
@@ -2029,13 +2021,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D64">
         <v>288337165</v>
@@ -2050,13 +2042,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65">
         <v>241632300</v>
@@ -2071,13 +2063,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D66">
         <v>308031337</v>
@@ -2092,13 +2084,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67">
         <v>297938012</v>
@@ -2113,13 +2105,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68">
         <v>251875864</v>
@@ -2134,13 +2126,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69">
         <v>290029022</v>
@@ -2155,13 +2147,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D70">
         <v>297109256</v>
@@ -2176,13 +2168,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D71">
         <v>305044031</v>
@@ -2197,13 +2189,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D72">
         <v>266663871</v>
@@ -2218,13 +2210,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D73">
         <v>302710192</v>
@@ -2239,13 +2231,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D74">
         <v>285039579</v>
@@ -2260,13 +2252,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75">
         <v>307097005</v>
@@ -2281,13 +2273,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D76">
         <v>263902160</v>
@@ -2302,13 +2294,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D77">
         <v>306748080</v>
@@ -2323,13 +2315,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78">
         <v>252038933</v>
@@ -2344,6 +2336,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F2F081-8747-4E2E-8760-1F50A653D443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53541AD1-E255-4B2B-92B6-2AFA461DD6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="91">
   <si>
+    <t>Cycle</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
@@ -301,9 +304,6 @@
   </si>
   <si>
     <t>Jamalluddin salim</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
 </sst>
 </file>
@@ -692,40 +692,40 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>311328578</v>
@@ -740,13 +740,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>228684685</v>
@@ -761,13 +761,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>310818464</v>
@@ -782,13 +782,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>239221960</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>344937616</v>
@@ -824,13 +824,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>287800221</v>
@@ -845,13 +845,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>300952338</v>
@@ -866,13 +866,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>290885641</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>325018607</v>
@@ -908,13 +908,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>296553383</v>
@@ -929,13 +929,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>252635249</v>
@@ -950,13 +950,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>335813111</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>301517257</v>
@@ -992,13 +992,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>303034636</v>
@@ -1013,13 +1013,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>296817657</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>275485274</v>
@@ -1055,13 +1055,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>301584773</v>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>365377093</v>
@@ -1097,13 +1097,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>297086044</v>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>311041585</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>245192860</v>
@@ -1160,13 +1160,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>252134294</v>
@@ -1181,13 +1181,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>289708347</v>
@@ -1202,13 +1202,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>284932156</v>
@@ -1223,13 +1223,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>297343499</v>
@@ -1244,13 +1244,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27">
         <v>301221374</v>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>290711514</v>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>243529489</v>
@@ -1307,13 +1307,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>302708689</v>
@@ -1328,13 +1328,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31">
         <v>294729567</v>
@@ -1349,13 +1349,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32">
         <v>297175111</v>
@@ -1370,13 +1370,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>291194557</v>
@@ -1391,13 +1391,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>301382188</v>
@@ -1412,13 +1412,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35">
         <v>374496839</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>296822450</v>
@@ -1454,13 +1454,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>310256930</v>
@@ -1475,13 +1475,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>295890777</v>
@@ -1496,13 +1496,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>293604935</v>
@@ -1517,13 +1517,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>259888244</v>
@@ -1538,13 +1538,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41">
         <v>295120989</v>
@@ -1559,13 +1559,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>295439273</v>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>290714989</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>315885113</v>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>327813588</v>
@@ -1643,13 +1643,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>333688271</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>254263982</v>
@@ -1685,13 +1685,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>330787143</v>
@@ -1706,13 +1706,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49">
         <v>289956822</v>
@@ -1727,13 +1727,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D50">
         <v>326199049</v>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D51">
         <v>305583529</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52">
         <v>289830213</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53">
         <v>303803712</v>
@@ -1811,13 +1811,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D54">
         <v>288600229</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D55">
         <v>306151375</v>
@@ -1853,13 +1853,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D56">
         <v>318210186</v>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57">
         <v>255341740</v>
@@ -1895,13 +1895,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D58">
         <v>292723620</v>
@@ -1916,13 +1916,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D59">
         <v>309228687</v>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D60">
         <v>306553754</v>
@@ -1958,13 +1958,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D61">
         <v>321700547</v>
@@ -1979,13 +1979,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D62">
         <v>220463660</v>
@@ -2000,13 +2000,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63">
         <v>311813605</v>
@@ -2021,13 +2021,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D64">
         <v>288337165</v>
@@ -2042,13 +2042,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D65">
         <v>241632300</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D66">
         <v>308031337</v>
@@ -2084,13 +2084,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D67">
         <v>297938012</v>
@@ -2105,13 +2105,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D68">
         <v>251875864</v>
@@ -2126,13 +2126,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D69">
         <v>290029022</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D70">
         <v>297109256</v>
@@ -2168,13 +2168,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71">
         <v>305044031</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D72">
         <v>266663871</v>
@@ -2210,13 +2210,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D73">
         <v>302710192</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D74">
         <v>285039579</v>
@@ -2252,13 +2252,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D75">
         <v>307097005</v>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D76">
         <v>263902160</v>
@@ -2294,13 +2294,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D77">
         <v>306748080</v>
@@ -2315,13 +2315,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D78">
         <v>252038933</v>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53541AD1-E255-4B2B-92B6-2AFA461DD6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CB823B-60AF-444C-AD5E-511730EEDA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1CB823B-60AF-444C-AD5E-511730EEDA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B29B99E-5252-4E3C-9161-79C20EE661AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,10 +692,18 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B29B99E-5252-4E3C-9161-79C20EE661AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C89D48-2CFF-41DB-AB2A-4689A63D226C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,244 +63,244 @@
     <t>Amanda Agustin</t>
   </si>
   <si>
+    <t>Xinghao_s2l</t>
+  </si>
+  <si>
+    <t>Pertiwi</t>
+  </si>
+  <si>
+    <t>Selomita Maharani</t>
+  </si>
+  <si>
     <t>Mkm_s2l</t>
   </si>
   <si>
     <t>Willman zega</t>
   </si>
   <si>
-    <t>Xinghao_s2l</t>
-  </si>
-  <si>
-    <t>Pertiwi</t>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>Feriyan Wijaya S</t>
   </si>
   <si>
     <t>Dimas Eka Putra</t>
   </si>
   <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
     <t>Desi Skarsari</t>
   </si>
   <si>
-    <t>Selomita Maharani</t>
-  </si>
-  <si>
     <t>Zakka_S2l</t>
   </si>
   <si>
     <t>Indra Gunawan</t>
   </si>
   <si>
+    <t>Anzelma Tamalia</t>
+  </si>
+  <si>
+    <t>EDN_S2l</t>
+  </si>
+  <si>
+    <t>Dwi Rahayu Maulani Putri</t>
+  </si>
+  <si>
+    <t>Desi Eka</t>
+  </si>
+  <si>
     <t>Fikri Adriansyah</t>
   </si>
   <si>
-    <t>Anzelma Tamalia</t>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Saizah Rafida Sari</t>
+  </si>
+  <si>
+    <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
     <t>Rahma amelia</t>
   </si>
   <si>
-    <t>Feriyan Wijaya S</t>
-  </si>
-  <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Saizah Rafida Sari</t>
-  </si>
-  <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Desi Eka</t>
-  </si>
-  <si>
-    <t>EDN_S2l</t>
-  </si>
-  <si>
-    <t>Dwi Rahayu Maulani Putri</t>
+    <t>Dende Ayu Kencana Wungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miranti </t>
   </si>
   <si>
     <t>Febrianto</t>
   </si>
   <si>
-    <t xml:space="preserve">Miranti </t>
+    <t>Indisabellia</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>Ahmad Fauzi</t>
   </si>
   <si>
     <t>Dimas</t>
   </si>
   <si>
-    <t>Ahmad Fauzi</t>
-  </si>
-  <si>
-    <t>Wahyu Febrianto Nur Tantular</t>
-  </si>
-  <si>
-    <t>Dende Ayu Kencana Wungu</t>
-  </si>
-  <si>
-    <t>Indisabellia</t>
+    <t>Helmy Hidayat</t>
+  </si>
+  <si>
+    <t>Rahmat Hidayat</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
     <t>Elena Juwita Sari</t>
   </si>
   <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>Rahmat Hidayat</t>
-  </si>
-  <si>
-    <t>Helmy Hidayat</t>
-  </si>
-  <si>
     <t>Defister Zalukhu</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
+    <t>Erika Fitriyanti</t>
+  </si>
+  <si>
+    <t>Rifal</t>
+  </si>
+  <si>
     <t>Bagoes Tjahaya</t>
   </si>
   <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Irvan Zaky Zulkarnain</t>
+  </si>
+  <si>
     <t>Susanti</t>
   </si>
   <si>
-    <t>Erika Fitriyanti</t>
-  </si>
-  <si>
-    <t>Rifal</t>
-  </si>
-  <si>
-    <t>Irvan Zaky Zulkarnain</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>Arisman Zega</t>
+  </si>
+  <si>
+    <t>Muhammad Fadhil Fakhruddin</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>Lenny Nuraida</t>
+  </si>
+  <si>
+    <t>Komariah</t>
   </si>
   <si>
     <t>Winda Ayu Utami</t>
   </si>
   <si>
-    <t>Muhammad Fadhil Fakhruddin</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>Lenny Nuraida</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>Amirah Syahidah</t>
   </si>
   <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>Amirah Syahidah</t>
-  </si>
-  <si>
-    <t>Komariah</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>Arisman Zega</t>
-  </si>
-  <si>
     <t>Ebiet Jaka Ramadan</t>
   </si>
   <si>
+    <t>Muhammad Rizki Daelami</t>
+  </si>
+  <si>
+    <t>Mutiara</t>
+  </si>
+  <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>Maya Margareta</t>
+  </si>
+  <si>
+    <t>Sema Salwanda Rivanka</t>
+  </si>
+  <si>
+    <t>Muhammad Ilham</t>
+  </si>
+  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>Mutiara</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>Muhammad Ilham</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>Maya Margareta</t>
-  </si>
-  <si>
-    <t>Sema Salwanda Rivanka</t>
+    <t>Aura Ramadhani</t>
   </si>
   <si>
     <t>Afsyal Suwandi</t>
   </si>
   <si>
-    <t>Aura Ramadhani</t>
-  </si>
-  <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
+    <t>Tasya Wiranda Agustin</t>
+  </si>
+  <si>
+    <t>Adriansah</t>
+  </si>
+  <si>
+    <t>Ilham Syaid</t>
+  </si>
+  <si>
+    <t>Fitriyani</t>
+  </si>
+  <si>
     <t>Saeful Aziz</t>
   </si>
   <si>
-    <t>Adriansah</t>
-  </si>
-  <si>
-    <t>Tasya Wiranda Agustin</t>
-  </si>
-  <si>
-    <t>Muhammad Rizki Daelami</t>
-  </si>
-  <si>
-    <t>Fitriyani</t>
+    <t>Abdul Hamid</t>
+  </si>
+  <si>
+    <t>Aura Devana Sopiyanti</t>
   </si>
   <si>
     <t>Imelda Astri Paidin</t>
   </si>
   <si>
-    <t>Ilham Syaid</t>
+    <t>Cici Fatma Ramadhani</t>
   </si>
   <si>
     <t>Ahmad Septian</t>
   </si>
   <si>
-    <t>Aura Devana Sopiyanti</t>
-  </si>
-  <si>
-    <t>Abdul Hamid</t>
+    <t>Nurhasanah</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>Nurhasanah</t>
-  </si>
-  <si>
-    <t>Cici Fatma Ramadhani</t>
-  </si>
-  <si>
     <t>Mulhimah</t>
   </si>
   <si>
+    <t>Serius Zega</t>
+  </si>
+  <si>
     <t>Faoziah Sabaniah</t>
-  </si>
-  <si>
-    <t>Serius Zega</t>
   </si>
   <si>
     <t>Jamalluddin salim</t>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,14 +736,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>311328578</v>
+        <v>337627567</v>
       </c>
       <c r="E2">
-        <v>56808401</v>
+        <v>57108401</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.18247088450710747</v>
+        <v>0.16914614380406917</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,14 +757,14 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>228684685</v>
+        <v>243072748</v>
       </c>
       <c r="E3">
-        <v>31807499</v>
+        <v>33320582</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.13908889001465052</v>
+        <v>0.1370806981620169</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,14 +778,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>310818464</v>
+        <v>261081945</v>
       </c>
       <c r="E4">
-        <v>41024847</v>
+        <v>35637652</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.13198973597656025</v>
+        <v>0.13649987171652181</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,20 +793,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5">
-        <v>239221960</v>
+        <v>323519018</v>
       </c>
       <c r="E5">
-        <v>31360472</v>
+        <v>43503166</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.13109361699068095</v>
+        <v>0.13446865123706575</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,20 +814,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>344937616</v>
+        <v>334387541</v>
       </c>
       <c r="E6">
-        <v>44592858</v>
+        <v>42999630</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.12927803733646723</v>
+        <v>0.12859220134640123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,20 +835,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>287800221</v>
+        <v>327671563</v>
       </c>
       <c r="E7">
-        <v>37072240</v>
+        <v>41716879</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.12881240977226352</v>
+        <v>0.12731308941813788</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -856,20 +856,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>300952338</v>
+        <v>370708963</v>
       </c>
       <c r="E8">
-        <v>38596119</v>
+        <v>46625025</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.12824661624658984</v>
+        <v>0.12577258618912865</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,20 +877,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9">
-        <v>290885641</v>
+        <v>376577135</v>
       </c>
       <c r="E9">
-        <v>37300320</v>
+        <v>46899388</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.12823018651511919</v>
+        <v>0.12454125235192519</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,20 +898,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10">
-        <v>325018607</v>
+        <v>324168619</v>
       </c>
       <c r="E10">
-        <v>40877787</v>
+        <v>40286824</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.12577060549644162</v>
+        <v>0.12427737183283617</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,14 +925,14 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>296553383</v>
+        <v>311754339</v>
       </c>
       <c r="E11">
-        <v>36837650</v>
+        <v>38509761</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.12421928769566591</v>
+        <v>0.12352598242425746</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,20 +940,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>252635249</v>
+        <v>312571848</v>
       </c>
       <c r="E12">
-        <v>30363423</v>
+        <v>38192040</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.12018680338625272</v>
+        <v>0.1221864356767024</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,20 +961,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>335813111</v>
+        <v>320445994</v>
       </c>
       <c r="E13">
-        <v>39836871</v>
+        <v>38619963</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.11862809906787708</v>
+        <v>0.12051941270328378</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -982,20 +982,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>301517257</v>
+        <v>291459292</v>
       </c>
       <c r="E14">
-        <v>35682847</v>
+        <v>34844550</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.11834429430352639</v>
+        <v>0.11955202992807654</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,20 +1003,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
-        <v>303034636</v>
+        <v>322106201</v>
       </c>
       <c r="E15">
-        <v>35785220</v>
+        <v>37527547</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.11808953746132175</v>
+        <v>0.11650675113826821</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,20 +1024,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>296817657</v>
+        <v>353734526</v>
       </c>
       <c r="E16">
-        <v>34821975</v>
+        <v>41007787</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.11731773423438889</v>
+        <v>0.11592814380804886</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,14 +1051,14 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>275485274</v>
+        <v>323977315</v>
       </c>
       <c r="E17">
-        <v>31344080</v>
+        <v>36734738</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.11377769687972505</v>
+        <v>0.11338675981063674</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,20 +1066,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>301584773</v>
+        <v>259716202</v>
       </c>
       <c r="E18">
-        <v>34126718</v>
+        <v>28905711</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.11315796106191343</v>
+        <v>0.11129729596153574</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,20 +1087,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19">
-        <v>365377093</v>
+        <v>274803965</v>
       </c>
       <c r="E19">
-        <v>40502545</v>
+        <v>30563423</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.11085135268729066</v>
+        <v>0.11121900297180938</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,20 +1108,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20">
-        <v>297086044</v>
+        <v>269794813</v>
       </c>
       <c r="E20">
-        <v>32088533</v>
+        <v>29824185</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.10801090676612193</v>
+        <v>0.11054395252587751</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,20 +1129,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
-        <v>311041585</v>
+        <v>396411012</v>
       </c>
       <c r="E21">
-        <v>33125705</v>
+        <v>42666913</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.10649928047402407</v>
+        <v>0.10763301651166038</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,20 +1150,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22">
-        <v>245192860</v>
+        <v>328901124</v>
       </c>
       <c r="E22">
-        <v>25856072</v>
+        <v>35104051</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.10545197767993733</v>
+        <v>0.10673131965338008</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,20 +1171,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>252134294</v>
+        <v>315255912</v>
       </c>
       <c r="E23">
-        <v>26399535</v>
+        <v>33044566</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.10470426129338836</v>
+        <v>0.10481822780217996</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,20 +1192,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>289708347</v>
+        <v>332666040</v>
       </c>
       <c r="E24">
-        <v>29765045</v>
+        <v>34748778</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.10274141324619826</v>
+        <v>0.10445544125874706</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,20 +1213,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>284932156</v>
+        <v>339973442</v>
       </c>
       <c r="E25">
-        <v>28768861</v>
+        <v>34929981</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.10096740713252456</v>
+        <v>0.10274326369293281</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,20 +1234,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>297343499</v>
+        <v>320237062</v>
       </c>
       <c r="E26">
-        <v>29957114</v>
+        <v>32088533</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.10074918100025453</v>
+        <v>0.10020243378325773</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,20 +1255,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>301221374</v>
+        <v>259817571</v>
       </c>
       <c r="E27">
-        <v>30310558</v>
+        <v>25400027</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.10062552201225933</v>
+        <v>9.7761005548004293E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1276,20 +1276,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>290711514</v>
+        <v>314661218</v>
       </c>
       <c r="E28">
-        <v>28942790</v>
+        <v>30640236</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>9.9558457805011463E-2</v>
+        <v>9.737531747557146E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,20 +1297,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>243529489</v>
+        <v>325976616</v>
       </c>
       <c r="E29">
-        <v>23527874</v>
+        <v>31032801</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>9.6612012354692703E-2</v>
+        <v>9.5199469768101397E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,20 +1318,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>302708689</v>
+        <v>319800812</v>
       </c>
       <c r="E30">
-        <v>28850489</v>
+        <v>30253998</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>9.530776633900985E-2</v>
+        <v>9.4602630339787885E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,20 +1339,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>294729567</v>
+        <v>305958140</v>
       </c>
       <c r="E31">
-        <v>27972515</v>
+        <v>28884593</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>9.4909089999782745E-2</v>
+        <v>9.4407009403312495E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,20 +1360,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>297175111</v>
+        <v>325072282</v>
       </c>
       <c r="E32">
-        <v>28032142</v>
+        <v>30458544</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>9.4328700360105197E-2</v>
+        <v>9.3697757965103892E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,20 +1381,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>291194557</v>
+        <v>317215129</v>
       </c>
       <c r="E33">
-        <v>27272600</v>
+        <v>29648492</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>9.3657657206827533E-2</v>
+        <v>9.346493685047412E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1402,20 +1402,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>301382188</v>
+        <v>318367387</v>
       </c>
       <c r="E34">
-        <v>27882535</v>
+        <v>29685549</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>9.2515537115949273E-2</v>
+        <v>9.324305884383817E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,20 +1423,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>374496839</v>
+        <v>395691158</v>
       </c>
       <c r="E35">
-        <v>34369596</v>
+        <v>36845524</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>9.1775396801146297E-2</v>
+        <v>9.3116874752101481E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,20 +1444,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>296822450</v>
+        <v>319424847</v>
       </c>
       <c r="E36">
-        <v>27245792</v>
+        <v>28909831</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>9.1791547438544493E-2</v>
+        <v>9.0505892924478734E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,20 +1465,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>310256930</v>
+        <v>334847811</v>
       </c>
       <c r="E37">
-        <v>28263472</v>
+        <v>30262476</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>9.1096988550747285E-2</v>
+        <v>9.0376807032493942E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,20 +1486,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>295890777</v>
+        <v>316596932</v>
       </c>
       <c r="E38">
-        <v>26188409</v>
+        <v>28532064</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>8.8507013518707947E-2</v>
+        <v>9.0121100731323581E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,14 +1513,14 @@
         <v>51</v>
       </c>
       <c r="D39">
-        <v>293604935</v>
+        <v>318566548</v>
       </c>
       <c r="E39">
-        <v>25364248</v>
+        <v>28571163</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>8.6389038385884076E-2</v>
+        <v>8.9686639037818872E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,20 +1528,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>259888244</v>
+        <v>271676597</v>
       </c>
       <c r="E40">
-        <v>22127315</v>
+        <v>23875556</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>8.5141654195023925E-2</v>
+        <v>8.7882269815091951E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,20 +1549,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>295120989</v>
+        <v>310307243</v>
       </c>
       <c r="E41">
-        <v>24773925</v>
+        <v>27006873</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>8.3944978240771614E-2</v>
+        <v>8.7032686504194809E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,20 +1570,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>295439273</v>
+        <v>316821901</v>
       </c>
       <c r="E42">
-        <v>24573394</v>
+        <v>27443396</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>8.3175786856204456E-2</v>
+        <v>8.6620893042365782E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,20 +1591,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>290714989</v>
+        <v>307121314</v>
       </c>
       <c r="E43">
-        <v>23677062</v>
+        <v>26609103</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>8.1444242285009946E-2</v>
+        <v>8.6640365832766658E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,20 +1612,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>315885113</v>
+        <v>309538239</v>
       </c>
       <c r="E44">
-        <v>25620519</v>
+        <v>26382626</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>8.1107079585608713E-2</v>
+        <v>8.5232202926630987E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,20 +1633,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>327813588</v>
+        <v>270947471</v>
       </c>
       <c r="E45">
-        <v>26441061</v>
+        <v>22878775</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>8.0658831628419261E-2</v>
+        <v>8.4439891302768424E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,20 +1654,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>333688271</v>
+        <v>321957007</v>
       </c>
       <c r="E46">
-        <v>26877495</v>
+        <v>26946338</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>8.0546717807770951E-2</v>
+        <v>8.3695454405811401E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,20 +1675,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>254263982</v>
+        <v>316238350</v>
       </c>
       <c r="E47">
-        <v>20010587</v>
+        <v>26306910</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>7.8700045687163031E-2</v>
+        <v>8.3186969575321901E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,20 +1696,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>330787143</v>
+        <v>356310395</v>
       </c>
       <c r="E48">
-        <v>26036206</v>
+        <v>29079025</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>7.8709848768215268E-2</v>
+        <v>8.1611497750437509E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,20 +1717,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>289956822</v>
+        <v>359618973</v>
       </c>
       <c r="E49">
-        <v>22823621</v>
+        <v>29219957</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>7.8713861058940696E-2</v>
+        <v>8.1252545593583012E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,20 +1738,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>326199049</v>
+        <v>347149837</v>
       </c>
       <c r="E50">
-        <v>25623775</v>
+        <v>27596203</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>7.8552574198338637E-2</v>
+        <v>7.9493636633912637E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,20 +1759,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>305583529</v>
+        <v>348328582</v>
       </c>
       <c r="E51">
-        <v>23705259</v>
+        <v>27627813</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>7.7573745802248392E-2</v>
+        <v>7.9315377570709944E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,20 +1780,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>289830213</v>
+        <v>256093363</v>
       </c>
       <c r="E52">
-        <v>22300225</v>
+        <v>20245765</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>7.6942375224352474E-2</v>
+        <v>7.9056187801321509E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,20 +1801,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>303803712</v>
+        <v>329521141</v>
       </c>
       <c r="E53">
-        <v>23016145</v>
+        <v>26051822</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>7.5759920273785197E-2</v>
+        <v>7.9059637633386318E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,20 +1822,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>288600229</v>
+        <v>331674751</v>
       </c>
       <c r="E54">
-        <v>21828477</v>
+        <v>25429752</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>7.5635688424904202E-2</v>
+        <v>7.6670750255571907E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,20 +1843,20 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55">
-        <v>306151375</v>
+        <v>339780179</v>
       </c>
       <c r="E55">
-        <v>23036330</v>
+        <v>24457493</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>7.52449013171997E-2</v>
+        <v>7.1980340560124312E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,20 +1864,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>318210186</v>
+        <v>273448942</v>
       </c>
       <c r="E56">
-        <v>23465251</v>
+        <v>19578570</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>7.3741357229840529E-2</v>
+        <v>7.1598631381795577E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,20 +1885,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>255341740</v>
+        <v>316064554</v>
       </c>
       <c r="E57">
-        <v>18719514</v>
+        <v>22572587</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>7.3311609766581839E-2</v>
+        <v>7.141764780115141E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,20 +1906,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>292723620</v>
+        <v>328950080</v>
       </c>
       <c r="E58">
-        <v>21443923</v>
+        <v>23352007</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>7.3256551692002167E-2</v>
+        <v>7.0989516099220884E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,20 +1927,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>309228687</v>
+        <v>315752427</v>
       </c>
       <c r="E59">
-        <v>22409769</v>
+        <v>22397875</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>7.2469890220760794E-2</v>
+        <v>7.093492586202671E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,20 +1948,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>306553754</v>
+        <v>327793453</v>
       </c>
       <c r="E60">
-        <v>21831838</v>
+        <v>22921840</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>7.1216997721058731E-2</v>
+        <v>6.9927693156214443E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1969,20 +1969,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>321700547</v>
+        <v>338356443</v>
       </c>
       <c r="E61">
-        <v>22568848</v>
+        <v>23276455</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>7.0154832531260813E-2</v>
+        <v>6.8792705094136486E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1990,20 +1990,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>220463660</v>
+        <v>344922082</v>
       </c>
       <c r="E62">
-        <v>14961265</v>
+        <v>23237894</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>6.7862726219822353E-2</v>
+        <v>6.7371430281462821E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,20 +2011,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>311813605</v>
+        <v>311709125</v>
       </c>
       <c r="E63">
-        <v>21034058</v>
+        <v>20583620</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>6.7457152807684578E-2</v>
+        <v>6.6034704630478822E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,20 +2032,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>288337165</v>
+        <v>345631321</v>
       </c>
       <c r="E64">
-        <v>19226915</v>
+        <v>22747537</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>6.668205605753251E-2</v>
+        <v>6.581445493477138E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,20 +2053,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>241632300</v>
+        <v>269913088</v>
       </c>
       <c r="E65">
-        <v>15892582</v>
+        <v>17675745</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>6.5771761473942023E-2</v>
+        <v>6.5486802181300666E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,20 +2074,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>308031337</v>
+        <v>333334448</v>
       </c>
       <c r="E66">
-        <v>20203207</v>
+        <v>21656916</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>6.5588154753228892E-2</v>
+        <v>6.497053073854521E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,20 +2095,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>297938012</v>
+        <v>231365103</v>
       </c>
       <c r="E67">
-        <v>19330662</v>
+        <v>14994535</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>6.4881489509301019E-2</v>
+        <v>6.480897423843561E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2116,20 +2116,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>251875864</v>
+        <v>326407819</v>
       </c>
       <c r="E68">
-        <v>15758525</v>
+        <v>20882288</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>6.2564648909750248E-2</v>
+        <v>6.3976065475318769E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,20 +2137,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>290029022</v>
+        <v>327256588</v>
       </c>
       <c r="E69">
-        <v>17797066</v>
+        <v>20029443</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>6.1363052143105869E-2</v>
+        <v>6.1204094079230574E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2158,20 +2158,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>297109256</v>
+        <v>325975529</v>
       </c>
       <c r="E70">
-        <v>18161410</v>
+        <v>19894190</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>6.1127042100633848E-2</v>
+        <v>6.1029703858537183E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,20 +2179,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>305044031</v>
+        <v>306253293</v>
       </c>
       <c r="E71">
-        <v>17966138</v>
+        <v>18400934</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>5.8896867908226666E-2</v>
+        <v>6.0084036386181816E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,20 +2200,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72">
-        <v>266663871</v>
+        <v>310561787</v>
       </c>
       <c r="E72">
-        <v>15497789</v>
+        <v>18388722</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>5.8117318037432975E-2</v>
+        <v>5.9211154655031656E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2221,20 +2221,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>302710192</v>
+        <v>326446837</v>
       </c>
       <c r="E73">
-        <v>17545556</v>
+        <v>19024351</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>5.7961563448118057E-2</v>
+        <v>5.8277026589784356E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2242,20 +2242,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>285039579</v>
+        <v>287278647</v>
       </c>
       <c r="E74">
-        <v>15826343</v>
+        <v>15618789</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>5.5523317342536488E-2</v>
+        <v>5.4368081871396447E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2269,14 +2269,14 @@
         <v>87</v>
       </c>
       <c r="D75">
-        <v>307097005</v>
+        <v>330567224</v>
       </c>
       <c r="E75">
-        <v>15356141</v>
+        <v>16442362</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>5.0004203069320068E-2</v>
+        <v>4.9739843536333171E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,20 +2284,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>263902160</v>
+        <v>337390193</v>
       </c>
       <c r="E76">
-        <v>10995443</v>
+        <v>16233017</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>4.1664846547675091E-2</v>
+        <v>4.8113482065556067E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,20 +2305,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>306748080</v>
+        <v>285383386</v>
       </c>
       <c r="E77">
-        <v>12516666</v>
+        <v>12840830</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>4.0804382540878495E-2</v>
+        <v>4.4995015932707452E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,23 +2326,24 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>252038933</v>
+        <v>269621725</v>
       </c>
       <c r="E78">
-        <v>7710152</v>
+        <v>11839143</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>3.0591115063957203E-2</v>
+        <v>4.3910196776613605E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C89D48-2CFF-41DB-AB2A-4689A63D226C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{763B494A-152C-42BA-A1E4-3C7AFE3C2271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,19 +691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2344,6 +2336,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{763B494A-152C-42BA-A1E4-3C7AFE3C2271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0CF45FC-0DF4-4EE0-8D89-E2BA46CC1E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,10 +692,18 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0CF45FC-0DF4-4EE0-8D89-E2BA46CC1E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3A9D31-5BA9-4DBC-9407-4ADC06408897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,18 +692,10 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F2" sqref="F2:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE3A9D31-5BA9-4DBC-9407-4ADC06408897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A7D70F1-0D7D-429E-9236-E31AB507D8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,6 +69,15 @@
     <t>Pertiwi</t>
   </si>
   <si>
+    <t>Zakka_S2l</t>
+  </si>
+  <si>
+    <t>Indra Gunawan</t>
+  </si>
+  <si>
+    <t>Desi Eka</t>
+  </si>
+  <si>
     <t>Selomita Maharani</t>
   </si>
   <si>
@@ -81,73 +90,73 @@
     <t>Hansyah_S2l</t>
   </si>
   <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>Feriyan Wijaya S</t>
+  </si>
+  <si>
+    <t>Dimas Eka Putra</t>
+  </si>
+  <si>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Saizah Rafida Sari</t>
+  </si>
+  <si>
+    <t>Desi Skarsari</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>Feriyan Wijaya S</t>
-  </si>
-  <si>
-    <t>Dimas Eka Putra</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Desi Skarsari</t>
-  </si>
-  <si>
-    <t>Zakka_S2l</t>
-  </si>
-  <si>
-    <t>Indra Gunawan</t>
-  </si>
-  <si>
     <t>Anzelma Tamalia</t>
   </si>
   <si>
+    <t>Winda Ayu Utami</t>
+  </si>
+  <si>
     <t>EDN_S2l</t>
   </si>
   <si>
     <t>Dwi Rahayu Maulani Putri</t>
   </si>
   <si>
-    <t>Desi Eka</t>
+    <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
     <t>Fikri Adriansyah</t>
   </si>
   <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Saizah Rafida Sari</t>
-  </si>
-  <si>
-    <t>Wahyu Febrianto Nur Tantular</t>
+    <t>Dende Ayu Kencana Wungu</t>
+  </si>
+  <si>
+    <t>Febrianto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miranti </t>
   </si>
   <si>
     <t>Rahma amelia</t>
   </si>
   <si>
-    <t>Dende Ayu Kencana Wungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miranti </t>
-  </si>
-  <si>
-    <t>Febrianto</t>
+    <t>Dimas</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>Ahmad Fauzi</t>
+  </si>
+  <si>
+    <t>Irvan Zaky Zulkarnain</t>
   </si>
   <si>
     <t>Indisabellia</t>
   </si>
   <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Ahmad Fauzi</t>
-  </si>
-  <si>
-    <t>Dimas</t>
+    <t>Elena Juwita Sari</t>
   </si>
   <si>
     <t>Helmy Hidayat</t>
@@ -156,70 +165,70 @@
     <t>Rahmat Hidayat</t>
   </si>
   <si>
+    <t>Bagoes Tjahaya</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>Erika Fitriyanti</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>Defister Zalukhu</t>
+  </si>
+  <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>Elena Juwita Sari</t>
-  </si>
-  <si>
-    <t>Defister Zalukhu</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>Erika Fitriyanti</t>
-  </si>
-  <si>
     <t>Rifal</t>
   </si>
   <si>
-    <t>Bagoes Tjahaya</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
-  </si>
-  <si>
-    <t>Irvan Zaky Zulkarnain</t>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>Arisman Zega</t>
   </si>
   <si>
     <t>Susanti</t>
   </si>
   <si>
+    <t>Lenny Nuraida</t>
+  </si>
+  <si>
+    <t>Amirah Syahidah</t>
+  </si>
+  <si>
+    <t>Muhammad Fadhil Fakhruddin</t>
+  </si>
+  <si>
+    <t>Komariah</t>
+  </si>
+  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Arisman Zega</t>
-  </si>
-  <si>
-    <t>Muhammad Fadhil Fakhruddin</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>Lenny Nuraida</t>
-  </si>
-  <si>
-    <t>Komariah</t>
-  </si>
-  <si>
-    <t>Winda Ayu Utami</t>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Sema Salwanda Rivanka</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>Amirah Syahidah</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
+    <t>Mutiara</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
   </si>
   <si>
     <t>Ebiet Jaka Ramadan</t>
@@ -228,10 +237,22 @@
     <t>Muhammad Rizki Daelami</t>
   </si>
   <si>
-    <t>Mutiara</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
+    <t>Tasya Wiranda Agustin</t>
+  </si>
+  <si>
+    <t>Adriansah</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>Ilham Syaid</t>
+  </si>
+  <si>
+    <t>Fitriyani</t>
+  </si>
+  <si>
+    <t>Aura Ramadhani</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
@@ -240,67 +261,46 @@
     <t>Maya Margareta</t>
   </si>
   <si>
-    <t>Sema Salwanda Rivanka</t>
-  </si>
-  <si>
     <t>Muhammad Ilham</t>
   </si>
   <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
-    <t>Aura Ramadhani</t>
+    <t>Saeful Aziz</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
   </si>
   <si>
     <t>Afsyal Suwandi</t>
   </si>
   <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>Tasya Wiranda Agustin</t>
-  </si>
-  <si>
-    <t>Adriansah</t>
-  </si>
-  <si>
-    <t>Ilham Syaid</t>
-  </si>
-  <si>
-    <t>Fitriyani</t>
-  </si>
-  <si>
-    <t>Saeful Aziz</t>
-  </si>
-  <si>
     <t>Abdul Hamid</t>
   </si>
   <si>
+    <t>Nurhasanah</t>
+  </si>
+  <si>
+    <t>Cici Fatma Ramadhani</t>
+  </si>
+  <si>
     <t>Aura Devana Sopiyanti</t>
   </si>
   <si>
     <t>Imelda Astri Paidin</t>
   </si>
   <si>
-    <t>Cici Fatma Ramadhani</t>
-  </si>
-  <si>
     <t>Ahmad Septian</t>
   </si>
   <si>
-    <t>Nurhasanah</t>
+    <t>Mulhimah</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
-    <t>Mulhimah</t>
+    <t>Faoziah Sabaniah</t>
   </si>
   <si>
     <t>Serius Zega</t>
-  </si>
-  <si>
-    <t>Faoziah Sabaniah</t>
   </si>
   <si>
     <t>Jamalluddin salim</t>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F78"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,14 +728,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>337627567</v>
+        <v>350066558</v>
       </c>
       <c r="E2">
-        <v>57108401</v>
+        <v>57619058</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.16914614380406917</v>
+        <v>0.16459457975417349</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,14 +749,14 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>243072748</v>
+        <v>254453062</v>
       </c>
       <c r="E3">
-        <v>33320582</v>
+        <v>33892565</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.1370806981620169</v>
+        <v>0.13319770936771042</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,14 +770,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>261081945</v>
+        <v>277023004</v>
       </c>
       <c r="E4">
-        <v>35637652</v>
+        <v>36412965</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.13649987171652181</v>
+        <v>0.13144383128557799</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,20 +785,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>323519018</v>
+        <v>323611114</v>
       </c>
       <c r="E5">
-        <v>43503166</v>
+        <v>42183612</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.13446865123706575</v>
+        <v>0.13035279128268754</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,20 +806,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>334387541</v>
+        <v>331963385</v>
       </c>
       <c r="E6">
-        <v>42999630</v>
+        <v>43224311</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.12859220134640123</v>
+        <v>0.13020806797713549</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,20 +827,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7">
-        <v>327671563</v>
+        <v>339252427</v>
       </c>
       <c r="E7">
-        <v>41716879</v>
+        <v>44127206</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.12731308941813788</v>
+        <v>0.1300718948135926</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,20 +848,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8">
-        <v>370708963</v>
+        <v>344046759</v>
       </c>
       <c r="E8">
-        <v>46625025</v>
+        <v>44723675</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.12577258618912865</v>
+        <v>0.12999301353686055</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,20 +869,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>376577135</v>
+        <v>334856094</v>
       </c>
       <c r="E9">
-        <v>46899388</v>
+        <v>42884085</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.12454125235192519</v>
+        <v>0.12806720787945403</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,20 +890,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>324168619</v>
+        <v>380420937</v>
       </c>
       <c r="E10">
-        <v>40286824</v>
+        <v>47553981</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.12427737183283617</v>
+        <v>0.12500358517333657</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,20 +911,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>311754339</v>
+        <v>389225580</v>
       </c>
       <c r="E11">
-        <v>38509761</v>
+        <v>48629501</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.12352598242425746</v>
+        <v>0.1249391188523632</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,20 +932,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>312571848</v>
+        <v>331835584</v>
       </c>
       <c r="E12">
-        <v>38192040</v>
+        <v>41443696</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.1221864356767024</v>
+        <v>0.12489225989699766</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -956,17 +956,17 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>320445994</v>
+        <v>327121373</v>
       </c>
       <c r="E13">
-        <v>38619963</v>
+        <v>40531478</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.12051941270328378</v>
+        <v>0.12390348459438631</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,20 +974,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
-        <v>291459292</v>
+        <v>341063822</v>
       </c>
       <c r="E14">
-        <v>34844550</v>
+        <v>41716879</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.11955202992807654</v>
+        <v>0.12231399611771195</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,20 +995,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
-        <v>322106201</v>
+        <v>333784829</v>
       </c>
       <c r="E15">
-        <v>37527547</v>
+        <v>39550592</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.11650675113826821</v>
+        <v>0.11849128110013651</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,20 +1016,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>353734526</v>
+        <v>336924147</v>
       </c>
       <c r="E16">
-        <v>41007787</v>
+        <v>39460397</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.11592814380804886</v>
+        <v>0.11711952779686047</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,14 +1043,14 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>323977315</v>
+        <v>302600883</v>
       </c>
       <c r="E17">
-        <v>36734738</v>
+        <v>34950909</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.11338675981063674</v>
+        <v>0.11550167551890456</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,20 +1058,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>259716202</v>
+        <v>268231523</v>
       </c>
       <c r="E18">
-        <v>28905711</v>
+        <v>30191689</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.11129729596153574</v>
+        <v>0.11255831776341962</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,20 +1079,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19">
-        <v>274803965</v>
+        <v>367334316</v>
       </c>
       <c r="E19">
-        <v>30563423</v>
+        <v>41275111</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.11121900297180938</v>
+        <v>0.11236388543672027</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,20 +1100,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20">
-        <v>269794813</v>
+        <v>277655394</v>
       </c>
       <c r="E20">
-        <v>29824185</v>
+        <v>31124473</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11054395252587751</v>
+        <v>0.11209749089189314</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,20 +1121,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
-        <v>396411012</v>
+        <v>340051787</v>
       </c>
       <c r="E21">
-        <v>42666913</v>
+        <v>37563601</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.10763301651166038</v>
+        <v>0.11046435406616463</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,20 +1142,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22">
-        <v>328901124</v>
+        <v>406977831</v>
       </c>
       <c r="E22">
-        <v>35104051</v>
+        <v>44909598</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.10673131965338008</v>
+        <v>0.11034900326057318</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,20 +1163,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>315255912</v>
+        <v>286344918</v>
       </c>
       <c r="E23">
-        <v>33044566</v>
+        <v>30663423</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.10481822780217996</v>
+        <v>0.10708561972802325</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,20 +1184,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>332666040</v>
+        <v>330300974</v>
       </c>
       <c r="E24">
-        <v>34748778</v>
+        <v>35305766</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.10445544125874706</v>
+        <v>0.10688968177247943</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,20 +1205,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>339973442</v>
+        <v>341892945</v>
       </c>
       <c r="E25">
-        <v>34929981</v>
+        <v>36486162</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.10274326369293281</v>
+        <v>0.10671808978099855</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,20 +1226,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>320237062</v>
+        <v>349740361</v>
       </c>
       <c r="E26">
-        <v>32088533</v>
+        <v>36766104</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.10020243378325773</v>
+        <v>0.10512399511133347</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,20 +1247,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>259817571</v>
+        <v>329436802</v>
       </c>
       <c r="E27">
-        <v>25400027</v>
+        <v>34619607</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>9.7761005548004293E-2</v>
+        <v>0.10508724826681629</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,20 +1268,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>314661218</v>
+        <v>325652930</v>
       </c>
       <c r="E28">
-        <v>30640236</v>
+        <v>33554576</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>9.737531747557146E-2</v>
+        <v>0.1030378446157386</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,20 +1289,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>325976616</v>
+        <v>314670516</v>
       </c>
       <c r="E29">
-        <v>31032801</v>
+        <v>32387613</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>9.5199469768101397E-2</v>
+        <v>0.10292547713621825</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,20 +1310,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>319800812</v>
+        <v>267137498</v>
       </c>
       <c r="E30">
-        <v>30253998</v>
+        <v>26793935</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>9.4602630339787885E-2</v>
+        <v>0.10030016452426309</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,20 +1331,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>305958140</v>
+        <v>329084894</v>
       </c>
       <c r="E31">
-        <v>28884593</v>
+        <v>32682399</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>9.4407009403312495E-2</v>
+        <v>9.9312972414953821E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,20 +1352,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>325072282</v>
+        <v>330642730</v>
       </c>
       <c r="E32">
-        <v>30458544</v>
+        <v>32717718</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>9.3697757965103892E-2</v>
+        <v>9.8951874731980347E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,20 +1373,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>317215129</v>
+        <v>342591037</v>
       </c>
       <c r="E33">
-        <v>29648492</v>
+        <v>33048811</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>9.346493685047412E-2</v>
+        <v>9.6467237699508171E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,20 +1394,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>318367387</v>
+        <v>374621204</v>
       </c>
       <c r="E34">
-        <v>29685549</v>
+        <v>35948956</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>9.324305884383817E-2</v>
+        <v>9.5960814860869437E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,20 +1415,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>395691158</v>
+        <v>329092123</v>
       </c>
       <c r="E35">
-        <v>36845524</v>
+        <v>31585160</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>9.3116874752101481E-2</v>
+        <v>9.5976651498279705E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,20 +1436,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>319424847</v>
+        <v>328089803</v>
       </c>
       <c r="E36">
-        <v>28909831</v>
+        <v>30909677</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>9.0505892924478734E-2</v>
+        <v>9.4211026119577393E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,20 +1457,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>334847811</v>
+        <v>329226690</v>
       </c>
       <c r="E37">
-        <v>30262476</v>
+        <v>30927463</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>9.0376807032493942E-2</v>
+        <v>9.3939719771808289E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,20 +1478,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>316596932</v>
+        <v>333923717</v>
       </c>
       <c r="E38">
-        <v>28532064</v>
+        <v>30998648</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>9.0121100731323581E-2</v>
+        <v>9.2831525351042971E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,20 +1499,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>318566548</v>
+        <v>335755173</v>
       </c>
       <c r="E39">
-        <v>28571163</v>
+        <v>31032801</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>8.9686639037818872E-2</v>
+        <v>9.2426873792351066E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,20 +1520,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>271676597</v>
+        <v>409985135</v>
       </c>
       <c r="E40">
-        <v>23875556</v>
+        <v>37814660</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>8.7882269815091951E-2</v>
+        <v>9.2234222101735472E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,20 +1541,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>310307243</v>
+        <v>315737797</v>
       </c>
       <c r="E41">
-        <v>27006873</v>
+        <v>28894535</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>8.7032686504194809E-2</v>
+        <v>9.1514336498648596E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>316821901</v>
+        <v>324961955</v>
       </c>
       <c r="E42">
-        <v>27443396</v>
+        <v>29331639</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>8.6620893042365782E-2</v>
+        <v>9.0261763103930123E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,20 +1583,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>307121314</v>
+        <v>332894001</v>
       </c>
       <c r="E43">
-        <v>26609103</v>
+        <v>29969378</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>8.6640365832766658E-2</v>
+        <v>9.0026789037871549E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
@@ -1613,11 +1613,11 @@
         <v>309538239</v>
       </c>
       <c r="E44">
-        <v>26382626</v>
+        <v>27636601</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>8.5232202926630987E-2</v>
+        <v>8.9283317916659721E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,20 +1625,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>270947471</v>
+        <v>371993987</v>
       </c>
       <c r="E45">
-        <v>22878775</v>
+        <v>32713456</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>8.4439891302768424E-2</v>
+        <v>8.7940819322974706E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,14 +1652,14 @@
         <v>58</v>
       </c>
       <c r="D46">
-        <v>321957007</v>
+        <v>326883811</v>
       </c>
       <c r="E46">
-        <v>26946338</v>
+        <v>28522016</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>8.3695454405811401E-2</v>
+        <v>8.7254293544687042E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,20 +1667,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>316238350</v>
+        <v>281454378</v>
       </c>
       <c r="E47">
-        <v>26306910</v>
+        <v>24314824</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>8.3186969575321901E-2</v>
+        <v>8.6389929951631445E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,20 +1688,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>356310395</v>
+        <v>281143423</v>
       </c>
       <c r="E48">
-        <v>29079025</v>
+        <v>23875556</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>8.1611497750437509E-2</v>
+        <v>8.4923046554782819E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,20 +1709,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>359618973</v>
+        <v>360218661</v>
       </c>
       <c r="E49">
-        <v>29219957</v>
+        <v>30020471</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>8.1252545593583012E-2</v>
+        <v>8.3339577457371097E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,20 +1730,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>347149837</v>
+        <v>326148347</v>
       </c>
       <c r="E50">
-        <v>27596203</v>
+        <v>26946419</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>7.9493636633912637E-2</v>
+        <v>8.2620130526063956E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,20 +1751,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>348328582</v>
+        <v>324518843</v>
       </c>
       <c r="E51">
-        <v>27627813</v>
+        <v>26306910</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>7.9315377570709944E-2</v>
+        <v>8.1064352864095482E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,20 +1772,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>256093363</v>
+        <v>339581324</v>
       </c>
       <c r="E52">
-        <v>20245765</v>
+        <v>27524126</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>7.9056187801321509E-2</v>
+        <v>8.1053120577384868E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,20 +1793,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>329521141</v>
+        <v>343540166</v>
       </c>
       <c r="E53">
-        <v>26051822</v>
+        <v>27235195</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>7.9059637633386318E-2</v>
+        <v>7.9278051580146239E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,20 +1814,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>331674751</v>
+        <v>360449276</v>
       </c>
       <c r="E54">
-        <v>25429752</v>
+        <v>28546832</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>7.6670750255571907E-2</v>
+        <v>7.9197917434574064E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,20 +1835,20 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55">
-        <v>339780179</v>
+        <v>266434550</v>
       </c>
       <c r="E55">
-        <v>24457493</v>
+        <v>21050773</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>7.1980340560124312E-2</v>
+        <v>7.9009171295539568E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>273448942</v>
+        <v>321967665</v>
       </c>
       <c r="E56">
-        <v>19578570</v>
+        <v>25291274</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>7.1598631381795577E-2</v>
+        <v>7.8552217347664405E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,20 +1877,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>316064554</v>
+        <v>355593350</v>
       </c>
       <c r="E57">
-        <v>22572587</v>
+        <v>27739623</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>7.141764780115141E-2</v>
+        <v>7.8009397532321681E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,20 +1898,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>328950080</v>
+        <v>332107238</v>
       </c>
       <c r="E58">
-        <v>23352007</v>
+        <v>25389075</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>7.0989516099220884E-2</v>
+        <v>7.6448424168340467E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,20 +1919,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>315752427</v>
+        <v>280475742</v>
       </c>
       <c r="E59">
-        <v>22397875</v>
+        <v>20323114</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>7.093492586202671E-2</v>
+        <v>7.2459435725461069E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,20 +1940,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>327793453</v>
+        <v>345216142</v>
       </c>
       <c r="E60">
-        <v>22921840</v>
+        <v>25003432</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>6.9927693156214443E-2</v>
+        <v>7.2428339692180446E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,20 +1961,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>338356443</v>
+        <v>327793453</v>
       </c>
       <c r="E61">
-        <v>23276455</v>
+        <v>23593492</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>6.8792705094136486E-2</v>
+        <v>7.197670296361898E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,20 +1982,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>344922082</v>
+        <v>348362716</v>
       </c>
       <c r="E62">
-        <v>23237894</v>
+        <v>24749928</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>6.7371430281462821E-2</v>
+        <v>7.1046431960876094E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,20 +2003,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>311709125</v>
+        <v>285420737</v>
       </c>
       <c r="E63">
-        <v>20583620</v>
+        <v>19806125</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>6.6034704630478822E-2</v>
+        <v>6.9392733016452129E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,20 +2024,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>345631321</v>
+        <v>342957169</v>
       </c>
       <c r="E64">
-        <v>22747537</v>
+        <v>23769966</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>6.581445493477138E-2</v>
+        <v>6.9308847134786092E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,20 +2045,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>269913088</v>
+        <v>241438572</v>
       </c>
       <c r="E65">
-        <v>17675745</v>
+        <v>16319787</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>6.5486802181300666E-2</v>
+        <v>6.7593950978139486E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,20 +2066,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>333334448</v>
+        <v>354408180</v>
       </c>
       <c r="E66">
-        <v>21656916</v>
+        <v>23648532</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>6.497053073854521E-2</v>
+        <v>6.6726823291719736E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,20 +2087,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>231365103</v>
+        <v>352911956</v>
       </c>
       <c r="E67">
-        <v>14994535</v>
+        <v>23476455</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>6.480897423843561E-2</v>
+        <v>6.6522129955835216E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,14 +2114,14 @@
         <v>80</v>
       </c>
       <c r="D68">
-        <v>326407819</v>
+        <v>334992753</v>
       </c>
       <c r="E68">
-        <v>20882288</v>
+        <v>21908677</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>6.3976065475318769E-2</v>
+        <v>6.5400450618106357E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,20 +2129,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>327256588</v>
+        <v>336090592</v>
       </c>
       <c r="E69">
-        <v>20029443</v>
+        <v>21592522</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>6.1204094079230574E-2</v>
+        <v>6.4246136351237104E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,20 +2150,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>325975529</v>
+        <v>317918855</v>
       </c>
       <c r="E70">
-        <v>19894190</v>
+        <v>20009183</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>6.1029703858537183E-2</v>
+        <v>6.2938019199899289E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,20 +2171,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>306253293</v>
+        <v>341572663</v>
       </c>
       <c r="E71">
-        <v>18400934</v>
+        <v>21134273</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>6.0084036386181816E-2</v>
+        <v>6.1873432183886447E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,20 +2192,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72">
-        <v>310561787</v>
+        <v>336739580</v>
       </c>
       <c r="E72">
-        <v>18388722</v>
+        <v>20052858</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>5.9211154655031656E-2</v>
+        <v>5.9550047547128261E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,20 +2213,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>326446837</v>
+        <v>324348119</v>
       </c>
       <c r="E73">
-        <v>19024351</v>
+        <v>19030010</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>5.8277026589784356E-2</v>
+        <v>5.8671559615241675E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,20 +2234,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>287278647</v>
+        <v>339982308</v>
       </c>
       <c r="E74">
-        <v>15618789</v>
+        <v>19378577</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>5.4368081871396447E-2</v>
+        <v>5.6998780654198042E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,20 +2255,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>330567224</v>
+        <v>296079966</v>
       </c>
       <c r="E75">
-        <v>16442362</v>
+        <v>16608104</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>4.9739843536333171E-2</v>
+        <v>5.6093305549758138E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,20 +2276,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>337390193</v>
+        <v>295442272</v>
       </c>
       <c r="E76">
-        <v>16233017</v>
+        <v>14975800</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>4.8113482065556067E-2</v>
+        <v>5.0689428762584116E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,20 +2297,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>285383386</v>
+        <v>348665100</v>
       </c>
       <c r="E77">
-        <v>12840830</v>
+        <v>17321300</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>4.4995015932707452E-2</v>
+        <v>4.9678903910944913E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2324,14 +2324,14 @@
         <v>90</v>
       </c>
       <c r="D78">
-        <v>269621725</v>
+        <v>280181981</v>
       </c>
       <c r="E78">
-        <v>11839143</v>
+        <v>13485812</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>4.3910196776613605E-2</v>
+        <v>4.8132331536338162E-2</v>
       </c>
     </row>
   </sheetData>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A7D70F1-0D7D-429E-9236-E31AB507D8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AEF9C60-C665-41FA-ABA2-CDACD3EDA6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AEF9C60-C665-41FA-ABA2-CDACD3EDA6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{721BA958-D8EC-44A2-9D22-6DB0E8CFF4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{721BA958-D8EC-44A2-9D22-6DB0E8CFF4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D031ED5C-8B76-4F53-B0BC-CDB5B9350684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,163 +60,175 @@
     <t>Muhammad Refaldy Rojak</t>
   </si>
   <si>
+    <t>Xinghao_s2l</t>
+  </si>
+  <si>
+    <t>Feriyan Wijaya S</t>
+  </si>
+  <si>
+    <t>Zakka_S2l</t>
+  </si>
+  <si>
+    <t>Indra Gunawan</t>
+  </si>
+  <si>
+    <t>Anzelma Tamalia</t>
+  </si>
+  <si>
+    <t>Pertiwi</t>
+  </si>
+  <si>
     <t>Amanda Agustin</t>
   </si>
   <si>
-    <t>Xinghao_s2l</t>
-  </si>
-  <si>
-    <t>Pertiwi</t>
-  </si>
-  <si>
-    <t>Zakka_S2l</t>
-  </si>
-  <si>
-    <t>Indra Gunawan</t>
+    <t>Selomita Maharani</t>
+  </si>
+  <si>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Saizah Rafida Sari</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>Mkm_s2l</t>
+  </si>
+  <si>
+    <t>Willman zega</t>
   </si>
   <si>
     <t>Desi Eka</t>
   </si>
   <si>
-    <t>Selomita Maharani</t>
-  </si>
-  <si>
-    <t>Mkm_s2l</t>
-  </si>
-  <si>
-    <t>Willman zega</t>
-  </si>
-  <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Feriyan Wijaya S</t>
+    <t>Desi Skarsari</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
+    <t>Winda Ayu Utami</t>
   </si>
   <si>
     <t>Dimas Eka Putra</t>
   </si>
   <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Saizah Rafida Sari</t>
-  </si>
-  <si>
-    <t>Desi Skarsari</t>
-  </si>
-  <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Anzelma Tamalia</t>
-  </si>
-  <si>
-    <t>Winda Ayu Utami</t>
-  </si>
-  <si>
     <t>EDN_S2l</t>
   </si>
   <si>
     <t>Dwi Rahayu Maulani Putri</t>
   </si>
   <si>
+    <t>Febrianto</t>
+  </si>
+  <si>
+    <t>Irvan Zaky Zulkarnain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miranti </t>
+  </si>
+  <si>
+    <t>Rahmat Hidayat</t>
+  </si>
+  <si>
+    <t>Fikri Adriansyah</t>
+  </si>
+  <si>
+    <t>Ahmad Fauzi</t>
+  </si>
+  <si>
+    <t>Adriansah</t>
+  </si>
+  <si>
     <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
-    <t>Fikri Adriansyah</t>
+    <t>Rahma amelia</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
   </si>
   <si>
     <t>Dende Ayu Kencana Wungu</t>
   </si>
   <si>
-    <t>Febrianto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miranti </t>
-  </si>
-  <si>
-    <t>Rahma amelia</t>
+    <t>Helmy Hidayat</t>
   </si>
   <si>
     <t>Dimas</t>
   </si>
   <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Ahmad Fauzi</t>
-  </si>
-  <si>
-    <t>Irvan Zaky Zulkarnain</t>
-  </si>
-  <si>
     <t>Indisabellia</t>
   </si>
   <si>
     <t>Elena Juwita Sari</t>
   </si>
   <si>
-    <t>Helmy Hidayat</t>
-  </si>
-  <si>
-    <t>Rahmat Hidayat</t>
-  </si>
-  <si>
     <t>Bagoes Tjahaya</t>
   </si>
   <si>
+    <t>Erika Fitriyanti</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>Defister Zalukhu</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>Erika Fitriyanti</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
+    <t>Rifal</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>Defister Zalukhu</t>
+    <t>Ebiet Jaka Ramadan</t>
   </si>
   <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>Rifal</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
+    <t>Susanti</t>
   </si>
   <si>
     <t>Arisman Zega</t>
   </si>
   <si>
-    <t>Susanti</t>
+    <t>Komariah</t>
+  </si>
+  <si>
+    <t>Amirah Syahidah</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Muhammad Fadhil Fakhruddin</t>
   </si>
   <si>
     <t>Lenny Nuraida</t>
   </si>
   <si>
-    <t>Amirah Syahidah</t>
-  </si>
-  <si>
-    <t>Muhammad Fadhil Fakhruddin</t>
-  </si>
-  <si>
-    <t>Komariah</t>
-  </si>
-  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Riska Nurlita</t>
+    <t>Muhammad Rizki Daelami</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
   </si>
   <si>
     <t>Sema Salwanda Rivanka</t>
@@ -225,85 +237,73 @@
     <t>Axl Wicaksono</t>
   </si>
   <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
     <t>Mutiara</t>
   </si>
   <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>Ebiet Jaka Ramadan</t>
-  </si>
-  <si>
-    <t>Muhammad Rizki Daelami</t>
-  </si>
-  <si>
     <t>Tasya Wiranda Agustin</t>
   </si>
   <si>
-    <t>Adriansah</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
+    <t>Aura Ramadhani</t>
+  </si>
+  <si>
+    <t>Maya Margareta</t>
+  </si>
+  <si>
+    <t>Aura Devana Sopiyanti</t>
+  </si>
+  <si>
+    <t>Muhammad Ilham</t>
+  </si>
+  <si>
+    <t>Fitriyani</t>
   </si>
   <si>
     <t>Ilham Syaid</t>
   </si>
   <si>
-    <t>Fitriyani</t>
-  </si>
-  <si>
-    <t>Aura Ramadhani</t>
+    <t>Aldi Taufik</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>Maya Margareta</t>
-  </si>
-  <si>
-    <t>Muhammad Ilham</t>
+    <t>Nurhasanah</t>
   </si>
   <si>
     <t>Saeful Aziz</t>
   </si>
   <si>
-    <t>Aldi Taufik</t>
+    <t>Abdul Hamid</t>
   </si>
   <si>
     <t>Afsyal Suwandi</t>
   </si>
   <si>
-    <t>Abdul Hamid</t>
-  </si>
-  <si>
-    <t>Nurhasanah</t>
+    <t>Ahmad Septian</t>
+  </si>
+  <si>
+    <t>Mulhimah</t>
   </si>
   <si>
     <t>Cici Fatma Ramadhani</t>
   </si>
   <si>
-    <t>Aura Devana Sopiyanti</t>
+    <t>Jamalluddin salim</t>
+  </si>
+  <si>
+    <t>Serius Zega</t>
   </si>
   <si>
     <t>Imelda Astri Paidin</t>
   </si>
   <si>
-    <t>Ahmad Septian</t>
-  </si>
-  <si>
-    <t>Mulhimah</t>
-  </si>
-  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
     <t>Faoziah Sabaniah</t>
-  </si>
-  <si>
-    <t>Serius Zega</t>
-  </si>
-  <si>
-    <t>Jamalluddin salim</t>
   </si>
 </sst>
 </file>
@@ -691,11 +691,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -728,14 +736,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>350066558</v>
+        <v>361973733</v>
       </c>
       <c r="E2">
-        <v>57619058</v>
+        <v>59210043</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.16459457975417349</v>
+        <v>0.16357552386266658</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,20 +751,20 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>254453062</v>
+        <v>388310098</v>
       </c>
       <c r="E3">
-        <v>33892565</v>
+        <v>53143212</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.13319770936771042</v>
+        <v>0.13685766163104005</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,20 +772,20 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>277023004</v>
+        <v>332963479</v>
       </c>
       <c r="E4">
-        <v>36412965</v>
+        <v>45131977</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.13144383128557799</v>
+        <v>0.1355463281905461</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,20 +793,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>323611114</v>
+        <v>342897896</v>
       </c>
       <c r="E5">
-        <v>42183612</v>
+        <v>46186936</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.13035279128268754</v>
+        <v>0.13469588626463896</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,20 +814,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>331963385</v>
+        <v>288741721</v>
       </c>
       <c r="E6">
-        <v>43224311</v>
+        <v>38282000</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.13020806797713549</v>
+        <v>0.13258215635557566</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,14 +841,14 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>339252427</v>
+        <v>266375425</v>
       </c>
       <c r="E7">
-        <v>44127206</v>
+        <v>35190316</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.1300718948135926</v>
+        <v>0.13210796754242626</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,20 +856,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8">
-        <v>344046759</v>
+        <v>349149262</v>
       </c>
       <c r="E8">
-        <v>44723675</v>
+        <v>44996394</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.12999301353686055</v>
+        <v>0.12887437808761573</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,20 +877,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
       <c r="D9">
-        <v>334856094</v>
+        <v>347469202</v>
       </c>
       <c r="E9">
-        <v>42884085</v>
+        <v>44090762</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.12806720787945403</v>
+        <v>0.1268911366711574</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,20 +898,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>380420937</v>
+        <v>346496189</v>
       </c>
       <c r="E10">
-        <v>47553981</v>
+        <v>43764015</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.12500358517333657</v>
+        <v>0.12630446275990642</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,20 +919,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>389225580</v>
+        <v>354006372</v>
       </c>
       <c r="E11">
-        <v>48629501</v>
+        <v>44723675</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.1249391188523632</v>
+        <v>0.12633579092751471</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,20 +940,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12">
-        <v>331835584</v>
+        <v>344393872</v>
       </c>
       <c r="E12">
-        <v>41443696</v>
+        <v>43431987</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.12489225989699766</v>
+        <v>0.12611138156372306</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,14 +967,14 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>327121373</v>
+        <v>335375720</v>
       </c>
       <c r="E13">
-        <v>40531478</v>
+        <v>42172561</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.12390348459438631</v>
+        <v>0.12574720972645248</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,20 +982,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
-        <v>341063822</v>
+        <v>353225284</v>
       </c>
       <c r="E14">
-        <v>41716879</v>
+        <v>42920905</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.12231399611771195</v>
+        <v>0.12151141762547213</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,14 +1009,14 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>333784829</v>
+        <v>345391296</v>
       </c>
       <c r="E15">
-        <v>39550592</v>
+        <v>41625414</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.11849128110013651</v>
+        <v>0.12051668493695915</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,20 +1024,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>336924147</v>
+        <v>405154560</v>
       </c>
       <c r="E16">
-        <v>39460397</v>
+        <v>48629501</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.11711952779686047</v>
+        <v>0.1200270361019755</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,14 +1051,14 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>302600883</v>
+        <v>312383785</v>
       </c>
       <c r="E17">
-        <v>34950909</v>
+        <v>36013774</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.11550167551890456</v>
+        <v>0.11528695063349718</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,20 +1066,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>268231523</v>
+        <v>352467789</v>
       </c>
       <c r="E18">
-        <v>30191689</v>
+        <v>39712689</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.11255831776341962</v>
+        <v>0.11267040631619249</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,20 +1087,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19">
-        <v>367334316</v>
+        <v>338995790</v>
       </c>
       <c r="E19">
-        <v>41275111</v>
+        <v>38205869</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.11236388543672027</v>
+        <v>0.11270307811197301</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,14 +1114,14 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>277655394</v>
+        <v>416567995</v>
       </c>
       <c r="E20">
-        <v>31124473</v>
+        <v>46455156</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11209749089189314</v>
+        <v>0.11151878338613123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,20 +1129,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
-        <v>340051787</v>
+        <v>338920394</v>
       </c>
       <c r="E21">
-        <v>37563601</v>
+        <v>37789975</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.11046435406616463</v>
+        <v>0.11150103584501321</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,20 +1150,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22">
-        <v>406977831</v>
+        <v>378401827</v>
       </c>
       <c r="E22">
-        <v>44909598</v>
+        <v>41878722</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.11034900326057318</v>
+        <v>0.11067262103890424</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,20 +1171,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>286344918</v>
+        <v>359382226</v>
       </c>
       <c r="E23">
-        <v>30663423</v>
+        <v>39675553</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.10708561972802325</v>
+        <v>0.11039931896910227</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,20 +1192,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>330300974</v>
+        <v>383649684</v>
       </c>
       <c r="E24">
-        <v>35305766</v>
+        <v>42245490</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.10688968177247943</v>
+        <v>0.11011475249905328</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,20 +1213,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>341892945</v>
+        <v>280498301</v>
       </c>
       <c r="E25">
-        <v>36486162</v>
+        <v>30848198</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.10671808978099855</v>
+        <v>0.10997641657729684</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,20 +1234,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>349740361</v>
+        <v>297257419</v>
       </c>
       <c r="E26">
-        <v>36766104</v>
+        <v>32512156</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.10512399511133347</v>
+        <v>0.10937374114790387</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,20 +1255,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>329436802</v>
+        <v>354265527</v>
       </c>
       <c r="E27">
-        <v>34619607</v>
+        <v>38650042</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.10508724826681629</v>
+        <v>0.10909907697567198</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,20 +1276,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>325652930</v>
+        <v>290094671</v>
       </c>
       <c r="E28">
-        <v>33554576</v>
+        <v>31310354</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.1030378446157386</v>
+        <v>0.10793150350562628</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,20 +1297,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>314670516</v>
+        <v>273717670</v>
       </c>
       <c r="E29">
-        <v>32387613</v>
+        <v>28843056</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.10292547713621825</v>
+        <v>0.10537520650384025</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,20 +1318,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>267137498</v>
+        <v>339089437</v>
       </c>
       <c r="E30">
-        <v>26793935</v>
+        <v>35555766</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.10030016452426309</v>
+        <v>0.10485660159328407</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,20 +1339,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>329084894</v>
+        <v>335179293</v>
       </c>
       <c r="E31">
-        <v>32682399</v>
+        <v>35022219</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>9.9312972414953821E-2</v>
+        <v>0.10448801501589181</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,20 +1360,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>330642730</v>
+        <v>324152949</v>
       </c>
       <c r="E32">
-        <v>32717718</v>
+        <v>33623875</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>9.8951874731980347E-2</v>
+        <v>0.10372842543536447</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,20 +1381,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>342591037</v>
+        <v>338259432</v>
       </c>
       <c r="E33">
-        <v>33048811</v>
+        <v>34428655</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>9.6467237699508171E-2</v>
+        <v>0.10178180338220399</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,20 +1402,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>374621204</v>
+        <v>343708471</v>
       </c>
       <c r="E34">
-        <v>35948956</v>
+        <v>34288315</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>9.5960814860869437E-2</v>
+        <v>9.975987760860279E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,20 +1423,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>329092123</v>
+        <v>341171617</v>
       </c>
       <c r="E35">
-        <v>31585160</v>
+        <v>32860352</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>9.5976651498279705E-2</v>
+        <v>9.6316195025097875E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,20 +1444,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>328089803</v>
+        <v>344411135</v>
       </c>
       <c r="E36">
-        <v>30909677</v>
+        <v>33092046</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>9.4211026119577393E-2</v>
+        <v>9.6082973623950921E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,20 +1465,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>329226690</v>
+        <v>382815942</v>
       </c>
       <c r="E37">
-        <v>30927463</v>
+        <v>36439115</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>9.3939719771808289E-2</v>
+        <v>9.518703638522974E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,20 +1486,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>333923717</v>
+        <v>352428066</v>
       </c>
       <c r="E38">
-        <v>30998648</v>
+        <v>33309730</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>9.2831525351042971E-2</v>
+        <v>9.451497543331297E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,20 +1507,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>335755173</v>
+        <v>421850999</v>
       </c>
       <c r="E39">
-        <v>31032801</v>
+        <v>39554373</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>9.2426873792351066E-2</v>
+        <v>9.376384812117039E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,20 +1528,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>409985135</v>
+        <v>325697110</v>
       </c>
       <c r="E40">
-        <v>37814660</v>
+        <v>30156872</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>9.2234222101735472E-2</v>
+        <v>9.2591770310765112E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,20 +1549,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>315737797</v>
+        <v>339564252</v>
       </c>
       <c r="E41">
-        <v>28894535</v>
+        <v>31150222</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>9.1514336498648596E-2</v>
+        <v>9.1735869769942691E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,20 +1570,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>324961955</v>
+        <v>369122999</v>
       </c>
       <c r="E42">
-        <v>29331639</v>
+        <v>33326813</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>9.0261763103930123E-2</v>
+        <v>9.0286471149959427E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,20 +1591,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>332894001</v>
+        <v>345748772</v>
       </c>
       <c r="E43">
-        <v>29969378</v>
+        <v>31032801</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>9.0026789037871549E-2</v>
+        <v>8.9755346983560649E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,20 +1612,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>309538239</v>
+        <v>343958336</v>
       </c>
       <c r="E44">
-        <v>27636601</v>
+        <v>30869378</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>8.9283317916659721E-2</v>
+        <v>8.9747433828729767E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,20 +1633,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>371993987</v>
+        <v>344873109</v>
       </c>
       <c r="E45">
-        <v>32713456</v>
+        <v>30891067</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>8.7940819322974706E-2</v>
+        <v>8.957226931833645E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,20 +1654,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>326883811</v>
+        <v>291319254</v>
       </c>
       <c r="E46">
-        <v>28522016</v>
+        <v>25664967</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>8.7254293544687042E-2</v>
+        <v>8.8099109988795998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,20 +1675,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>281454378</v>
+        <v>381466145</v>
       </c>
       <c r="E47">
-        <v>24314824</v>
+        <v>33416338</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>8.6389929951631445E-2</v>
+        <v>8.7599747547714879E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,20 +1696,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>281143423</v>
+        <v>371275419</v>
       </c>
       <c r="E48">
-        <v>23875556</v>
+        <v>32448271</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>8.4923046554782819E-2</v>
+        <v>8.7396766226530073E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,20 +1717,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>360218661</v>
+        <v>335510279</v>
       </c>
       <c r="E49">
-        <v>30020471</v>
+        <v>29232527</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>8.3339577457371097E-2</v>
+        <v>8.712855858583099E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,20 +1738,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>326148347</v>
+        <v>318957794</v>
       </c>
       <c r="E50">
-        <v>26946419</v>
+        <v>27755094</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>8.2620130526063956E-2</v>
+        <v>8.701807738236364E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,20 +1759,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>324518843</v>
+        <v>290932993</v>
       </c>
       <c r="E51">
-        <v>26306910</v>
+        <v>24324279</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>8.1064352864095482E-2</v>
+        <v>8.3607839555000216E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,20 +1780,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>339581324</v>
+        <v>275803298</v>
       </c>
       <c r="E52">
-        <v>27524126</v>
+        <v>22913210</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>8.1053120577384868E-2</v>
+        <v>8.307808559997712E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,20 +1801,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>343540166</v>
+        <v>353994668</v>
       </c>
       <c r="E53">
-        <v>27235195</v>
+        <v>28907885</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>7.9278051580146239E-2</v>
+        <v>8.1661922094261596E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,14 +1828,14 @@
         <v>66</v>
       </c>
       <c r="D54">
-        <v>360449276</v>
+        <v>337756741</v>
       </c>
       <c r="E54">
-        <v>28546832</v>
+        <v>27237419</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>7.9197917434574064E-2</v>
+        <v>8.0642118109494662E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,20 +1843,20 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55">
-        <v>266434550</v>
+        <v>333845725</v>
       </c>
       <c r="E55">
-        <v>21050773</v>
+        <v>26560910</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>7.9009171295539568E-2</v>
+        <v>7.9560431693411676E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,20 +1864,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>321967665</v>
+        <v>341222410</v>
       </c>
       <c r="E56">
-        <v>25291274</v>
+        <v>27164059</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>7.8552217347664405E-2</v>
+        <v>7.9608074393472575E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,20 +1885,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>355593350</v>
+        <v>354046932</v>
       </c>
       <c r="E57">
-        <v>27739623</v>
+        <v>27875204</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>7.8009397532321681E-2</v>
+        <v>7.8733075986660433E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,20 +1906,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>332107238</v>
+        <v>334828210</v>
       </c>
       <c r="E58">
-        <v>25389075</v>
+        <v>25746015</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>7.6448424168340467E-2</v>
+        <v>7.6893207415229439E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,20 +1927,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>280475742</v>
+        <v>341002130</v>
       </c>
       <c r="E59">
-        <v>20323114</v>
+        <v>25868091</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>7.2459435725461069E-2</v>
+        <v>7.5859030557961615E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,20 +1948,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>345216142</v>
+        <v>295659235</v>
       </c>
       <c r="E60">
-        <v>25003432</v>
+        <v>21702895</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>7.2428339692180446E-2</v>
+        <v>7.3405097594871335E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,20 +1969,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>327793453</v>
+        <v>350717839</v>
       </c>
       <c r="E61">
-        <v>23593492</v>
+        <v>25208935</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>7.197670296361898E-2</v>
+        <v>7.1878108829246071E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,20 +1990,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>348362716</v>
+        <v>355363073</v>
       </c>
       <c r="E62">
-        <v>24749928</v>
+        <v>25317900</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>7.1046431960876094E-2</v>
+        <v>7.1245162830973152E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,20 +2011,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>285420737</v>
+        <v>355225451</v>
       </c>
       <c r="E63">
-        <v>19806125</v>
+        <v>25003432</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>6.9392733016452129E-2</v>
+        <v>7.0387501598245555E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,20 +2032,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>342957169</v>
+        <v>291737072</v>
       </c>
       <c r="E64">
-        <v>23769966</v>
+        <v>20323114</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>6.9308847134786092E-2</v>
+        <v>6.966243220539349E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,20 +2053,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>241438572</v>
+        <v>365090311</v>
       </c>
       <c r="E65">
-        <v>16319787</v>
+        <v>25405221</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>6.7593950978139486E-2</v>
+        <v>6.9586127691019448E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,20 +2074,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>354408180</v>
+        <v>358079562</v>
       </c>
       <c r="E66">
-        <v>23648532</v>
+        <v>24836928</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>6.6726823291719736E-2</v>
+        <v>6.9361478944168276E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,20 +2095,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>352911956</v>
+        <v>347685816</v>
       </c>
       <c r="E67">
-        <v>23476455</v>
+        <v>24017730</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>6.6522129955835216E-2</v>
+        <v>6.9078831792206336E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,20 +2116,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>334992753</v>
+        <v>251964741</v>
       </c>
       <c r="E68">
-        <v>21908677</v>
+        <v>17207065</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>6.5400450618106357E-2</v>
+        <v>6.8291559095564086E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,20 +2137,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>336090592</v>
+        <v>344815411</v>
       </c>
       <c r="E69">
-        <v>21592522</v>
+        <v>22528677</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>6.4246136351237104E-2</v>
+        <v>6.5335470171314358E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,20 +2158,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>317918855</v>
+        <v>366110043</v>
       </c>
       <c r="E70">
-        <v>20009183</v>
+        <v>23656081</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>6.2938019199899289E-2</v>
+        <v>6.4614673790852548E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,20 +2179,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>341572663</v>
+        <v>335151801</v>
       </c>
       <c r="E71">
-        <v>21134273</v>
+        <v>21624068</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>6.1873432183886447E-2</v>
+        <v>6.4520220197175668E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,14 +2206,14 @@
         <v>84</v>
       </c>
       <c r="D72">
-        <v>336739580</v>
+        <v>347754366</v>
       </c>
       <c r="E72">
-        <v>20052858</v>
+        <v>22234315</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>5.9550047547128261E-2</v>
+        <v>6.3936839257396988E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,20 +2221,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>324348119</v>
+        <v>330092649</v>
       </c>
       <c r="E73">
-        <v>19030010</v>
+        <v>20232826</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>5.8671559615241675E-2</v>
+        <v>6.1294385262120755E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,20 +2242,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>339982308</v>
+        <v>289009264</v>
       </c>
       <c r="E74">
-        <v>19378577</v>
+        <v>17671317</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>5.6998780654198042E-2</v>
+        <v>6.1144465597476487E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,20 +2263,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>296079966</v>
+        <v>363359056</v>
       </c>
       <c r="E75">
-        <v>16608104</v>
+        <v>21304867</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>5.6093305549758138E-2</v>
+        <v>5.8633097615709347E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,20 +2284,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>295442272</v>
+        <v>347837230</v>
       </c>
       <c r="E76">
-        <v>14975800</v>
+        <v>20052858</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>5.0689428762584116E-2</v>
+        <v>5.7650119856347749E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,20 +2305,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>348665100</v>
+        <v>306953613</v>
       </c>
       <c r="E77">
-        <v>17321300</v>
+        <v>17483715</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>4.9678903910944913E-2</v>
+        <v>5.6958818073921808E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,23 +2326,24 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>280181981</v>
+        <v>304650192</v>
       </c>
       <c r="E78">
-        <v>13485812</v>
+        <v>15379011</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>4.8132331536338162E-2</v>
+        <v>5.0480883990383307E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D031ED5C-8B76-4F53-B0BC-CDB5B9350684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C50395-5ED8-4384-A0AD-467AF4566FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,28 +72,31 @@
     <t>Indra Gunawan</t>
   </si>
   <si>
+    <t>Pertiwi</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
     <t>Anzelma Tamalia</t>
   </si>
   <si>
-    <t>Pertiwi</t>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Saizah Rafida Sari</t>
+  </si>
+  <si>
+    <t>Selomita Maharani</t>
   </si>
   <si>
     <t>Amanda Agustin</t>
   </si>
   <si>
-    <t>Selomita Maharani</t>
-  </si>
-  <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Saizah Rafida Sari</t>
-  </si>
-  <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
+    <t>Desi Eka</t>
   </si>
   <si>
     <t>Mkm_s2l</t>
@@ -102,19 +105,22 @@
     <t>Willman zega</t>
   </si>
   <si>
-    <t>Desi Eka</t>
-  </si>
-  <si>
     <t>Desi Skarsari</t>
   </si>
   <si>
+    <t>Dimas Eka Putra</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
     <t>Winda Ayu Utami</t>
   </si>
   <si>
-    <t>Dimas Eka Putra</t>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Ahmad Fauzi</t>
   </si>
   <si>
     <t>EDN_S2l</t>
@@ -123,67 +129,70 @@
     <t>Dwi Rahayu Maulani Putri</t>
   </si>
   <si>
+    <t>Fikri Adriansyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miranti </t>
+  </si>
+  <si>
+    <t>Irvan Zaky Zulkarnain</t>
+  </si>
+  <si>
+    <t>Erika Fitriyanti</t>
+  </si>
+  <si>
     <t>Febrianto</t>
   </si>
   <si>
-    <t>Irvan Zaky Zulkarnain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miranti </t>
-  </si>
-  <si>
     <t>Rahmat Hidayat</t>
   </si>
   <si>
-    <t>Fikri Adriansyah</t>
-  </si>
-  <si>
-    <t>Ahmad Fauzi</t>
-  </si>
-  <si>
     <t>Adriansah</t>
   </si>
   <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>Dimas</t>
+  </si>
+  <si>
+    <t>Dende Ayu Kencana Wungu</t>
+  </si>
+  <si>
+    <t>Rahma amelia</t>
+  </si>
+  <si>
     <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
-    <t>Rahma amelia</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Dende Ayu Kencana Wungu</t>
+    <t>Indisabellia</t>
   </si>
   <si>
     <t>Helmy Hidayat</t>
   </si>
   <si>
-    <t>Dimas</t>
-  </si>
-  <si>
-    <t>Indisabellia</t>
+    <t>Bagoes Tjahaya</t>
   </si>
   <si>
     <t>Elena Juwita Sari</t>
   </si>
   <si>
-    <t>Bagoes Tjahaya</t>
-  </si>
-  <si>
-    <t>Erika Fitriyanti</t>
+    <t>Muhammad Fadhil Fakhruddin</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
     <t>Defister Zalukhu</t>
   </si>
   <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>Annisa Putri Restu</t>
+    <t>Lenny Nuraida</t>
   </si>
   <si>
     <t>Rifal</t>
@@ -192,60 +201,54 @@
     <t>Yandi Nugraha</t>
   </si>
   <si>
+    <t>Susanti</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>Arisman Zega</t>
+  </si>
+  <si>
+    <t>Ebiet Jaka Ramadan</t>
+  </si>
+  <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>Ebiet Jaka Ramadan</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>Susanti</t>
-  </si>
-  <si>
-    <t>Arisman Zega</t>
+    <t>Amirah Syahidah</t>
   </si>
   <si>
     <t>Komariah</t>
   </si>
   <si>
-    <t>Amirah Syahidah</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>Muhammad Fadhil Fakhruddin</t>
-  </si>
-  <si>
-    <t>Lenny Nuraida</t>
+    <t>Muhammad Rizki Daelami</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Muhammad Rizki Daelami</t>
+    <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
     <t>Sema Salwanda Rivanka</t>
   </si>
   <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
     <t>Mutiara</t>
   </si>
   <si>
     <t>Tasya Wiranda Agustin</t>
   </si>
   <si>
+    <t>Fitriyani</t>
+  </si>
+  <si>
     <t>Aura Ramadhani</t>
   </si>
   <si>
@@ -258,24 +261,24 @@
     <t>Muhammad Ilham</t>
   </si>
   <si>
-    <t>Fitriyani</t>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>Nurhasanah</t>
+  </si>
+  <si>
+    <t>Aldi Taufik</t>
   </si>
   <si>
     <t>Ilham Syaid</t>
   </si>
   <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>Nurhasanah</t>
-  </si>
-  <si>
     <t>Saeful Aziz</t>
   </si>
   <si>
+    <t>Mulhimah</t>
+  </si>
+  <si>
     <t>Abdul Hamid</t>
   </si>
   <si>
@@ -285,25 +288,22 @@
     <t>Ahmad Septian</t>
   </si>
   <si>
-    <t>Mulhimah</t>
+    <t>Jamalluddin salim</t>
   </si>
   <si>
     <t>Cici Fatma Ramadhani</t>
   </si>
   <si>
-    <t>Jamalluddin salim</t>
-  </si>
-  <si>
     <t>Serius Zega</t>
   </si>
   <si>
+    <t>Faoziah Sabaniah</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
     <t>Imelda Astri Paidin</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>Faoziah Sabaniah</t>
   </si>
 </sst>
 </file>
@@ -691,19 +691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -736,14 +728,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>361973733</v>
+        <v>368592336</v>
       </c>
       <c r="E2">
-        <v>59210043</v>
+        <v>59299775</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.16357552386266658</v>
+        <v>0.16088173629307365</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,14 +749,14 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>388310098</v>
+        <v>401693021</v>
       </c>
       <c r="E3">
-        <v>53143212</v>
+        <v>55901021</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.13685766163104005</v>
+        <v>0.13916353552978458</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,14 +770,14 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>332963479</v>
+        <v>345927651</v>
       </c>
       <c r="E4">
-        <v>45131977</v>
+        <v>46084209</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.1355463281905461</v>
+        <v>0.13321921178252386</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -793,20 +785,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>342897896</v>
+        <v>300441164</v>
       </c>
       <c r="E5">
-        <v>46186936</v>
+        <v>39746845</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.13469588626463896</v>
+        <v>0.13229493745404342</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -814,20 +806,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>288741721</v>
+        <v>357098175</v>
       </c>
       <c r="E6">
-        <v>38282000</v>
+        <v>47155630</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.13258215635557566</v>
+        <v>0.13205228506138403</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -838,17 +830,17 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>266375425</v>
+        <v>352660652</v>
       </c>
       <c r="E7">
-        <v>35190316</v>
+        <v>46497950</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.13210796754242626</v>
+        <v>0.13184898779124357</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -856,20 +848,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>349149262</v>
+        <v>356228464</v>
       </c>
       <c r="E8">
-        <v>44996394</v>
+        <v>46284548</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.12887437808761573</v>
+        <v>0.12992939272814538</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,20 +869,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>347469202</v>
+        <v>358307844</v>
       </c>
       <c r="E9">
-        <v>44090762</v>
+        <v>45384353</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.1268911366711574</v>
+        <v>0.1266630182955191</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,20 +890,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>346496189</v>
+        <v>279703028</v>
       </c>
       <c r="E10">
-        <v>43764015</v>
+        <v>35190316</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.12630446275990642</v>
+        <v>0.12581313921277965</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -919,20 +911,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
       <c r="D11">
-        <v>354006372</v>
+        <v>355328195</v>
       </c>
       <c r="E11">
-        <v>44723675</v>
+        <v>44436261</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.12633579092751471</v>
+        <v>0.12505695192581046</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -940,20 +932,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12">
-        <v>344393872</v>
+        <v>366418569</v>
       </c>
       <c r="E12">
-        <v>43431987</v>
+        <v>44903139</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.12611138156372306</v>
+        <v>0.12254602468031581</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,14 +959,14 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>335375720</v>
+        <v>347331501</v>
       </c>
       <c r="E13">
-        <v>42172561</v>
+        <v>42461976</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.12574720972645248</v>
+        <v>0.12225201537363581</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -982,20 +974,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
-        <v>353225284</v>
+        <v>415405346</v>
       </c>
       <c r="E14">
-        <v>42920905</v>
+        <v>49237040</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.12151141762547213</v>
+        <v>0.11852769944852852</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,20 +995,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
-        <v>345391296</v>
+        <v>363694630</v>
       </c>
       <c r="E15">
-        <v>41625414</v>
+        <v>42920905</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.12051668493695915</v>
+        <v>0.11801357913918058</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1024,20 +1016,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>405154560</v>
+        <v>353306906</v>
       </c>
       <c r="E16">
-        <v>48629501</v>
+        <v>41625414</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.1200270361019755</v>
+        <v>0.11781658748555569</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,20 +1037,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
       <c r="D17">
-        <v>312383785</v>
+        <v>360883634</v>
       </c>
       <c r="E17">
-        <v>36013774</v>
+        <v>40906348</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.11528695063349718</v>
+        <v>0.11335052118212709</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,20 +1058,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>352467789</v>
+        <v>368106067</v>
       </c>
       <c r="E18">
-        <v>39712689</v>
+        <v>41475209</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.11267040631619249</v>
+        <v>0.1126718973637563</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1087,20 +1079,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19">
-        <v>338995790</v>
+        <v>320724418</v>
       </c>
       <c r="E19">
-        <v>38205869</v>
+        <v>36013774</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.11270307811197301</v>
+        <v>0.11228884356413424</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,20 +1100,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20">
-        <v>416567995</v>
+        <v>389321195</v>
       </c>
       <c r="E20">
-        <v>46455156</v>
+        <v>43611983</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11151878338613123</v>
+        <v>0.11202057211398418</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,20 +1121,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
-        <v>338920394</v>
+        <v>425552015</v>
       </c>
       <c r="E21">
-        <v>37789975</v>
+        <v>46920999</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.11150103584501321</v>
+        <v>0.11025913953197942</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,20 +1142,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22">
-        <v>378401827</v>
+        <v>349350697</v>
       </c>
       <c r="E22">
-        <v>41878722</v>
+        <v>38205869</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.11067262103890424</v>
+        <v>0.1093625097304443</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,20 +1163,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>359382226</v>
+        <v>353398201</v>
       </c>
       <c r="E23">
-        <v>39675553</v>
+        <v>38617278</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.11039931896910227</v>
+        <v>0.10927412163029092</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,20 +1184,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>383649684</v>
+        <v>364726279</v>
       </c>
       <c r="E24">
-        <v>42245490</v>
+        <v>39712689</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.11011475249905328</v>
+        <v>0.1088835416764691</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,20 +1205,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>280498301</v>
+        <v>348971893</v>
       </c>
       <c r="E25">
-        <v>30848198</v>
+        <v>37789975</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.10997641657729684</v>
+        <v>0.10828945183846081</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,20 +1226,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>297257419</v>
+        <v>392126825</v>
       </c>
       <c r="E26">
-        <v>32512156</v>
+        <v>42245490</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.10937374114790387</v>
+        <v>0.1077342515396645</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,20 +1247,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>354265527</v>
+        <v>362295166</v>
       </c>
       <c r="E27">
-        <v>38650042</v>
+        <v>38963042</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.10909907697567198</v>
+        <v>0.10754502310969283</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1276,20 +1268,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>290094671</v>
+        <v>347536703</v>
       </c>
       <c r="E28">
-        <v>31310354</v>
+        <v>37162858</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.10793150350562628</v>
+        <v>0.10693218206653701</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,20 +1289,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>273717670</v>
+        <v>299649567</v>
       </c>
       <c r="E29">
-        <v>28843056</v>
+        <v>31899744</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.10537520650384025</v>
+        <v>0.10645683329153617</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,20 +1310,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>339089437</v>
+        <v>309219439</v>
       </c>
       <c r="E30">
-        <v>35555766</v>
+        <v>32656542</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.10485660159328407</v>
+        <v>0.1056096023769062</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,20 +1331,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>335179293</v>
+        <v>294347690</v>
       </c>
       <c r="E31">
-        <v>35022219</v>
+        <v>30848198</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.10448801501589181</v>
+        <v>0.10480190281092405</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,20 +1352,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>324152949</v>
+        <v>346888813</v>
       </c>
       <c r="E32">
-        <v>33623875</v>
+        <v>36190777</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.10372842543536447</v>
+        <v>0.10432961699459591</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,20 +1373,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>338259432</v>
+        <v>283353700</v>
       </c>
       <c r="E33">
-        <v>34428655</v>
+        <v>28843056</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.10178180338220399</v>
+        <v>0.10179170414926644</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1402,20 +1394,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>343708471</v>
+        <v>346622769</v>
       </c>
       <c r="E34">
-        <v>34288315</v>
+        <v>34783815</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>9.975987760860279E-2</v>
+        <v>0.10035063507325452</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,20 +1415,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>341171617</v>
+        <v>335427644</v>
       </c>
       <c r="E35">
-        <v>32860352</v>
+        <v>33623875</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>9.6316195025097875E-2</v>
+        <v>0.10024181250845264</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,20 +1436,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>344411135</v>
+        <v>345478325</v>
       </c>
       <c r="E36">
-        <v>33092046</v>
+        <v>33953521</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>9.6082973623950921E-2</v>
+        <v>9.8279743020057764E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,20 +1457,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>382815942</v>
+        <v>349396802</v>
       </c>
       <c r="E37">
-        <v>36439115</v>
+        <v>33003475</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>9.518703638522974E-2</v>
+        <v>9.4458434682524656E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,20 +1478,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>352428066</v>
+        <v>393473279</v>
       </c>
       <c r="E38">
-        <v>33309730</v>
+        <v>37089115</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>9.451497543331297E-2</v>
+        <v>9.42608227279393E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1507,20 +1499,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>421850999</v>
+        <v>387667945</v>
       </c>
       <c r="E39">
-        <v>39554373</v>
+        <v>36162324</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>9.376384812117039E-2</v>
+        <v>9.3281697562072094E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,20 +1520,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>325697110</v>
+        <v>354503772</v>
       </c>
       <c r="E40">
-        <v>30156872</v>
+        <v>33092046</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>9.2591770310765112E-2</v>
+        <v>9.3347514508251836E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,20 +1541,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>339564252</v>
+        <v>330257379</v>
       </c>
       <c r="E41">
-        <v>31150222</v>
+        <v>30127434</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>9.1735869769942691E-2</v>
+        <v>9.1224105548297227E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>369122999</v>
+        <v>435017138</v>
       </c>
       <c r="E42">
-        <v>33326813</v>
+        <v>39554373</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>9.0286471149959427E-2</v>
+        <v>9.092601082764698E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1591,20 +1583,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>345748772</v>
+        <v>336549859</v>
       </c>
       <c r="E43">
-        <v>31032801</v>
+        <v>30536872</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>8.9755346983560649E-2</v>
+        <v>9.0735061041876716E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,14 +1610,14 @@
         <v>56</v>
       </c>
       <c r="D44">
-        <v>343958336</v>
+        <v>351127485</v>
       </c>
       <c r="E44">
-        <v>30869378</v>
+        <v>31555937</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>8.9747433828729767E-2</v>
+        <v>8.9870313057378581E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,20 +1625,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>344873109</v>
+        <v>359626543</v>
       </c>
       <c r="E45">
-        <v>30891067</v>
+        <v>32246129</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>8.957226931833645E-2</v>
+        <v>8.9665597903322722E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,20 +1646,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>291319254</v>
+        <v>353693690</v>
       </c>
       <c r="E46">
-        <v>25664967</v>
+        <v>31575881</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>8.8099109988795998E-2</v>
+        <v>8.9274651747391937E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1675,20 +1667,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>381466145</v>
+        <v>378217470</v>
       </c>
       <c r="E47">
-        <v>33416338</v>
+        <v>33466941</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>8.7599747547714879E-2</v>
+        <v>8.8485973426875281E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,20 +1688,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>371275419</v>
+        <v>362616675</v>
       </c>
       <c r="E48">
-        <v>32448271</v>
+        <v>31872821</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>8.7396766226530073E-2</v>
+        <v>8.7896732823993823E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,20 +1709,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>335510279</v>
+        <v>389639857</v>
       </c>
       <c r="E49">
-        <v>29232527</v>
+        <v>33749057</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>8.712855858583099E-2</v>
+        <v>8.6616028606128964E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,20 +1730,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>318957794</v>
+        <v>300532207</v>
       </c>
       <c r="E50">
-        <v>27755094</v>
+        <v>25990814</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>8.701807738236364E-2</v>
+        <v>8.6482624472923791E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,20 +1751,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>290932993</v>
+        <v>283449409</v>
       </c>
       <c r="E51">
-        <v>24324279</v>
+        <v>23619312</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>8.3607839555000216E-2</v>
+        <v>8.3328139872748855E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1780,20 +1772,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>275803298</v>
+        <v>299936928</v>
       </c>
       <c r="E52">
-        <v>22913210</v>
+        <v>24839943</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>8.307808559997712E-2</v>
+        <v>8.2817221492646614E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,20 +1793,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>353994668</v>
+        <v>351465727</v>
       </c>
       <c r="E53">
-        <v>28907885</v>
+        <v>28549564</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>8.1661922094261596E-2</v>
+        <v>8.1230008523704503E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,20 +1814,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>337756741</v>
+        <v>368605956</v>
       </c>
       <c r="E54">
-        <v>27237419</v>
+        <v>29212679</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>8.0642118109494662E-2</v>
+        <v>7.9251782355898776E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,20 +1835,20 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55">
-        <v>333845725</v>
+        <v>350383964</v>
       </c>
       <c r="E55">
-        <v>26560910</v>
+        <v>27491939</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>7.9560431693411676E-2</v>
+        <v>7.8462320838404584E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1864,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>341222410</v>
+        <v>351475078</v>
       </c>
       <c r="E56">
-        <v>27164059</v>
+        <v>27237419</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>7.9608074393472575E-2</v>
+        <v>7.7494595505858313E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,14 +1883,14 @@
         <v>69</v>
       </c>
       <c r="D57">
-        <v>354046932</v>
+        <v>362381942</v>
       </c>
       <c r="E57">
         <v>27875204</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>7.8733075986660433E-2</v>
+        <v>7.6922166281674156E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,14 +1904,14 @@
         <v>70</v>
       </c>
       <c r="D58">
-        <v>334828210</v>
+        <v>343929507</v>
       </c>
       <c r="E58">
         <v>25746015</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>7.6893207415229439E-2</v>
+        <v>7.4858406958377088E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,20 +1919,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>341002130</v>
+        <v>370099669</v>
       </c>
       <c r="E59">
-        <v>25868091</v>
+        <v>27692023</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>7.5859030557961615E-2</v>
+        <v>7.48231498688533E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,20 +1940,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>295659235</v>
+        <v>352398704</v>
       </c>
       <c r="E60">
-        <v>21702895</v>
+        <v>25868091</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>7.3405097594871335E-2</v>
+        <v>7.3405749528522676E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1969,20 +1961,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>350717839</v>
+        <v>304626916</v>
       </c>
       <c r="E61">
-        <v>25208935</v>
+        <v>21955679</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>7.1878108829246071E-2</v>
+        <v>7.2073995588754866E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,14 +1988,14 @@
         <v>74</v>
       </c>
       <c r="D62">
-        <v>355363073</v>
+        <v>361066692</v>
       </c>
       <c r="E62">
-        <v>25317900</v>
+        <v>25612049</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>7.1245162830973152E-2</v>
+        <v>7.0934399565163994E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2011,20 +2003,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>355225451</v>
+        <v>366528353</v>
       </c>
       <c r="E63">
-        <v>25003432</v>
+        <v>25699337</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>7.0387501598245555E-2</v>
+        <v>7.0115549833057525E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,20 +2024,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>291737072</v>
+        <v>368217726</v>
       </c>
       <c r="E64">
-        <v>20323114</v>
+        <v>25458966</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>6.966243220539349E-2</v>
+        <v>6.9141065740001881E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,20 +2045,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>365090311</v>
+        <v>356351352</v>
       </c>
       <c r="E65">
-        <v>25405221</v>
+        <v>24428617</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>6.9586127691019448E-2</v>
+        <v>6.8552053648445258E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,20 +2066,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>358079562</v>
+        <v>375486069</v>
       </c>
       <c r="E66">
-        <v>24836928</v>
+        <v>25405221</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>6.9361478944168276E-2</v>
+        <v>6.7659556765074014E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,20 +2087,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>347685816</v>
+        <v>300429761</v>
       </c>
       <c r="E67">
-        <v>24017730</v>
+        <v>20323114</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>6.9078831792206336E-2</v>
+        <v>6.7646806802206264E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2116,20 +2108,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>251964741</v>
+        <v>262450117</v>
       </c>
       <c r="E68">
         <v>17207065</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>6.8291559095564086E-2</v>
+        <v>6.5563182812374207E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2143,14 +2135,14 @@
         <v>81</v>
       </c>
       <c r="D69">
-        <v>344815411</v>
+        <v>360056474</v>
       </c>
       <c r="E69">
-        <v>22528677</v>
+        <v>23277107</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>6.5335470171314358E-2</v>
+        <v>6.464848900342228E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2158,20 +2150,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>366110043</v>
+        <v>355116517</v>
       </c>
       <c r="E70">
-        <v>23656081</v>
+        <v>22528677</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>6.4614673790852548E-2</v>
+        <v>6.3440239812894983E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2179,20 +2171,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>335151801</v>
+        <v>377238710</v>
       </c>
       <c r="E71">
-        <v>21624068</v>
+        <v>23656081</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>6.4520220197175668E-2</v>
+        <v>6.2708519494195064E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,20 +2192,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72">
-        <v>347754366</v>
+        <v>346006689</v>
       </c>
       <c r="E72">
-        <v>22234315</v>
+        <v>21624068</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>6.3936839257396988E-2</v>
+        <v>6.2496098160691918E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2221,20 +2213,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>330092649</v>
+        <v>300093270</v>
       </c>
       <c r="E73">
-        <v>20232826</v>
+        <v>18569579</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>6.1294385262120755E-2</v>
+        <v>6.1879358374148145E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2242,20 +2234,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>289009264</v>
+        <v>338207252</v>
       </c>
       <c r="E74">
-        <v>17671317</v>
+        <v>20232826</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>6.1144465597476487E-2</v>
+        <v>5.9823749728465311E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2263,20 +2255,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>363359056</v>
+        <v>371570466</v>
       </c>
       <c r="E75">
-        <v>21304867</v>
+        <v>21638487</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>5.8633097615709347E-2</v>
+        <v>5.8235217758130432E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,20 +2276,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>347837230</v>
+        <v>316049359</v>
       </c>
       <c r="E76">
-        <v>20052858</v>
+        <v>17749755</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>5.7650119856347749E-2</v>
+        <v>5.6161338393981679E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,20 +2297,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>306953613</v>
+        <v>316203621</v>
       </c>
       <c r="E77">
-        <v>17483715</v>
+        <v>17719094</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>5.6958818073921808E-2</v>
+        <v>5.603697371953878E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,24 +2318,23 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>304650192</v>
+        <v>359029643</v>
       </c>
       <c r="E78">
-        <v>15379011</v>
+        <v>20052858</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>5.0480883990383307E-2</v>
+        <v>5.5852931341382306E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C50395-5ED8-4384-A0AD-467AF4566FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DF3C3F-F9A3-44C0-BD3D-2ACD8B316745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,18 +60,18 @@
     <t>Muhammad Refaldy Rojak</t>
   </si>
   <si>
+    <t>Zakka_S2l</t>
+  </si>
+  <si>
+    <t>Indra Gunawan</t>
+  </si>
+  <si>
     <t>Xinghao_s2l</t>
   </si>
   <si>
     <t>Feriyan Wijaya S</t>
   </si>
   <si>
-    <t>Zakka_S2l</t>
-  </si>
-  <si>
-    <t>Indra Gunawan</t>
-  </si>
-  <si>
     <t>Pertiwi</t>
   </si>
   <si>
@@ -81,18 +81,21 @@
     <t>Nur Halim</t>
   </si>
   <si>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Saizah Rafida Sari</t>
+  </si>
+  <si>
     <t>Anzelma Tamalia</t>
   </si>
   <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Saizah Rafida Sari</t>
-  </si>
-  <si>
     <t>Selomita Maharani</t>
   </si>
   <si>
+    <t>Winda Ayu Utami</t>
+  </si>
+  <si>
     <t>Amanda Agustin</t>
   </si>
   <si>
@@ -108,19 +111,28 @@
     <t>Desi Skarsari</t>
   </si>
   <si>
+    <t>Erick Ervan Dewanggga</t>
+  </si>
+  <si>
     <t>Dimas Eka Putra</t>
   </si>
   <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Winda Ayu Utami</t>
+    <t>Febrianto</t>
+  </si>
+  <si>
+    <t>Irvan Zaky Zulkarnain</t>
+  </si>
+  <si>
+    <t>Ahmad Fauzi</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>Ahmad Fauzi</t>
+    <t>Fikri Adriansyah</t>
+  </si>
+  <si>
+    <t>Rahmat Hidayat</t>
   </si>
   <si>
     <t>EDN_S2l</t>
@@ -129,52 +141,46 @@
     <t>Dwi Rahayu Maulani Putri</t>
   </si>
   <si>
-    <t>Fikri Adriansyah</t>
+    <t>Erika Fitriyanti</t>
+  </si>
+  <si>
+    <t>Adriansah</t>
   </si>
   <si>
     <t xml:space="preserve">Miranti </t>
   </si>
   <si>
-    <t>Irvan Zaky Zulkarnain</t>
-  </si>
-  <si>
-    <t>Erika Fitriyanti</t>
-  </si>
-  <si>
-    <t>Febrianto</t>
-  </si>
-  <si>
-    <t>Rahmat Hidayat</t>
-  </si>
-  <si>
-    <t>Adriansah</t>
-  </si>
-  <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
     <t>Dimas</t>
   </si>
   <si>
+    <t>Wahyu Febrianto Nur Tantular</t>
+  </si>
+  <si>
     <t>Dende Ayu Kencana Wungu</t>
   </si>
   <si>
+    <t>Indisabellia</t>
+  </si>
+  <si>
     <t>Rahma amelia</t>
   </si>
   <si>
-    <t>Wahyu Febrianto Nur Tantular</t>
-  </si>
-  <si>
-    <t>Indisabellia</t>
-  </si>
-  <si>
     <t>Helmy Hidayat</t>
   </si>
   <si>
+    <t>Elena Juwita Sari</t>
+  </si>
+  <si>
     <t>Bagoes Tjahaya</t>
   </si>
   <si>
-    <t>Elena Juwita Sari</t>
+    <t>Ebiet Jaka Ramadan</t>
+  </si>
+  <si>
+    <t>Defister Zalukhu</t>
   </si>
   <si>
     <t>Muhammad Fadhil Fakhruddin</t>
@@ -186,124 +192,118 @@
     <t>Azizah Rahmawati</t>
   </si>
   <si>
+    <t>Lenny Nuraida</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>Rifal</t>
+  </si>
+  <si>
     <t>Riska Nurlita</t>
   </si>
   <si>
-    <t>Defister Zalukhu</t>
-  </si>
-  <si>
-    <t>Lenny Nuraida</t>
-  </si>
-  <si>
-    <t>Rifal</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
+    <t>Romli</t>
   </si>
   <si>
     <t>Susanti</t>
   </si>
   <si>
-    <t>Romli</t>
+    <t>Axl Wicaksono</t>
   </si>
   <si>
     <t>Arisman Zega</t>
   </si>
   <si>
-    <t>Ebiet Jaka Ramadan</t>
-  </si>
-  <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
     <t>Amirah Syahidah</t>
   </si>
   <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
     <t>Komariah</t>
   </si>
   <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>Tasya Wiranda Agustin</t>
+  </si>
+  <si>
     <t>Muhammad Rizki Daelami</t>
   </si>
   <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
+    <t>Sema Salwanda Rivanka</t>
+  </si>
+  <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>Sema Salwanda Rivanka</t>
+    <t>Fitriyani</t>
+  </si>
+  <si>
+    <t>Aura Ramadhani</t>
   </si>
   <si>
     <t>Mutiara</t>
   </si>
   <si>
-    <t>Tasya Wiranda Agustin</t>
-  </si>
-  <si>
-    <t>Fitriyani</t>
-  </si>
-  <si>
-    <t>Aura Ramadhani</t>
-  </si>
-  <si>
     <t>Maya Margareta</t>
   </si>
   <si>
+    <t>Afsyal Suwandi</t>
+  </si>
+  <si>
     <t>Aura Devana Sopiyanti</t>
   </si>
   <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>Saeful Aziz</t>
+  </si>
+  <si>
     <t>Muhammad Ilham</t>
   </si>
   <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
     <t>Nurhasanah</t>
   </si>
   <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
     <t>Ilham Syaid</t>
   </si>
   <si>
-    <t>Saeful Aziz</t>
-  </si>
-  <si>
     <t>Mulhimah</t>
   </si>
   <si>
+    <t>Jamalluddin salim</t>
+  </si>
+  <si>
+    <t>Ahmad Septian</t>
+  </si>
+  <si>
     <t>Abdul Hamid</t>
   </si>
   <si>
-    <t>Afsyal Suwandi</t>
-  </si>
-  <si>
-    <t>Ahmad Septian</t>
-  </si>
-  <si>
-    <t>Jamalluddin salim</t>
-  </si>
-  <si>
     <t>Cici Fatma Ramadhani</t>
   </si>
   <si>
     <t>Serius Zega</t>
   </si>
   <si>
+    <t>Imelda Astri Paidin</t>
+  </si>
+  <si>
     <t>Faoziah Sabaniah</t>
   </si>
   <si>
     <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>Imelda Astri Paidin</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F78"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,14 +749,14 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>401693021</v>
+        <v>345927651</v>
       </c>
       <c r="E3">
-        <v>55901021</v>
+        <v>49183652</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.13916353552978458</v>
+        <v>0.14217901303298822</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,14 +770,14 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>345927651</v>
+        <v>401693021</v>
       </c>
       <c r="E4">
-        <v>46084209</v>
+        <v>56275630</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.13321921178252386</v>
+        <v>0.14009611085575718</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -794,11 +794,11 @@
         <v>300441164</v>
       </c>
       <c r="E5">
-        <v>39746845</v>
+        <v>40472551</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.13229493745404342</v>
+        <v>0.13471040539571336</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,11 +815,11 @@
         <v>357098175</v>
       </c>
       <c r="E6">
-        <v>47155630</v>
+        <v>47695729</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.13205228506138403</v>
+        <v>0.13356475148605843</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,20 +827,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>352660652</v>
+        <v>356228464</v>
       </c>
       <c r="E7">
-        <v>46497950</v>
+        <v>47074833</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.13184898779124357</v>
+        <v>0.13214787069906914</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,20 +848,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
-        <v>356228464</v>
+        <v>352660652</v>
       </c>
       <c r="E8">
-        <v>46284548</v>
+        <v>46497950</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.12992939272814538</v>
+        <v>0.13184898779124357</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,14 +896,14 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>279703028</v>
+        <v>353306906</v>
       </c>
       <c r="E10">
-        <v>35190316</v>
+        <v>44717186</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.12581313921277965</v>
+        <v>0.12656754012048663</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,20 +911,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>355328195</v>
+        <v>279703028</v>
       </c>
       <c r="E11">
-        <v>44436261</v>
+        <v>35190316</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.12505695192581046</v>
+        <v>0.12581313921277965</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,20 +932,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
       <c r="D12">
-        <v>366418569</v>
+        <v>355328195</v>
       </c>
       <c r="E12">
-        <v>44903139</v>
+        <v>44491711</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.12254602468031581</v>
+        <v>0.12521300483908968</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,20 +953,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13">
-        <v>347331501</v>
+        <v>366418569</v>
       </c>
       <c r="E13">
-        <v>42461976</v>
+        <v>45621115</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.12225201537363581</v>
+        <v>0.1245054668613151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,20 +974,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
-        <v>415405346</v>
+        <v>347331501</v>
       </c>
       <c r="E14">
-        <v>49237040</v>
+        <v>42461976</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.11852769944852852</v>
+        <v>0.12225201537363581</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,11 +1004,11 @@
         <v>363694630</v>
       </c>
       <c r="E15">
-        <v>42920905</v>
+        <v>44106636</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.11801357913918058</v>
+        <v>0.12127381699311865</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,20 +1016,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>353306906</v>
+        <v>415405346</v>
       </c>
       <c r="E16">
-        <v>41625414</v>
+        <v>49876219</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.11781658748555569</v>
+        <v>0.12006638691645533</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,20 +1037,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17">
-        <v>360883634</v>
+        <v>364726279</v>
       </c>
       <c r="E17">
-        <v>40906348</v>
+        <v>43195887</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.11335052118212709</v>
+        <v>0.11843371176443253</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,20 +1058,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18">
-        <v>368106067</v>
+        <v>349350697</v>
       </c>
       <c r="E18">
-        <v>41475209</v>
+        <v>41293886</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.1126718973637563</v>
+        <v>0.11820181369210206</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,20 +1079,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
       <c r="D19">
-        <v>320724418</v>
+        <v>368106067</v>
       </c>
       <c r="E19">
-        <v>36013774</v>
+        <v>42185336</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.11228884356413424</v>
+        <v>0.11460103427200509</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,20 +1100,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>389321195</v>
+        <v>360883634</v>
       </c>
       <c r="E20">
-        <v>43611983</v>
+        <v>41197087</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11202057211398418</v>
+        <v>0.1141561520631329</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,20 +1121,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>425552015</v>
+        <v>389321195</v>
       </c>
       <c r="E21">
-        <v>46920999</v>
+        <v>44257314</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.11025913953197942</v>
+        <v>0.11367815204615304</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,20 +1142,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>349350697</v>
+        <v>348971893</v>
       </c>
       <c r="E22">
-        <v>38205869</v>
+        <v>39339806</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.1093625097304443</v>
+        <v>0.11273058601312627</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,20 +1163,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>353398201</v>
+        <v>320724418</v>
       </c>
       <c r="E23">
-        <v>38617278</v>
+        <v>36064190</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.10927412163029092</v>
+        <v>0.11244603770705104</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,20 +1184,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>364726279</v>
+        <v>353398201</v>
       </c>
       <c r="E24">
-        <v>39712689</v>
+        <v>39146541</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.1088835416764691</v>
+        <v>0.11077176083304396</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,20 +1205,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>348971893</v>
+        <v>392126825</v>
       </c>
       <c r="E25">
-        <v>37789975</v>
+        <v>43320229</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.10828945183846081</v>
+        <v>0.11047504592423638</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,20 +1226,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>392126825</v>
+        <v>425552015</v>
       </c>
       <c r="E26">
-        <v>42245490</v>
+        <v>46920999</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.1077342515396645</v>
+        <v>0.11025913953197942</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1256,11 +1256,11 @@
         <v>362295166</v>
       </c>
       <c r="E27">
-        <v>38963042</v>
+        <v>39782340</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.10754502310969283</v>
+        <v>0.10980643335439921</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,11 +1277,11 @@
         <v>347536703</v>
       </c>
       <c r="E28">
-        <v>37162858</v>
+        <v>37386413</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.10693218206653701</v>
+        <v>0.10757543786677404</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,20 +1289,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>299649567</v>
+        <v>294347690</v>
       </c>
       <c r="E29">
-        <v>31899744</v>
+        <v>31446179</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.10645683329153617</v>
+        <v>0.10683344924500682</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,20 +1310,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>309219439</v>
+        <v>299649567</v>
       </c>
       <c r="E30">
-        <v>32656542</v>
+        <v>31899744</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.1056096023769062</v>
+        <v>0.10645683329153617</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,20 +1331,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>294347690</v>
+        <v>346888813</v>
       </c>
       <c r="E31">
-        <v>30848198</v>
+        <v>36712617</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.10480190281092405</v>
+        <v>0.10583396069333605</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,20 +1352,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>346888813</v>
+        <v>309219439</v>
       </c>
       <c r="E32">
-        <v>36190777</v>
+        <v>32656542</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.10432961699459591</v>
+        <v>0.1056096023769062</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -1382,11 +1382,11 @@
         <v>283353700</v>
       </c>
       <c r="E33">
-        <v>28843056</v>
+        <v>29140579</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.10179170414926644</v>
+        <v>0.10284170984885675</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,20 +1394,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>346622769</v>
+        <v>335427644</v>
       </c>
       <c r="E34">
-        <v>34783815</v>
+        <v>33742215</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.10035063507325452</v>
+        <v>0.1005946158689294</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,20 +1415,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>335427644</v>
+        <v>346622769</v>
       </c>
       <c r="E35">
-        <v>33623875</v>
+        <v>34783815</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.10024181250845264</v>
+        <v>0.10035063507325452</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1442,14 +1442,14 @@
         <v>48</v>
       </c>
       <c r="D36">
-        <v>345478325</v>
+        <v>378217470</v>
       </c>
       <c r="E36">
-        <v>33953521</v>
+        <v>37690396</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>9.8279743020057764E-2</v>
+        <v>9.9652710383790574E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,20 +1457,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>349396802</v>
+        <v>354503772</v>
       </c>
       <c r="E37">
-        <v>33003475</v>
+        <v>35224151</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>9.4458434682524656E-2</v>
+        <v>9.9361851077849742E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,20 +1478,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>393473279</v>
+        <v>345478325</v>
       </c>
       <c r="E38">
-        <v>37089115</v>
+        <v>34203521</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>9.42608227279393E-2</v>
+        <v>9.9003377418829391E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1505,14 +1505,14 @@
         <v>51</v>
       </c>
       <c r="D39">
-        <v>387667945</v>
+        <v>349396802</v>
       </c>
       <c r="E39">
-        <v>36162324</v>
+        <v>33711685</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>9.3281697562072094E-2</v>
+        <v>9.6485385118092751E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,20 +1520,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>354503772</v>
+        <v>393473279</v>
       </c>
       <c r="E40">
-        <v>33092046</v>
+        <v>37419410</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>9.3347514508251836E-2</v>
+        <v>9.5100257113012246E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
@@ -1550,11 +1550,11 @@
         <v>330257379</v>
       </c>
       <c r="E41">
-        <v>30127434</v>
+        <v>31243278</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>9.1224105548297227E-2</v>
+        <v>9.4602815823836603E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>435017138</v>
+        <v>336549859</v>
       </c>
       <c r="E42">
-        <v>39554373</v>
+        <v>31614185</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>9.092601082764698E-2</v>
+        <v>9.3936111261303482E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,20 +1583,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>336549859</v>
+        <v>435017138</v>
       </c>
       <c r="E43">
-        <v>30536872</v>
+        <v>40635199</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>9.0735061041876716E-2</v>
+        <v>9.3410570412975319E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,20 +1604,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>351127485</v>
+        <v>387667945</v>
       </c>
       <c r="E44">
-        <v>31555937</v>
+        <v>36220795</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>8.9870313057378581E-2</v>
+        <v>9.3432525095671765E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,11 +1634,11 @@
         <v>359626543</v>
       </c>
       <c r="E45">
-        <v>32246129</v>
+        <v>33220919</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>8.9665597903322722E-2</v>
+        <v>9.2376159787516024E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,20 +1646,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>353693690</v>
+        <v>351127485</v>
       </c>
       <c r="E46">
-        <v>31575881</v>
+        <v>31555937</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>8.9274651747391937E-2</v>
+        <v>8.9870313057378581E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,20 +1667,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>378217470</v>
+        <v>350383964</v>
       </c>
       <c r="E47">
-        <v>33466941</v>
+        <v>31416669</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>8.8485973426875281E-2</v>
+        <v>8.9663546931046195E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,20 +1688,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>362616675</v>
+        <v>353693690</v>
       </c>
       <c r="E48">
-        <v>31872821</v>
+        <v>31575881</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>8.7896732823993823E-2</v>
+        <v>8.9274651747391937E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,20 +1709,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>389639857</v>
+        <v>362616675</v>
       </c>
       <c r="E49">
-        <v>33749057</v>
+        <v>32176238</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>8.6616028606128964E-2</v>
+        <v>8.8733475921922239E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,20 +1730,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>300532207</v>
+        <v>389639857</v>
       </c>
       <c r="E50">
-        <v>25990814</v>
+        <v>33749057</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>8.6482624472923791E-2</v>
+        <v>8.6616028606128964E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,20 +1751,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>283449409</v>
+        <v>368217726</v>
       </c>
       <c r="E51">
-        <v>23619312</v>
+        <v>31875138</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>8.3328139872748855E-2</v>
+        <v>8.656600633072184E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,20 +1772,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>299936928</v>
+        <v>300532207</v>
       </c>
       <c r="E52">
-        <v>24839943</v>
+        <v>25990814</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>8.2817221492646614E-2</v>
+        <v>8.6482624472923791E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,14 +1799,14 @@
         <v>65</v>
       </c>
       <c r="D53">
-        <v>351465727</v>
+        <v>299936928</v>
       </c>
       <c r="E53">
-        <v>28549564</v>
+        <v>25585436</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>8.1230008523704503E-2</v>
+        <v>8.5302720710668883E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,20 +1814,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>368605956</v>
+        <v>343929507</v>
       </c>
       <c r="E54">
-        <v>29212679</v>
+        <v>29310168</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>7.9251782355898776E-2</v>
+        <v>8.5221440450586286E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,20 +1835,20 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55">
-        <v>350383964</v>
+        <v>283449409</v>
       </c>
       <c r="E55">
-        <v>27491939</v>
+        <v>23798938</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>7.8462320838404584E-2</v>
+        <v>8.3961854370985828E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>351475078</v>
+        <v>351465727</v>
       </c>
       <c r="E56">
-        <v>27237419</v>
+        <v>28549564</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>7.7494595505858313E-2</v>
+        <v>8.1230008523704503E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,20 +1877,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>362381942</v>
+        <v>351475078</v>
       </c>
       <c r="E57">
-        <v>27875204</v>
+        <v>28119181</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>7.6922166281674156E-2</v>
+        <v>8.0003342370692926E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,20 +1898,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>343929507</v>
+        <v>368605956</v>
       </c>
       <c r="E58">
-        <v>25746015</v>
+        <v>29212679</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>7.4858406958377088E-2</v>
+        <v>7.9251782355898776E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
@@ -1928,11 +1928,11 @@
         <v>370099669</v>
       </c>
       <c r="E59">
-        <v>27692023</v>
+        <v>29335658</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>7.48231498688533E-2</v>
+        <v>7.9264210311952479E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
@@ -1949,11 +1949,11 @@
         <v>352398704</v>
       </c>
       <c r="E60">
-        <v>25868091</v>
+        <v>27206926</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>7.3405749528522676E-2</v>
+        <v>7.7204954760560079E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,20 +1961,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>304626916</v>
+        <v>362381942</v>
       </c>
       <c r="E61">
-        <v>21955679</v>
+        <v>27875204</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>7.2073995588754866E-2</v>
+        <v>7.6922166281674156E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,20 +1982,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>361066692</v>
+        <v>304626916</v>
       </c>
       <c r="E62">
-        <v>25612049</v>
+        <v>23202128</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>7.0934399565163994E-2</v>
+        <v>7.6165718724605411E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,20 +2003,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>366528353</v>
+        <v>377238710</v>
       </c>
       <c r="E63">
-        <v>25699337</v>
+        <v>26912676</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>7.0115549833057525E-2</v>
+        <v>7.1341236428255198E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,20 +2024,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>368217726</v>
+        <v>361066692</v>
       </c>
       <c r="E64">
-        <v>25458966</v>
+        <v>25712049</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>6.9141065740001881E-2</v>
+        <v>7.1211356709690629E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,20 +2045,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>356351352</v>
+        <v>375486069</v>
       </c>
       <c r="E65">
-        <v>24428617</v>
+        <v>26573038</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>6.8552053648445258E-2</v>
+        <v>7.0769704108516476E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,20 +2066,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>375486069</v>
+        <v>262450117</v>
       </c>
       <c r="E66">
-        <v>25405221</v>
+        <v>18460149</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>6.7659556765074014E-2</v>
+        <v>7.0337743457740576E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,20 +2087,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>300429761</v>
+        <v>366528353</v>
       </c>
       <c r="E67">
-        <v>20323114</v>
+        <v>25709337</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>6.7646806802206264E-2</v>
+        <v>7.0142832852005857E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,20 +2108,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>262450117</v>
+        <v>356351352</v>
       </c>
       <c r="E68">
-        <v>17207065</v>
+        <v>24428617</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>6.5563182812374207E-2</v>
+        <v>6.8552053648445258E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,20 +2129,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>360056474</v>
+        <v>300429761</v>
       </c>
       <c r="E69">
-        <v>23277107</v>
+        <v>20323114</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>6.464848900342228E-2</v>
+        <v>6.7646806802206264E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2156,14 +2156,14 @@
         <v>82</v>
       </c>
       <c r="D70">
-        <v>355116517</v>
+        <v>360056474</v>
       </c>
       <c r="E70">
-        <v>22528677</v>
+        <v>23878511</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>6.3440239812894983E-2</v>
+        <v>6.6318793645687921E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,20 +2171,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>377238710</v>
+        <v>300093270</v>
       </c>
       <c r="E71">
-        <v>23656081</v>
+        <v>19752624</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>6.2708519494195064E-2</v>
+        <v>6.5821616059567087E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
@@ -2201,11 +2201,11 @@
         <v>346006689</v>
       </c>
       <c r="E72">
-        <v>21624068</v>
+        <v>22403905</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>6.2496098160691918E-2</v>
+        <v>6.4749918750848193E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,20 +2213,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>300093270</v>
+        <v>355116517</v>
       </c>
       <c r="E73">
-        <v>18569579</v>
+        <v>22528677</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>6.1879358374148145E-2</v>
+        <v>6.3440239812894983E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
@@ -2243,11 +2243,11 @@
         <v>338207252</v>
       </c>
       <c r="E74">
-        <v>20232826</v>
+        <v>20810492</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>5.9823749728465311E-2</v>
+        <v>6.1531773422765043E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
@@ -2264,11 +2264,11 @@
         <v>371570466</v>
       </c>
       <c r="E75">
-        <v>21638487</v>
+        <v>21938487</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>5.8235217758130432E-2</v>
+        <v>5.9042601625932237E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,20 +2276,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>316049359</v>
+        <v>359029643</v>
       </c>
       <c r="E76">
-        <v>17749755</v>
+        <v>21103406</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>5.6161338393981679E-2</v>
+        <v>5.8779007281022755E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,20 +2297,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>316203621</v>
+        <v>316049359</v>
       </c>
       <c r="E77">
-        <v>17719094</v>
+        <v>17749755</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>5.603697371953878E-2</v>
+        <v>5.6161338393981679E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,20 +2318,20 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>359029643</v>
+        <v>316203621</v>
       </c>
       <c r="E78">
-        <v>20052858</v>
+        <v>17719094</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>5.5852931341382306E-2</v>
+        <v>5.603697371953878E-2</v>
       </c>
     </row>
   </sheetData>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DF3C3F-F9A3-44C0-BD3D-2ACD8B316745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0757B2C2-DA85-426C-B201-A4719A162EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,42 +66,57 @@
     <t>Indra Gunawan</t>
   </si>
   <si>
+    <t>Anzelma Tamalia</t>
+  </si>
+  <si>
     <t>Xinghao_s2l</t>
   </si>
   <si>
     <t>Feriyan Wijaya S</t>
   </si>
   <si>
+    <t>Irvan Zaky Zulkarnain</t>
+  </si>
+  <si>
+    <t>Selomita Maharani</t>
+  </si>
+  <si>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Saizah Rafida Sari</t>
+  </si>
+  <si>
+    <t>Amanda Agustin</t>
+  </si>
+  <si>
+    <t>Febrianto</t>
+  </si>
+  <si>
+    <t>Winda Ayu Utami</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
     <t>Pertiwi</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Saizah Rafida Sari</t>
-  </si>
-  <si>
-    <t>Anzelma Tamalia</t>
-  </si>
-  <si>
-    <t>Selomita Maharani</t>
-  </si>
-  <si>
-    <t>Winda Ayu Utami</t>
-  </si>
-  <si>
-    <t>Amanda Agustin</t>
+    <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
     <t>Desi Eka</t>
   </si>
   <si>
+    <t>Dimas Eka Putra</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
     <t>Mkm_s2l</t>
   </si>
   <si>
@@ -111,102 +126,96 @@
     <t>Desi Skarsari</t>
   </si>
   <si>
-    <t>Erick Ervan Dewanggga</t>
-  </si>
-  <si>
-    <t>Dimas Eka Putra</t>
-  </si>
-  <si>
-    <t>Febrianto</t>
-  </si>
-  <si>
-    <t>Irvan Zaky Zulkarnain</t>
+    <t>Rahmat Hidayat</t>
+  </si>
+  <si>
+    <t>Dimas</t>
   </si>
   <si>
     <t>Ahmad Fauzi</t>
   </si>
   <si>
-    <t>Annisa Putri Restu</t>
+    <t>EDN_S2l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miranti </t>
   </si>
   <si>
     <t>Fikri Adriansyah</t>
   </si>
   <si>
-    <t>Rahmat Hidayat</t>
-  </si>
-  <si>
-    <t>EDN_S2l</t>
+    <t>Dende Ayu Kencana Wungu</t>
+  </si>
+  <si>
+    <t>Erika Fitriyanti</t>
   </si>
   <si>
     <t>Dwi Rahayu Maulani Putri</t>
   </si>
   <si>
-    <t>Erika Fitriyanti</t>
-  </si>
-  <si>
     <t>Adriansah</t>
   </si>
   <si>
-    <t xml:space="preserve">Miranti </t>
-  </si>
-  <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>Dimas</t>
+    <t>Helmy Hidayat</t>
+  </si>
+  <si>
+    <t>Indisabellia</t>
   </si>
   <si>
     <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
-    <t>Dende Ayu Kencana Wungu</t>
-  </si>
-  <si>
-    <t>Indisabellia</t>
-  </si>
-  <si>
     <t>Rahma amelia</t>
   </si>
   <si>
-    <t>Helmy Hidayat</t>
-  </si>
-  <si>
     <t>Elena Juwita Sari</t>
   </si>
   <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Ebiet Jaka Ramadan</t>
+  </si>
+  <si>
+    <t>Defister Zalukhu</t>
+  </si>
+  <si>
     <t>Bagoes Tjahaya</t>
   </si>
   <si>
-    <t>Ebiet Jaka Ramadan</t>
-  </si>
-  <si>
-    <t>Defister Zalukhu</t>
-  </si>
-  <si>
     <t>Muhammad Fadhil Fakhruddin</t>
   </si>
   <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>Komariah</t>
+  </si>
+  <si>
+    <t>Lenny Nuraida</t>
+  </si>
+  <si>
+    <t>Amirah Syahidah</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>Lenny Nuraida</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
+    <t>Sucika Wardani</t>
   </si>
   <si>
     <t>Rifal</t>
   </si>
   <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
     <t>Susanti</t>
   </si>
   <si>
@@ -216,94 +225,85 @@
     <t>Arisman Zega</t>
   </si>
   <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>Amirah Syahidah</t>
+    <t>Tasya Wiranda Agustin</t>
   </si>
   <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>Komariah</t>
-  </si>
-  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Tasya Wiranda Agustin</t>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>Fitriyani</t>
+  </si>
+  <si>
+    <t>Maya Margareta</t>
   </si>
   <si>
     <t>Muhammad Rizki Daelami</t>
   </si>
   <si>
-    <t>Ridhoi Berkat Zebua</t>
-  </si>
-  <si>
     <t>Sema Salwanda Rivanka</t>
   </si>
   <si>
+    <t>Mutiara</t>
+  </si>
+  <si>
+    <t>Aura Ramadhani</t>
+  </si>
+  <si>
+    <t>Saeful Aziz</t>
+  </si>
+  <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
-    <t>Fitriyani</t>
-  </si>
-  <si>
-    <t>Aura Ramadhani</t>
-  </si>
-  <si>
-    <t>Mutiara</t>
-  </si>
-  <si>
-    <t>Maya Margareta</t>
+    <t>Nurhasanah</t>
+  </si>
+  <si>
+    <t>Aura Devana Sopiyanti</t>
   </si>
   <si>
     <t>Afsyal Suwandi</t>
   </si>
   <si>
-    <t>Aura Devana Sopiyanti</t>
+    <t>Muhammad Ilham</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>Saeful Aziz</t>
-  </si>
-  <si>
-    <t>Muhammad Ilham</t>
-  </si>
-  <si>
-    <t>Nurhasanah</t>
+    <t>Mulhimah</t>
   </si>
   <si>
     <t>Ilham Syaid</t>
   </si>
   <si>
-    <t>Mulhimah</t>
+    <t>Abdul Hamid</t>
+  </si>
+  <si>
+    <t>Ahmad Septian</t>
+  </si>
+  <si>
+    <t>Serius Zega</t>
   </si>
   <si>
     <t>Jamalluddin salim</t>
   </si>
   <si>
-    <t>Ahmad Septian</t>
-  </si>
-  <si>
-    <t>Abdul Hamid</t>
+    <t>Imelda Astri Paidin</t>
   </si>
   <si>
     <t>Cici Fatma Ramadhani</t>
   </si>
   <si>
-    <t>Serius Zega</t>
-  </si>
-  <si>
-    <t>Imelda Astri Paidin</t>
+    <t>Erlangga Hutama</t>
   </si>
   <si>
     <t>Faoziah Sabaniah</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,14 +728,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>368592336</v>
+        <v>376998130</v>
       </c>
       <c r="E2">
-        <v>59299775</v>
+        <v>60090063</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.16088173629307365</v>
+        <v>0.1593908781457351</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,14 +749,14 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>345927651</v>
+        <v>355361592</v>
       </c>
       <c r="E3">
-        <v>49183652</v>
+        <v>51581107</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.14217901303298822</v>
+        <v>0.14515104659931849</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,20 +764,20 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4">
-        <v>401693021</v>
+        <v>364455314</v>
       </c>
       <c r="E4">
-        <v>56275630</v>
+        <v>52613683</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.14009611085575718</v>
+        <v>0.14436250749796997</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,20 +785,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5">
-        <v>300441164</v>
+        <v>409853148</v>
       </c>
       <c r="E5">
-        <v>40472551</v>
+        <v>58902482</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.13471040539571336</v>
+        <v>0.14371606583341406</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,20 +806,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6">
-        <v>357098175</v>
+        <v>359402585</v>
       </c>
       <c r="E6">
-        <v>47695729</v>
+        <v>49656441</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.13356475148605843</v>
+        <v>0.13816383930571896</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,20 +827,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>356228464</v>
+        <v>369814223</v>
       </c>
       <c r="E7">
-        <v>47074833</v>
+        <v>50443466</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.13214787069906914</v>
+        <v>0.13640217942618177</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,20 +848,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>352660652</v>
+        <v>364568262</v>
       </c>
       <c r="E8">
-        <v>46497950</v>
+        <v>49536284</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.13184898779124357</v>
+        <v>0.13587656733541989</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,17 +872,17 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>358307844</v>
+        <v>288486444</v>
       </c>
       <c r="E9">
-        <v>45384353</v>
+        <v>39013035</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.1266630182955191</v>
+        <v>0.13523351204675668</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -893,17 +893,17 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>353306906</v>
+        <v>372093500</v>
       </c>
       <c r="E10">
-        <v>44717186</v>
+        <v>50123385</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.12656754012048663</v>
+        <v>0.13470642459489349</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,17 +914,17 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>279703028</v>
+        <v>362327456</v>
       </c>
       <c r="E11">
-        <v>35190316</v>
+        <v>48546408</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.12581313921277965</v>
+        <v>0.13398490011201358</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,20 +932,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>355328195</v>
+        <v>365793306</v>
       </c>
       <c r="E12">
-        <v>44491711</v>
+        <v>48194795</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.12521300483908968</v>
+        <v>0.13175417430957581</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,20 +953,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13">
-        <v>366418569</v>
+        <v>310104210</v>
       </c>
       <c r="E13">
-        <v>45621115</v>
+        <v>40506015</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.1245054668613151</v>
+        <v>0.1306206549082323</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,20 +974,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>347331501</v>
+        <v>371201917</v>
       </c>
       <c r="E14">
-        <v>42461976</v>
+        <v>48209748</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.12225201537363581</v>
+        <v>0.12987472799069624</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,20 +995,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>363694630</v>
+        <v>366488692</v>
       </c>
       <c r="E15">
-        <v>44106636</v>
+        <v>46405035</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.12127381699311865</v>
+        <v>0.12662064618353899</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,20 +1016,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>415405346</v>
+        <v>430304081</v>
       </c>
       <c r="E16">
-        <v>49876219</v>
+        <v>54437473</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.12006638691645533</v>
+        <v>0.12650931144666508</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,20 +1037,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>364726279</v>
+        <v>370508568</v>
       </c>
       <c r="E17">
-        <v>43195887</v>
+        <v>45453945</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.11843371176443253</v>
+        <v>0.12267987551640101</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,20 +1058,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18">
-        <v>349350697</v>
+        <v>379463913</v>
       </c>
       <c r="E18">
-        <v>41293886</v>
+        <v>46270362</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.11820181369210206</v>
+        <v>0.12193613256710395</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,20 +1079,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
-        <v>368106067</v>
+        <v>360014367</v>
       </c>
       <c r="E19">
-        <v>42185336</v>
+        <v>43434783</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.11460103427200509</v>
+        <v>0.12064736016493476</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,20 +1100,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20">
-        <v>360883634</v>
+        <v>359723884</v>
       </c>
       <c r="E20">
-        <v>41197087</v>
+        <v>42359364</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.1141561520631329</v>
+        <v>0.11775521694300399</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,20 +1121,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21">
-        <v>389321195</v>
+        <v>357913456</v>
       </c>
       <c r="E21">
-        <v>44257314</v>
+        <v>40728706</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.11367815204615304</v>
+        <v>0.1137948443044846</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,20 +1142,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22">
-        <v>348971893</v>
+        <v>378100948</v>
       </c>
       <c r="E22">
-        <v>39339806</v>
+        <v>42788327</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.11273058601312627</v>
+        <v>0.11316641025718878</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1169,14 +1169,14 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>320724418</v>
+        <v>438089729</v>
       </c>
       <c r="E23">
-        <v>36064190</v>
+        <v>49465647</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.11244603770705104</v>
+        <v>0.11291213586064237</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,20 +1184,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>353398201</v>
+        <v>400317584</v>
       </c>
       <c r="E24">
-        <v>39146541</v>
+        <v>44591351</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.11077176083304396</v>
+        <v>0.11138993834455196</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,20 +1205,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>392126825</v>
+        <v>310900705</v>
       </c>
       <c r="E25">
-        <v>43320229</v>
+        <v>34416026</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.11047504592423638</v>
+        <v>0.1106978062336655</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,20 +1226,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>425552015</v>
+        <v>362295360</v>
       </c>
       <c r="E26">
-        <v>46920999</v>
+        <v>40054171</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.11025913953197942</v>
+        <v>0.11055667674021549</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,20 +1247,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>362295166</v>
+        <v>334625145</v>
       </c>
       <c r="E27">
-        <v>39782340</v>
+        <v>36356625</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.10980643335439921</v>
+        <v>0.10864881358512374</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,20 +1268,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>347536703</v>
+        <v>400146199</v>
       </c>
       <c r="E28">
-        <v>37386413</v>
+        <v>43320229</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.10757543786677404</v>
+        <v>0.10826100337391933</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,20 +1289,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>294347690</v>
+        <v>378951070</v>
       </c>
       <c r="E29">
-        <v>31446179</v>
+        <v>41014803</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.10683344924500682</v>
+        <v>0.10823245069607536</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1316,14 +1316,14 @@
         <v>42</v>
       </c>
       <c r="D30">
-        <v>299649567</v>
+        <v>294390658</v>
       </c>
       <c r="E30">
-        <v>31899744</v>
+        <v>30805407</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.10645683329153617</v>
+        <v>0.10464125189733432</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,14 +1337,14 @@
         <v>43</v>
       </c>
       <c r="D31">
-        <v>346888813</v>
+        <v>358183092</v>
       </c>
       <c r="E31">
-        <v>36712617</v>
+        <v>37259470</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.10583396069333605</v>
+        <v>0.10402353107164533</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,20 +1352,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>309219439</v>
+        <v>304028501</v>
       </c>
       <c r="E32">
-        <v>32656542</v>
+        <v>31605595</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.1056096023769062</v>
+        <v>0.10395602680684203</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,20 +1373,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>283353700</v>
+        <v>320638722</v>
       </c>
       <c r="E33">
-        <v>29140579</v>
+        <v>33228514</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.10284170984885675</v>
+        <v>0.10363225562008072</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,14 +1400,14 @@
         <v>46</v>
       </c>
       <c r="D34">
-        <v>335427644</v>
+        <v>344766321</v>
       </c>
       <c r="E34">
-        <v>33742215</v>
+        <v>34725625</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.1005946158689294</v>
+        <v>0.10072220772399633</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,20 +1415,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>346622769</v>
+        <v>368404513</v>
       </c>
       <c r="E35">
-        <v>34783815</v>
+        <v>36638161</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.10035063507325452</v>
+        <v>9.9450901677743564E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,20 +1436,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>378217470</v>
+        <v>395256649</v>
       </c>
       <c r="E36">
-        <v>37690396</v>
+        <v>39202887</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>9.9652710383790574E-2</v>
+        <v>9.9183371359301289E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,20 +1457,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>354503772</v>
+        <v>386913196</v>
       </c>
       <c r="E37">
-        <v>35224151</v>
+        <v>38322586</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>9.9361851077849742E-2</v>
+        <v>9.9046986239259727E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,20 +1478,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>345478325</v>
+        <v>362932350</v>
       </c>
       <c r="E38">
-        <v>34203521</v>
+        <v>35614675</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>9.9003377418829391E-2</v>
+        <v>9.8130340268647864E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,20 +1499,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>349396802</v>
+        <v>363640912</v>
       </c>
       <c r="E39">
-        <v>33711685</v>
+        <v>35521471</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>9.6485385118092751E-2</v>
+        <v>9.7682823433244498E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,20 +1520,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>393473279</v>
+        <v>356969840</v>
       </c>
       <c r="E40">
-        <v>37419410</v>
+        <v>34598629</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>9.5100257113012246E-2</v>
+        <v>9.6923115409413854E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,20 +1541,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>330257379</v>
+        <v>346953619</v>
       </c>
       <c r="E41">
-        <v>31243278</v>
+        <v>33026507</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>9.4602815823836603E-2</v>
+        <v>9.5189976963462652E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>336549859</v>
+        <v>311140471</v>
       </c>
       <c r="E42">
-        <v>31614185</v>
+        <v>29569305</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>9.3936111261303482E-2</v>
+        <v>9.5035226066749773E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,20 +1583,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>435017138</v>
+        <v>339103315</v>
       </c>
       <c r="E43">
-        <v>40635199</v>
+        <v>32195422</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>9.3410570412975319E-2</v>
+        <v>9.4942811160663526E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,20 +1604,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>387667945</v>
+        <v>404129930</v>
       </c>
       <c r="E44">
-        <v>36220795</v>
+        <v>38189883</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>9.3432525095671765E-2</v>
+        <v>9.4499021638907069E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,20 +1625,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>359626543</v>
+        <v>404853721</v>
       </c>
       <c r="E45">
-        <v>33220919</v>
+        <v>38217343</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>9.2376159787516024E-2</v>
+        <v>9.4397904768176749E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,20 +1646,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>351127485</v>
+        <v>358559851</v>
       </c>
       <c r="E46">
-        <v>31555937</v>
+        <v>33711685</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>8.9870313057378581E-2</v>
+        <v>9.4019687106574573E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,20 +1667,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>350383964</v>
+        <v>371746571</v>
       </c>
       <c r="E47">
-        <v>31416669</v>
+        <v>34693959</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>8.9663546931046195E-2</v>
+        <v>9.3326910606527161E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,20 +1688,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>353693690</v>
+        <v>443755544</v>
       </c>
       <c r="E48">
-        <v>31575881</v>
+        <v>40635199</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>8.9274651747391937E-2</v>
+        <v>9.1571135390705119E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,20 +1709,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>362616675</v>
+        <v>362825012</v>
       </c>
       <c r="E49">
-        <v>32176238</v>
+        <v>32548067</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>8.8733475921922239E-2</v>
+        <v>8.9707340793803922E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,20 +1730,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>389639857</v>
+        <v>358303100</v>
       </c>
       <c r="E50">
-        <v>33749057</v>
+        <v>31904063</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>8.6616028606128964E-2</v>
+        <v>8.9042107087546826E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,20 +1751,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>368217726</v>
+        <v>361922246</v>
       </c>
       <c r="E51">
-        <v>31875138</v>
+        <v>31982616</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>8.656600633072184E-2</v>
+        <v>8.8368748684213239E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,20 +1772,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>300532207</v>
+        <v>352659578</v>
       </c>
       <c r="E52">
-        <v>25990814</v>
+        <v>30759458</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>8.6482624472923791E-2</v>
+        <v>8.7221388327073879E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,20 +1793,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>299936928</v>
+        <v>377958998</v>
       </c>
       <c r="E53">
-        <v>25585436</v>
+        <v>32908908</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>8.5302720710668883E-2</v>
+        <v>8.7070047740998621E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,20 +1814,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>343929507</v>
+        <v>307576128</v>
       </c>
       <c r="E54">
-        <v>29310168</v>
+        <v>26408642</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>8.5221440450586286E-2</v>
+        <v>8.5860506053317631E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,20 +1835,20 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55">
-        <v>283449409</v>
+        <v>360085140</v>
       </c>
       <c r="E55">
-        <v>23798938</v>
+        <v>30381661</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>8.3961854370985828E-2</v>
+        <v>8.4373548433573239E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>351465727</v>
+        <v>381298556</v>
       </c>
       <c r="E56">
-        <v>28549564</v>
+        <v>31962753</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>8.1230008523704503E-2</v>
+        <v>8.3826053094205794E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,20 +1877,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>351475078</v>
+        <v>314082935</v>
       </c>
       <c r="E57">
-        <v>28119181</v>
+        <v>25657994</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>8.0003342370692926E-2</v>
+        <v>8.1691779911570173E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,20 +1898,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>368605956</v>
+        <v>292475084</v>
       </c>
       <c r="E58">
-        <v>29212679</v>
+        <v>23798938</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>7.9251782355898776E-2</v>
+        <v>8.1370822001370899E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,20 +1919,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>370099669</v>
+        <v>361556849</v>
       </c>
       <c r="E59">
-        <v>29335658</v>
+        <v>29166759</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>7.9264210311952479E-2</v>
+        <v>8.0669911469440872E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,14 +1946,14 @@
         <v>72</v>
       </c>
       <c r="D60">
-        <v>352398704</v>
+        <v>372026463</v>
       </c>
       <c r="E60">
-        <v>27206926</v>
+        <v>29984898</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>7.7204954760560079E-2</v>
+        <v>8.0598830949291905E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,14 +1967,14 @@
         <v>73</v>
       </c>
       <c r="D61">
-        <v>362381942</v>
+        <v>362656120</v>
       </c>
       <c r="E61">
-        <v>27875204</v>
+        <v>28955174</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>7.6922166281674156E-2</v>
+        <v>7.9841956065707639E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,20 +1982,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>304626916</v>
+        <v>269642226</v>
       </c>
       <c r="E62">
-        <v>23202128</v>
+        <v>20996302</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>7.6165718724605411E-2</v>
+        <v>7.7867262525862693E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,20 +2003,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>377238710</v>
+        <v>379718111</v>
       </c>
       <c r="E63">
-        <v>26912676</v>
+        <v>29368835</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>7.1341236428255198E-2</v>
+        <v>7.7343782530299166E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2030,14 +2030,14 @@
         <v>76</v>
       </c>
       <c r="D64">
-        <v>361066692</v>
+        <v>365500423</v>
       </c>
       <c r="E64">
-        <v>25712049</v>
+        <v>27037793</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>7.1211356709690629E-2</v>
+        <v>7.3974724237186457E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,20 +2045,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>375486069</v>
+        <v>372154932</v>
       </c>
       <c r="E65">
-        <v>26573038</v>
+        <v>26266257</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>7.0769704108516476E-2</v>
+        <v>7.0578822800607136E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,20 +2066,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>262450117</v>
+        <v>385921141</v>
       </c>
       <c r="E66">
-        <v>18460149</v>
+        <v>26912676</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>7.0337743457740576E-2</v>
+        <v>6.97362055114778E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,14 +2093,14 @@
         <v>79</v>
       </c>
       <c r="D67">
-        <v>366528353</v>
+        <v>374723238</v>
       </c>
       <c r="E67">
-        <v>25709337</v>
+        <v>25963820</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>7.0142832852005857E-2</v>
+        <v>6.9287990087233395E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,20 +2108,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>356351352</v>
+        <v>384017523</v>
       </c>
       <c r="E68">
-        <v>24428617</v>
+        <v>26573038</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>6.8552053648445258E-2</v>
+        <v>6.9197462116852418E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,20 +2129,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>300429761</v>
+        <v>369462524</v>
       </c>
       <c r="E69">
-        <v>20323114</v>
+        <v>24663975</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>6.7646806802206264E-2</v>
+        <v>6.6756364713190769E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,20 +2150,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>360056474</v>
+        <v>311156968</v>
       </c>
       <c r="E70">
-        <v>23878511</v>
+        <v>20624029</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>6.6318793645687921E-2</v>
+        <v>6.6281752044839312E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,20 +2171,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>300093270</v>
+        <v>365553208</v>
       </c>
       <c r="E71">
-        <v>19752624</v>
+        <v>23306906</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>6.5821616059567087E-2</v>
+        <v>6.3757903062910612E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,14 +2198,14 @@
         <v>84</v>
       </c>
       <c r="D72">
-        <v>346006689</v>
+        <v>355428605</v>
       </c>
       <c r="E72">
-        <v>22403905</v>
+        <v>22608180</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>6.4749918750848193E-2</v>
+        <v>6.3608217464657918E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,20 +2213,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>355116517</v>
+        <v>382179428</v>
       </c>
       <c r="E73">
-        <v>22528677</v>
+        <v>24249187</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>6.3440239812894983E-2</v>
+        <v>6.3449744343643741E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,20 +2234,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>338207252</v>
+        <v>314368294</v>
       </c>
       <c r="E74">
-        <v>20810492</v>
+        <v>19752624</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>6.1531773422765043E-2</v>
+        <v>6.2832748648628034E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,20 +2255,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>371570466</v>
+        <v>367821680</v>
       </c>
       <c r="E75">
-        <v>21938487</v>
+        <v>22985869</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>5.9042601625932237E-2</v>
+        <v>6.2491881935833687E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,20 +2276,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>359029643</v>
+        <v>347159717</v>
       </c>
       <c r="E76">
-        <v>21103406</v>
+        <v>21585166</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>5.8779007281022755E-2</v>
+        <v>6.2176470779874496E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,20 +2297,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>316049359</v>
+        <v>327448790</v>
       </c>
       <c r="E77">
-        <v>17749755</v>
+        <v>18923984</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>5.6161338393981679E-2</v>
+        <v>5.7792194009939693E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,20 +2318,20 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>316203621</v>
+        <v>323948602</v>
       </c>
       <c r="E78">
-        <v>17719094</v>
+        <v>18121738</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>5.603697371953878E-2</v>
+        <v>5.5940164236300674E-2</v>
       </c>
     </row>
   </sheetData>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0757B2C2-DA85-426C-B201-A4719A162EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9079B5EF-B036-4F88-8F93-B309576B4A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9079B5EF-B036-4F88-8F93-B309576B4A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98530E0-F075-4F81-8A98-B2B6E7B2FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,61 +66,67 @@
     <t>Indra Gunawan</t>
   </si>
   <si>
+    <t>Winda Ayu Utami</t>
+  </si>
+  <si>
+    <t>Xinghao_s2l</t>
+  </si>
+  <si>
+    <t>Feriyan Wijaya S</t>
+  </si>
+  <si>
     <t>Anzelma Tamalia</t>
   </si>
   <si>
-    <t>Xinghao_s2l</t>
-  </si>
-  <si>
-    <t>Feriyan Wijaya S</t>
+    <t>Amanda Agustin</t>
+  </si>
+  <si>
+    <t>Febrianto</t>
+  </si>
+  <si>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
     <t>Irvan Zaky Zulkarnain</t>
   </si>
   <si>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Saizah Rafida Sari</t>
+  </si>
+  <si>
     <t>Selomita Maharani</t>
   </si>
   <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Saizah Rafida Sari</t>
-  </si>
-  <si>
-    <t>Amanda Agustin</t>
-  </si>
-  <si>
-    <t>Febrianto</t>
-  </si>
-  <si>
-    <t>Winda Ayu Utami</t>
-  </si>
-  <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
     <t>Nur Halim</t>
   </si>
   <si>
     <t>Pertiwi</t>
   </si>
   <si>
-    <t>Erick Ervan Dewanggga</t>
+    <t>Dimas Eka Putra</t>
   </si>
   <si>
     <t>Desi Eka</t>
   </si>
   <si>
-    <t>Dimas Eka Putra</t>
+    <t>Mkm_s2l</t>
+  </si>
+  <si>
+    <t>Willman zega</t>
   </si>
   <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
-    <t>Mkm_s2l</t>
-  </si>
-  <si>
-    <t>Willman zega</t>
+    <t>Dimas</t>
+  </si>
+  <si>
+    <t>Fikri Adriansyah</t>
   </si>
   <si>
     <t>Desi Skarsari</t>
@@ -129,57 +135,60 @@
     <t>Rahmat Hidayat</t>
   </si>
   <si>
-    <t>Dimas</t>
-  </si>
-  <si>
     <t>Ahmad Fauzi</t>
   </si>
   <si>
     <t>EDN_S2l</t>
   </si>
   <si>
+    <t>Dwi Rahayu Maulani Putri</t>
+  </si>
+  <si>
+    <t>Dende Ayu Kencana Wungu</t>
+  </si>
+  <si>
+    <t>Helmy Hidayat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miranti </t>
   </si>
   <si>
-    <t>Fikri Adriansyah</t>
-  </si>
-  <si>
-    <t>Dende Ayu Kencana Wungu</t>
+    <t>Adriansah</t>
+  </si>
+  <si>
+    <t>Indisabellia</t>
+  </si>
+  <si>
+    <t>Elena Juwita Sari</t>
+  </si>
+  <si>
+    <t>Fitriyani</t>
   </si>
   <si>
     <t>Erika Fitriyanti</t>
   </si>
   <si>
-    <t>Dwi Rahayu Maulani Putri</t>
-  </si>
-  <si>
-    <t>Adriansah</t>
+    <t>Mutiara</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>Helmy Hidayat</t>
-  </si>
-  <si>
-    <t>Indisabellia</t>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Rahma amelia</t>
+  </si>
+  <si>
+    <t>Lenny Nuraida</t>
+  </si>
+  <si>
+    <t>Romli</t>
   </si>
   <si>
     <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
-    <t>Rahma amelia</t>
-  </si>
-  <si>
-    <t>Elena Juwita Sari</t>
-  </si>
-  <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
     <t>Ebiet Jaka Ramadan</t>
   </si>
   <si>
@@ -189,121 +198,112 @@
     <t>Bagoes Tjahaya</t>
   </si>
   <si>
+    <t>Komariah</t>
+  </si>
+  <si>
+    <t>Rifal</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
+  </si>
+  <si>
+    <t>Amirah Syahidah</t>
+  </si>
+  <si>
+    <t>Susanti</t>
+  </si>
+  <si>
     <t>Muhammad Fadhil Fakhruddin</t>
   </si>
   <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>Komariah</t>
-  </si>
-  <si>
-    <t>Lenny Nuraida</t>
-  </si>
-  <si>
-    <t>Amirah Syahidah</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>Rifal</t>
-  </si>
-  <si>
-    <t>Susanti</t>
+    <t>Tasya Wiranda Agustin</t>
+  </si>
+  <si>
+    <t>Arisman Zega</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>Imelda Astri Paidin</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>Arisman Zega</t>
-  </si>
-  <si>
-    <t>Tasya Wiranda Agustin</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
+    <t>Muhammad Rizki Daelami</t>
   </si>
   <si>
     <t>Nuraini</t>
   </si>
   <si>
+    <t>Saeful Aziz</t>
+  </si>
+  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
-    <t>Fitriyani</t>
+    <t>Nurhasanah</t>
   </si>
   <si>
     <t>Maya Margareta</t>
   </si>
   <si>
-    <t>Muhammad Rizki Daelami</t>
-  </si>
-  <si>
     <t>Sema Salwanda Rivanka</t>
   </si>
   <si>
-    <t>Mutiara</t>
+    <t>Adistira Winditya P</t>
   </si>
   <si>
     <t>Aura Ramadhani</t>
   </si>
   <si>
-    <t>Saeful Aziz</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
-    <t>Nurhasanah</t>
+    <t>Muhammad Ilham</t>
+  </si>
+  <si>
+    <t>Ilham Syaid</t>
+  </si>
+  <si>
+    <t>Abdul Hamid</t>
+  </si>
+  <si>
+    <t>Mulhimah</t>
   </si>
   <si>
     <t>Aura Devana Sopiyanti</t>
   </si>
   <si>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
     <t>Afsyal Suwandi</t>
   </si>
   <si>
-    <t>Muhammad Ilham</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
-    <t>Mulhimah</t>
-  </si>
-  <si>
-    <t>Ilham Syaid</t>
-  </si>
-  <si>
-    <t>Abdul Hamid</t>
+    <t>Serius Zega</t>
+  </si>
+  <si>
+    <t>Faoziah Sabaniah</t>
   </si>
   <si>
     <t>Ahmad Septian</t>
   </si>
   <si>
-    <t>Serius Zega</t>
+    <t>Cici Fatma Ramadhani</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
   </si>
   <si>
     <t>Jamalluddin salim</t>
-  </si>
-  <si>
-    <t>Imelda Astri Paidin</t>
-  </si>
-  <si>
-    <t>Cici Fatma Ramadhani</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>Faoziah Sabaniah</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="J8:K8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,14 +728,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>376998130</v>
+        <v>389904709</v>
       </c>
       <c r="E2">
-        <v>60090063</v>
+        <v>62677200</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.1593908781457351</v>
+        <v>0.16075004623757955</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,14 +749,14 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>355361592</v>
+        <v>362756057</v>
       </c>
       <c r="E3">
-        <v>51581107</v>
+        <v>54248736</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.14515104659931849</v>
+        <v>0.14954605154945766</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,14 +770,14 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>364455314</v>
+        <v>375069462</v>
       </c>
       <c r="E4">
-        <v>52613683</v>
+        <v>54509555</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.14436250749796997</v>
+        <v>0.14533189321608914</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,14 +791,14 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>409853148</v>
+        <v>422667790</v>
       </c>
       <c r="E5">
-        <v>58902482</v>
+        <v>60383020</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.14371606583341406</v>
+        <v>0.14286165501279385</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,20 +806,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>359402585</v>
+        <v>375595696</v>
       </c>
       <c r="E6">
-        <v>49656441</v>
+        <v>53478358</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.13816383930571896</v>
+        <v>0.14238277639901389</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,14 +833,14 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>369814223</v>
+        <v>304510144</v>
       </c>
       <c r="E7">
-        <v>50443466</v>
+        <v>42855201</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.13640217942618177</v>
+        <v>0.14073488796484887</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,20 +848,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8">
-        <v>364568262</v>
+        <v>384454739</v>
       </c>
       <c r="E8">
-        <v>49536284</v>
+        <v>54081439</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.13587656733541989</v>
+        <v>0.14067049645602106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,20 +869,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9">
-        <v>288486444</v>
+        <v>383910226</v>
       </c>
       <c r="E9">
-        <v>39013035</v>
+        <v>53995747</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.13523351204675668</v>
+        <v>0.14064680579777003</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,20 +890,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10">
-        <v>372093500</v>
+        <v>368557655</v>
       </c>
       <c r="E10">
-        <v>50123385</v>
+        <v>51226248</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.13470642459489349</v>
+        <v>0.13899113830643403</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,20 +911,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>362327456</v>
+        <v>373081074</v>
       </c>
       <c r="E11">
-        <v>48546408</v>
+        <v>51383475</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.13398490011201358</v>
+        <v>0.13772736968158295</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,20 +932,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>365793306</v>
+        <v>385505025</v>
       </c>
       <c r="E12">
-        <v>48194795</v>
+        <v>52092715</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.13175417430957581</v>
+        <v>0.13512849800077184</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,20 +953,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13">
-        <v>310104210</v>
+        <v>376779839</v>
       </c>
       <c r="E13">
-        <v>40506015</v>
+        <v>50503182</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.1306206549082323</v>
+        <v>0.13403897123062361</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,20 +974,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14">
-        <v>371201917</v>
+        <v>321875055</v>
       </c>
       <c r="E14">
-        <v>48209748</v>
+        <v>42354399</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.12987472799069624</v>
+        <v>0.13158645984542044</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,20 +995,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15">
-        <v>366488692</v>
+        <v>440129534</v>
       </c>
       <c r="E15">
-        <v>46405035</v>
+        <v>57568104</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.12662064618353899</v>
+        <v>0.13079809363577041</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,20 +1016,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16">
-        <v>430304081</v>
+        <v>371098883</v>
       </c>
       <c r="E16">
-        <v>54437473</v>
+        <v>47831357</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.12650931144666508</v>
+        <v>0.12889113708272734</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,20 +1037,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>370508568</v>
+        <v>394422209</v>
       </c>
       <c r="E17">
-        <v>45453945</v>
+        <v>50428676</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.12267987551640101</v>
+        <v>0.12785455496498169</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,20 +1058,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18">
-        <v>379463913</v>
+        <v>381599784</v>
       </c>
       <c r="E18">
-        <v>46270362</v>
+        <v>46989782</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.12193613256710395</v>
+        <v>0.12313891142034818</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,14 +1085,14 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>360014367</v>
+        <v>368043832</v>
       </c>
       <c r="E19">
-        <v>43434783</v>
+        <v>44008890</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.12064736016493476</v>
+        <v>0.11957513256192812</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,20 +1100,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20">
-        <v>359723884</v>
+        <v>410452749</v>
       </c>
       <c r="E20">
-        <v>42359364</v>
+        <v>48338880</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11775521694300399</v>
+        <v>0.11776965830481013</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,14 +1127,14 @@
         <v>32</v>
       </c>
       <c r="D21">
-        <v>357913456</v>
+        <v>373541462</v>
       </c>
       <c r="E21">
-        <v>40728706</v>
+        <v>43725522</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.1137948443044846</v>
+        <v>0.11705667629474556</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,20 +1142,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22">
-        <v>378100948</v>
+        <v>369268891</v>
       </c>
       <c r="E22">
-        <v>42788327</v>
+        <v>42812049</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.11316641025718878</v>
+        <v>0.11593732925636566</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,20 +1163,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
       <c r="D23">
-        <v>438089729</v>
+        <v>387089265</v>
       </c>
       <c r="E23">
-        <v>49465647</v>
+        <v>44041861</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.11291213586064237</v>
+        <v>0.11377701471519754</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,20 +1184,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>400317584</v>
+        <v>344736028</v>
       </c>
       <c r="E24">
-        <v>44591351</v>
+        <v>39228189</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.11138993834455196</v>
+        <v>0.11379196200520127</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,20 +1205,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>310900705</v>
+        <v>318810362</v>
       </c>
       <c r="E25">
-        <v>34416026</v>
+        <v>35797836</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.1106978062336655</v>
+        <v>0.11228567282264182</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,20 +1226,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>362295360</v>
+        <v>304973097</v>
       </c>
       <c r="E26">
-        <v>40054171</v>
+        <v>34112371</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.11055667674021549</v>
+        <v>0.1118537055745609</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,20 +1247,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>334625145</v>
+        <v>447243118</v>
       </c>
       <c r="E27">
-        <v>36356625</v>
+        <v>49954362</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.10864881358512374</v>
+        <v>0.11169397580311119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,20 +1268,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>400146199</v>
+        <v>417844758</v>
       </c>
       <c r="E28">
-        <v>43320229</v>
+        <v>46158856</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.10826100337391933</v>
+        <v>0.11046891247586263</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,20 +1289,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>378951070</v>
+        <v>369594073</v>
       </c>
       <c r="E29">
-        <v>41014803</v>
+        <v>40355788</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.10823245069607536</v>
+        <v>0.10918948908577331</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,20 +1310,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>294390658</v>
+        <v>353384086</v>
       </c>
       <c r="E30">
-        <v>30805407</v>
+        <v>38598773</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.10464125189733432</v>
+        <v>0.10922612117852981</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,20 +1331,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>358183092</v>
+        <v>390666343</v>
       </c>
       <c r="E31">
-        <v>37259470</v>
+        <v>42612967</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.10402353107164533</v>
+        <v>0.10907765095085245</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,20 +1352,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>304028501</v>
+        <v>375033167</v>
       </c>
       <c r="E32">
-        <v>31605595</v>
+        <v>40734647</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.10395602680684203</v>
+        <v>0.10861611874450561</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,20 +1373,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>320638722</v>
+        <v>387096012</v>
       </c>
       <c r="E33">
-        <v>33228514</v>
+        <v>41653316</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.10363225562008072</v>
+        <v>0.10760461154014679</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,20 +1394,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>344766321</v>
+        <v>389618385</v>
       </c>
       <c r="E34">
-        <v>34725625</v>
+        <v>41294237</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.10072220772399633</v>
+        <v>0.10598636663411046</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,20 +1415,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>368404513</v>
+        <v>406214480</v>
       </c>
       <c r="E35">
-        <v>36638161</v>
+        <v>42964814</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>9.9450901677743564E-2</v>
+        <v>0.10576878992595241</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,20 +1436,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>395256649</v>
+        <v>333564055</v>
       </c>
       <c r="E36">
-        <v>39202887</v>
+        <v>35073188</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>9.9183371359301289E-2</v>
+        <v>0.10514678507550822</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,20 +1457,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>386913196</v>
+        <v>349471423</v>
       </c>
       <c r="E37">
-        <v>38322586</v>
+        <v>36095404</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>9.9046986239259727E-2</v>
+        <v>0.10328570985902902</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,20 +1478,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>362932350</v>
+        <v>383088000</v>
       </c>
       <c r="E38">
-        <v>35614675</v>
+        <v>39526835</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>9.8130340268647864E-2</v>
+        <v>0.10317951749989558</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,20 +1499,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>363640912</v>
+        <v>312879949</v>
       </c>
       <c r="E39">
-        <v>35521471</v>
+        <v>31747530</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>9.7682823433244498E-2</v>
+        <v>0.10146872658816497</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,14 +1526,14 @@
         <v>52</v>
       </c>
       <c r="D40">
-        <v>356969840</v>
+        <v>397144904</v>
       </c>
       <c r="E40">
-        <v>34598629</v>
+        <v>40187656</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>9.6923115409413854E-2</v>
+        <v>0.10119141803214476</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,20 +1541,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>346953619</v>
+        <v>370678855</v>
       </c>
       <c r="E41">
-        <v>33026507</v>
+        <v>37375501</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>9.5189976963462652E-2</v>
+        <v>0.10082987064368697</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>311140471</v>
+        <v>376822724</v>
       </c>
       <c r="E42">
-        <v>29569305</v>
+        <v>37580265</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>9.5035226066749773E-2</v>
+        <v>9.9729296049566263E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,20 +1583,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>339103315</v>
+        <v>322513854</v>
       </c>
       <c r="E43">
-        <v>32195422</v>
+        <v>31994486</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>9.4942811160663526E-2</v>
+        <v>9.920344693161616E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,20 +1604,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>404129930</v>
+        <v>454497413</v>
       </c>
       <c r="E44">
-        <v>38189883</v>
+        <v>45036704</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>9.4499021638907069E-2</v>
+        <v>9.9091221889969258E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,20 +1625,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>404853721</v>
+        <v>369862031</v>
       </c>
       <c r="E45">
-        <v>38217343</v>
+        <v>36618633</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>9.4397904768176749E-2</v>
+        <v>9.9006196718797554E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,20 +1646,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>358559851</v>
+        <v>419227440</v>
       </c>
       <c r="E46">
-        <v>33711685</v>
+        <v>40991307</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>9.4019687106574573E-2</v>
+        <v>9.777820602582693E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,20 +1667,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>371746571</v>
+        <v>374713398</v>
       </c>
       <c r="E47">
-        <v>34693959</v>
+        <v>35904881</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>9.3326910606527161E-2</v>
+        <v>9.5819581556568736E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,20 +1688,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>443755544</v>
+        <v>368042459</v>
       </c>
       <c r="E48">
-        <v>40635199</v>
+        <v>35043960</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>9.1571135390705119E-2</v>
+        <v>9.5217166234616429E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,20 +1709,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>362825012</v>
+        <v>427793140</v>
       </c>
       <c r="E49">
-        <v>32548067</v>
+        <v>40664109</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>8.9707340793803922E-2</v>
+        <v>9.5055542498881582E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,20 +1730,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>358303100</v>
+        <v>358267731</v>
       </c>
       <c r="E50">
-        <v>31904063</v>
+        <v>33738100</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>8.9042107087546826E-2</v>
+        <v>9.417007751669379E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,20 +1751,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>361922246</v>
+        <v>383189468</v>
       </c>
       <c r="E51">
-        <v>31982616</v>
+        <v>35940644</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>8.8368748684213239E-2</v>
+        <v>9.3793402484642407E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,14 +1778,14 @@
         <v>64</v>
       </c>
       <c r="D52">
-        <v>352659578</v>
+        <v>357915217</v>
       </c>
       <c r="E52">
-        <v>30759458</v>
+        <v>32583726</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>8.7221388327073879E-2</v>
+        <v>9.103755429320011E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,20 +1793,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>377958998</v>
+        <v>369588367</v>
       </c>
       <c r="E53">
-        <v>32908908</v>
+        <v>33494130</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>8.7070047740998621E-2</v>
+        <v>9.0625498502229646E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,20 +1814,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>307576128</v>
+        <v>390335562</v>
       </c>
       <c r="E54">
-        <v>26408642</v>
+        <v>35205962</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>8.5860506053317631E-2</v>
+        <v>9.0194093050635235E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,20 +1835,20 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55">
-        <v>360085140</v>
+        <v>379947083</v>
       </c>
       <c r="E55">
-        <v>30381661</v>
+        <v>34124732</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>8.4373548433573239E-2</v>
+        <v>8.98144334483547E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>381298556</v>
+        <v>370220959</v>
       </c>
       <c r="E56">
-        <v>31962753</v>
+        <v>32837976</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>8.3826053094205794E-2</v>
+        <v>8.8698317050170034E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,20 +1877,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>314082935</v>
+        <v>304704352</v>
       </c>
       <c r="E57">
-        <v>25657994</v>
+        <v>26111560</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>8.1691779911570173E-2</v>
+        <v>8.5694739273038015E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,20 +1898,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>292475084</v>
+        <v>320145256</v>
       </c>
       <c r="E58">
-        <v>23798938</v>
+        <v>26408642</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>8.1370822001370899E-2</v>
+        <v>8.2489562175489486E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,20 +1919,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>361556849</v>
+        <v>292587788</v>
       </c>
       <c r="E59">
-        <v>29166759</v>
+        <v>24139374</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>8.0669911469440872E-2</v>
+        <v>8.2503012736813194E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,20 +1940,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>372026463</v>
+        <v>376834676</v>
       </c>
       <c r="E60">
-        <v>29984898</v>
+        <v>30969073</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>8.0598830949291905E-2</v>
+        <v>8.2182121159147248E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,14 +1967,14 @@
         <v>73</v>
       </c>
       <c r="D61">
-        <v>362656120</v>
+        <v>369945539</v>
       </c>
       <c r="E61">
-        <v>28955174</v>
+        <v>29791381</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>7.9841956065707639E-2</v>
+        <v>8.0529099176406077E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,20 +1982,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>269642226</v>
+        <v>323656920</v>
       </c>
       <c r="E62">
-        <v>20996302</v>
+        <v>25952687</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>7.7867262525862693E-2</v>
+        <v>8.0185793648410178E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,20 +2003,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>379718111</v>
+        <v>383835855</v>
       </c>
       <c r="E63">
-        <v>29368835</v>
+        <v>29867594</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>7.7343782530299166E-2</v>
+        <v>7.7813454920723862E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,20 +2024,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>365500423</v>
+        <v>390760194</v>
       </c>
       <c r="E64">
-        <v>27037793</v>
+        <v>30316144</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>7.3974724237186457E-2</v>
+        <v>7.7582477605177974E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,14 +2051,14 @@
         <v>77</v>
       </c>
       <c r="D65">
-        <v>372154932</v>
+        <v>378626598</v>
       </c>
       <c r="E65">
-        <v>26266257</v>
+        <v>29044906</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>7.0578822800607136E-2</v>
+        <v>7.6711214038903838E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,20 +2066,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>385921141</v>
+        <v>383895627</v>
       </c>
       <c r="E66">
-        <v>26912676</v>
+        <v>29116786</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>6.97362055114778E-2</v>
+        <v>7.5845578725490401E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,20 +2087,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>374723238</v>
+        <v>323040992</v>
       </c>
       <c r="E67">
-        <v>25963820</v>
+        <v>23561306</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>6.9287990087233395E-2</v>
+        <v>7.2935963495307746E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,20 +2108,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>384017523</v>
+        <v>375288469</v>
       </c>
       <c r="E68">
-        <v>26573038</v>
+        <v>26897951</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>6.9197462116852418E-2</v>
+        <v>7.1672735034126508E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,14 +2135,14 @@
         <v>81</v>
       </c>
       <c r="D69">
-        <v>369462524</v>
+        <v>380398059</v>
       </c>
       <c r="E69">
-        <v>24663975</v>
+        <v>27241585</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>6.6756364713190769E-2</v>
+        <v>7.1613364883126279E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,20 +2150,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>311156968</v>
+        <v>387159038</v>
       </c>
       <c r="E70">
-        <v>20624029</v>
+        <v>27312685</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>6.6281752044839312E-2</v>
+        <v>7.0546422320638166E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,20 +2171,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>365553208</v>
+        <v>395910248</v>
       </c>
       <c r="E71">
-        <v>23306906</v>
+        <v>27068237</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>6.3757903062910612E-2</v>
+        <v>6.8369629573215795E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,20 +2192,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72">
-        <v>355428605</v>
+        <v>402958771</v>
       </c>
       <c r="E72">
-        <v>22608180</v>
+        <v>27496644</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>6.3608217464657918E-2</v>
+        <v>6.8236866843134181E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,20 +2213,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>382179428</v>
+        <v>393322210</v>
       </c>
       <c r="E73">
-        <v>24249187</v>
+        <v>25983168</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>6.3449744343643741E-2</v>
+        <v>6.606076987109373E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,20 +2234,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>314368294</v>
+        <v>409440674</v>
       </c>
       <c r="E74">
-        <v>19752624</v>
+        <v>26403107</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>6.2832748648628034E-2</v>
+        <v>6.4485794100661339E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,20 +2255,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>367821680</v>
+        <v>362437905</v>
       </c>
       <c r="E75">
-        <v>22985869</v>
+        <v>22967710</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>6.2491881935833687E-2</v>
+        <v>6.3370055071916384E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,14 +2282,14 @@
         <v>88</v>
       </c>
       <c r="D76">
-        <v>347159717</v>
+        <v>352367149</v>
       </c>
       <c r="E76">
-        <v>21585166</v>
+        <v>22124504</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>6.2176470779874496E-2</v>
+        <v>6.2788214119245261E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,20 +2297,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>327448790</v>
+        <v>341191913</v>
       </c>
       <c r="E77">
-        <v>18923984</v>
+        <v>21016495</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>5.7792194009939693E-2</v>
+        <v>6.1597283520609121E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,20 +2318,20 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>323948602</v>
+        <v>329524148</v>
       </c>
       <c r="E78">
-        <v>18121738</v>
+        <v>19752624</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>5.5940164236300674E-2</v>
+        <v>5.9942872532667925E-2</v>
       </c>
     </row>
   </sheetData>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98530E0-F075-4F81-8A98-B2B6E7B2FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E6E4A06-425B-4182-8249-AF5A308F823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E6E4A06-425B-4182-8249-AF5A308F823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52F6753C-0D6F-493B-9825-D14EE6B0ED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52F6753C-0D6F-493B-9825-D14EE6B0ED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79457390-E7EF-4D60-81D5-4967F44BDDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,6 +57,12 @@
     <t>Kurni_s2l</t>
   </si>
   <si>
+    <t>Winda Ayu Utami</t>
+  </si>
+  <si>
+    <t>Febrianto</t>
+  </si>
+  <si>
     <t>Muhammad Refaldy Rojak</t>
   </si>
   <si>
@@ -66,7 +72,19 @@
     <t>Indra Gunawan</t>
   </si>
   <si>
-    <t>Winda Ayu Utami</t>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>Irvan Zaky Zulkarnain</t>
+  </si>
+  <si>
+    <t>Amanda Agustin</t>
+  </si>
+  <si>
+    <t>Anzelma Tamalia</t>
   </si>
   <si>
     <t>Xinghao_s2l</t>
@@ -75,232 +93,214 @@
     <t>Feriyan Wijaya S</t>
   </si>
   <si>
-    <t>Anzelma Tamalia</t>
-  </si>
-  <si>
-    <t>Amanda Agustin</t>
-  </si>
-  <si>
-    <t>Febrianto</t>
-  </si>
-  <si>
-    <t>Hansyah_S2l</t>
+    <t>Selomita Maharani</t>
+  </si>
+  <si>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Saizah Rafida Sari</t>
+  </si>
+  <si>
+    <t>Pertiwi</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>Irvan Zaky Zulkarnain</t>
-  </si>
-  <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Saizah Rafida Sari</t>
-  </si>
-  <si>
-    <t>Selomita Maharani</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Pertiwi</t>
-  </si>
-  <si>
     <t>Dimas Eka Putra</t>
   </si>
   <si>
+    <t>Mkm_s2l</t>
+  </si>
+  <si>
+    <t>Willman zega</t>
+  </si>
+  <si>
     <t>Desi Eka</t>
   </si>
   <si>
-    <t>Mkm_s2l</t>
-  </si>
-  <si>
-    <t>Willman zega</t>
-  </si>
-  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
+    <t>Rahmat Hidayat</t>
+  </si>
+  <si>
     <t>Dimas</t>
   </si>
   <si>
+    <t>Elena Juwita Sari</t>
+  </si>
+  <si>
     <t>Fikri Adriansyah</t>
   </si>
   <si>
     <t>Desi Skarsari</t>
   </si>
   <si>
-    <t>Rahmat Hidayat</t>
+    <t>Adriansah</t>
+  </si>
+  <si>
+    <t>EDN_S2l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miranti </t>
+  </si>
+  <si>
+    <t>Fitriyani</t>
+  </si>
+  <si>
+    <t>Helmy Hidayat</t>
+  </si>
+  <si>
+    <t>Romli</t>
   </si>
   <si>
     <t>Ahmad Fauzi</t>
   </si>
   <si>
-    <t>EDN_S2l</t>
+    <t>Erika Fitriyanti</t>
+  </si>
+  <si>
+    <t>Rifal</t>
   </si>
   <si>
     <t>Dwi Rahayu Maulani Putri</t>
   </si>
   <si>
+    <t>Saeful Aziz</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
     <t>Dende Ayu Kencana Wungu</t>
   </si>
   <si>
-    <t>Helmy Hidayat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miranti </t>
-  </si>
-  <si>
-    <t>Adriansah</t>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Susanti</t>
   </si>
   <si>
     <t>Indisabellia</t>
   </si>
   <si>
-    <t>Elena Juwita Sari</t>
-  </si>
-  <si>
-    <t>Fitriyani</t>
-  </si>
-  <si>
-    <t>Erika Fitriyanti</t>
-  </si>
-  <si>
     <t>Mutiara</t>
   </si>
   <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
+    <t>Defister Zalukhu</t>
   </si>
   <si>
     <t>Rahma amelia</t>
   </si>
   <si>
+    <t>Komariah</t>
+  </si>
+  <si>
+    <t>Muhammad Fadhil Fakhruddin</t>
+  </si>
+  <si>
+    <t>Ebiet Jaka Ramadan</t>
+  </si>
+  <si>
     <t>Lenny Nuraida</t>
   </si>
   <si>
-    <t>Romli</t>
-  </si>
-  <si>
     <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
-    <t>Ebiet Jaka Ramadan</t>
-  </si>
-  <si>
-    <t>Defister Zalukhu</t>
-  </si>
-  <si>
     <t>Bagoes Tjahaya</t>
   </si>
   <si>
-    <t>Komariah</t>
-  </si>
-  <si>
-    <t>Rifal</t>
+    <t>Amirah Syahidah</t>
+  </si>
+  <si>
+    <t>Muhammad Ilham</t>
+  </si>
+  <si>
+    <t>Azizah Rahmawati</t>
   </si>
   <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>Amirah Syahidah</t>
-  </si>
-  <si>
-    <t>Susanti</t>
-  </si>
-  <si>
-    <t>Muhammad Fadhil Fakhruddin</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
+    <t>Sucika Wardani</t>
   </si>
   <si>
     <t>Yandi Nugraha</t>
   </si>
   <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
     <t>Tasya Wiranda Agustin</t>
   </si>
   <si>
+    <t>Imelda Astri Paidin</t>
+  </si>
+  <si>
     <t>Arisman Zega</t>
   </si>
   <si>
+    <t>Muhammad Rizki Daelami</t>
+  </si>
+  <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
-    <t>Imelda Astri Paidin</t>
-  </si>
-  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>Muhammad Rizki Daelami</t>
-  </si>
-  <si>
     <t>Nuraini</t>
   </si>
   <si>
-    <t>Saeful Aziz</t>
-  </si>
-  <si>
     <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
+    <t>Maya Margareta</t>
+  </si>
+  <si>
+    <t>Sema Salwanda Rivanka</t>
+  </si>
+  <si>
     <t>Nurhasanah</t>
   </si>
   <si>
-    <t>Maya Margareta</t>
-  </si>
-  <si>
-    <t>Sema Salwanda Rivanka</t>
-  </si>
-  <si>
     <t>Adistira Winditya P</t>
   </si>
   <si>
     <t>Aura Ramadhani</t>
   </si>
   <si>
-    <t>Muhammad Ilham</t>
+    <t>Afsyal Suwandi</t>
+  </si>
+  <si>
+    <t>Serius Zega</t>
+  </si>
+  <si>
+    <t>Mulhimah</t>
+  </si>
+  <si>
+    <t>Abdul Hamid</t>
   </si>
   <si>
     <t>Ilham Syaid</t>
   </si>
   <si>
-    <t>Abdul Hamid</t>
-  </si>
-  <si>
-    <t>Mulhimah</t>
-  </si>
-  <si>
     <t>Aura Devana Sopiyanti</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
-    <t>Afsyal Suwandi</t>
-  </si>
-  <si>
-    <t>Serius Zega</t>
+    <t>Ahmad Septian</t>
+  </si>
+  <si>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>Cici Fatma Ramadhani</t>
   </si>
   <si>
     <t>Faoziah Sabaniah</t>
-  </si>
-  <si>
-    <t>Ahmad Septian</t>
-  </si>
-  <si>
-    <t>Cici Fatma Ramadhani</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
   </si>
   <si>
     <t>Jamalluddin salim</t>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G7" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,14 +728,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>389904709</v>
+        <v>402161510</v>
       </c>
       <c r="E2">
-        <v>62677200</v>
+        <v>63364512</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.16075004623757955</v>
+        <v>0.15755986195695357</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -743,20 +743,20 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3">
-        <v>362756057</v>
+        <v>412247685</v>
       </c>
       <c r="E3">
-        <v>54248736</v>
+        <v>64620472</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.14954605154945766</v>
+        <v>0.15675157035751455</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -767,17 +767,17 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>375069462</v>
+        <v>417726481</v>
       </c>
       <c r="E4">
-        <v>54509555</v>
+        <v>63277200</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.14533189321608914</v>
+        <v>0.15147998242419303</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,20 +785,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5">
-        <v>422667790</v>
+        <v>389618058</v>
       </c>
       <c r="E5">
-        <v>60383020</v>
+        <v>56180363</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.14286165501279385</v>
+        <v>0.14419342698946463</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,20 +806,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>375595696</v>
+        <v>403541958</v>
       </c>
       <c r="E6">
-        <v>53478358</v>
+        <v>56632594</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.14238277639901389</v>
+        <v>0.14033879966454443</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,20 +827,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>304510144</v>
+        <v>395566852</v>
       </c>
       <c r="E7">
-        <v>42855201</v>
+        <v>54412066</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.14073488796484887</v>
+        <v>0.13755466547535686</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,14 +854,14 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>384454739</v>
+        <v>334677951</v>
       </c>
       <c r="E8">
-        <v>54081439</v>
+        <v>44830920</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.14067049645602106</v>
+        <v>0.13395241564628799</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,20 +869,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9">
-        <v>383910226</v>
+        <v>401453108</v>
       </c>
       <c r="E9">
-        <v>53995747</v>
+        <v>53741668</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.14064680579777003</v>
+        <v>0.13386785885837507</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,20 +890,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10">
-        <v>368557655</v>
+        <v>457878283</v>
       </c>
       <c r="E10">
-        <v>51226248</v>
+        <v>61129804</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.13899113830643403</v>
+        <v>0.13350666819024479</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,20 +911,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
       <c r="D11">
-        <v>373081074</v>
+        <v>412606800</v>
       </c>
       <c r="E11">
-        <v>51383475</v>
+        <v>54796376</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.13772736968158295</v>
+        <v>0.13280531489059316</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,20 +932,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>385505025</v>
+        <v>402296294</v>
       </c>
       <c r="E12">
-        <v>52092715</v>
+        <v>52920505</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.13512849800077184</v>
+        <v>0.13154609124984881</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,20 +953,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13">
-        <v>376779839</v>
+        <v>357713678</v>
       </c>
       <c r="E13">
-        <v>50503182</v>
+        <v>46260445</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.13403897123062361</v>
+        <v>0.12932254997529058</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,20 +974,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14">
-        <v>321875055</v>
+        <v>417825945</v>
       </c>
       <c r="E14">
-        <v>42354399</v>
+        <v>53995747</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.13158645984542044</v>
+        <v>0.12923023963961836</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,20 +995,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15">
-        <v>440129534</v>
+        <v>466997813</v>
       </c>
       <c r="E15">
-        <v>57568104</v>
+        <v>59008819</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.13079809363577041</v>
+        <v>0.12635780587691961</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,20 +1016,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>371098883</v>
+        <v>418264939</v>
       </c>
       <c r="E16">
-        <v>47831357</v>
+        <v>52459853</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.12889113708272734</v>
+        <v>0.12542254468046626</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,20 +1037,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17">
-        <v>394422209</v>
+        <v>394728636</v>
       </c>
       <c r="E17">
-        <v>50428676</v>
+        <v>49005796</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.12785455496498169</v>
+        <v>0.12415059747527413</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,20 +1058,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18">
-        <v>381599784</v>
+        <v>404503941</v>
       </c>
       <c r="E18">
-        <v>46989782</v>
+        <v>48060808</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.12313891142034818</v>
+        <v>0.1188141897485246</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,20 +1079,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
-        <v>368043832</v>
+        <v>395276294</v>
       </c>
       <c r="E19">
-        <v>44008890</v>
+        <v>46049742</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.11957513256192812</v>
+        <v>0.11650013597830382</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,20 +1100,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20">
-        <v>410452749</v>
+        <v>393447996</v>
       </c>
       <c r="E20">
-        <v>48338880</v>
+        <v>45342137</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11776965830481013</v>
+        <v>0.11524302439197072</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,20 +1121,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21">
-        <v>373541462</v>
+        <v>374428726</v>
       </c>
       <c r="E21">
-        <v>43725522</v>
+        <v>42991688</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.11705667629474556</v>
+        <v>0.11481941692689465</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,20 +1142,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22">
-        <v>369268891</v>
+        <v>437263100</v>
       </c>
       <c r="E22">
-        <v>42812049</v>
+        <v>49954816</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.11593732925636566</v>
+        <v>0.11424429822685701</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,20 +1163,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23">
-        <v>387089265</v>
+        <v>398548797</v>
       </c>
       <c r="E23">
-        <v>44041861</v>
+        <v>44983065</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.11377701471519754</v>
+        <v>0.11286714534983279</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,20 +1184,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
       <c r="D24">
-        <v>344736028</v>
+        <v>440382084</v>
       </c>
       <c r="E24">
-        <v>39228189</v>
+        <v>48845208</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.11379196200520127</v>
+        <v>0.11091552035073253</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,20 +1205,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>318810362</v>
+        <v>473763443</v>
       </c>
       <c r="E25">
-        <v>35797836</v>
+        <v>51920270</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.11228567282264182</v>
+        <v>0.10959112773925024</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,20 +1226,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>304973097</v>
+        <v>415216235</v>
       </c>
       <c r="E26">
-        <v>34112371</v>
+        <v>45038947</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.1118537055745609</v>
+        <v>0.10847106448041464</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,20 +1247,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>447243118</v>
+        <v>335755660</v>
       </c>
       <c r="E27">
-        <v>49954362</v>
+        <v>36402017</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.11169397580311119</v>
+        <v>0.10841817826689802</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,20 +1268,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>417844758</v>
+        <v>405827233</v>
       </c>
       <c r="E28">
-        <v>46158856</v>
+        <v>43873397</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.11046891247586263</v>
+        <v>0.10810855810654776</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,20 +1289,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>369594073</v>
+        <v>416550135</v>
       </c>
       <c r="E29">
-        <v>40355788</v>
+        <v>44814603</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.10918948908577331</v>
+        <v>0.10758513618054644</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,20 +1310,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>353384086</v>
+        <v>401346740</v>
       </c>
       <c r="E30">
-        <v>38598773</v>
+        <v>43178598</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.10922612117852981</v>
+        <v>0.10758427488410645</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,20 +1331,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>390666343</v>
+        <v>479047120</v>
       </c>
       <c r="E31">
-        <v>42612967</v>
+        <v>51361286</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.10907765095085245</v>
+        <v>0.10721551984280794</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,20 +1352,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>375033167</v>
+        <v>366202118</v>
       </c>
       <c r="E32">
-        <v>40734647</v>
+        <v>39228189</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.10861611874450561</v>
+        <v>0.10712168791989346</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,20 +1373,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>387096012</v>
+        <v>318219828</v>
       </c>
       <c r="E33">
-        <v>41653316</v>
+        <v>34063021</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.10760461154014679</v>
+        <v>0.10704242163062196</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,20 +1394,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>389618385</v>
+        <v>411245373</v>
       </c>
       <c r="E34">
-        <v>41294237</v>
+        <v>43403887</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.10598636663411046</v>
+        <v>0.10554255403136172</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,20 +1415,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>406214480</v>
+        <v>342101627</v>
       </c>
       <c r="E35">
-        <v>42964814</v>
+        <v>35797836</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.10576878992595241</v>
+        <v>0.1046409405121011</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,20 +1436,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>333564055</v>
+        <v>434677457</v>
       </c>
       <c r="E36">
-        <v>35073188</v>
+        <v>45216429</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.10514678507550822</v>
+        <v>0.10402294453471048</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,20 +1457,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>349471423</v>
+        <v>413233638</v>
       </c>
       <c r="E37">
-        <v>36095404</v>
+        <v>42496483</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.10328570985902902</v>
+        <v>0.10283887634529888</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,20 +1478,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>383088000</v>
+        <v>394040553</v>
       </c>
       <c r="E38">
-        <v>39526835</v>
+        <v>40355788</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.10317951749989558</v>
+        <v>0.10241531662859077</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,20 +1499,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>312879949</v>
+        <v>414528536</v>
       </c>
       <c r="E39">
-        <v>31747530</v>
+        <v>42453611</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.10146872658816497</v>
+        <v>0.10241420629242277</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,20 +1520,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>397144904</v>
+        <v>398178039</v>
       </c>
       <c r="E40">
-        <v>40187656</v>
+        <v>39654676</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0.10119141803214476</v>
+        <v>9.9590314170993247E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,20 +1541,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>370678855</v>
+        <v>355718166</v>
       </c>
       <c r="E41">
-        <v>37375501</v>
+        <v>35335629</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.10082987064368697</v>
+        <v>9.9336026038096686E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>376822724</v>
+        <v>348235081</v>
       </c>
       <c r="E42">
-        <v>37580265</v>
+        <v>34171311</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>9.9729296049566263E-2</v>
+        <v>9.8127135559900699E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,20 +1583,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>322513854</v>
+        <v>394940785</v>
       </c>
       <c r="E43">
-        <v>31994486</v>
+        <v>38448256</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>9.920344693161616E-2</v>
+        <v>9.7351951128572353E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,20 +1604,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>454497413</v>
+        <v>423585681</v>
       </c>
       <c r="E44">
-        <v>45036704</v>
+        <v>41195013</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>9.9091221889969258E-2</v>
+        <v>9.7253082074792802E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,20 +1625,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>369862031</v>
+        <v>373718767</v>
       </c>
       <c r="E45">
-        <v>36618633</v>
+        <v>36119926</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>9.9006196718797554E-2</v>
+        <v>9.6650019184078062E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,20 +1646,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>419227440</v>
+        <v>333861588</v>
       </c>
       <c r="E46">
-        <v>40991307</v>
+        <v>32103914</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>9.777820602582693E-2</v>
+        <v>9.6159352120496117E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,14 +1673,14 @@
         <v>59</v>
       </c>
       <c r="D47">
-        <v>374713398</v>
+        <v>403774477</v>
       </c>
       <c r="E47">
-        <v>35904881</v>
+        <v>38475109</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>9.5819581556568736E-2</v>
+        <v>9.5288610825195866E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,20 +1688,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>368042459</v>
+        <v>449034412</v>
       </c>
       <c r="E48">
-        <v>35043960</v>
+        <v>42179845</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>9.5217166234616429E-2</v>
+        <v>9.3934549051888694E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,20 +1709,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>427793140</v>
+        <v>408413548</v>
       </c>
       <c r="E49">
-        <v>40664109</v>
+        <v>38139047</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>9.5055542498881582E-2</v>
+        <v>9.3383403138232818E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,20 +1730,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>358267731</v>
+        <v>452330898</v>
       </c>
       <c r="E50">
-        <v>33738100</v>
+        <v>41469789</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>9.417007751669379E-2</v>
+        <v>9.1680203990840356E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,20 +1751,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>383189468</v>
+        <v>403648691</v>
       </c>
       <c r="E51">
-        <v>35940644</v>
+        <v>36941991</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>9.3793402484642407E-2</v>
+        <v>9.1520155580041257E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,20 +1772,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>357915217</v>
+        <v>413630004</v>
       </c>
       <c r="E52">
-        <v>32583726</v>
+        <v>37171494</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>9.103755429320011E-2</v>
+        <v>8.9866532022662454E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,20 +1793,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>369588367</v>
+        <v>387536941</v>
       </c>
       <c r="E53">
-        <v>33494130</v>
+        <v>34712828</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>9.0625498502229646E-2</v>
+        <v>8.9572952478870912E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,20 +1814,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>390335562</v>
+        <v>385004336</v>
       </c>
       <c r="E54">
-        <v>35205962</v>
+        <v>34115391</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>9.0194093050635235E-2</v>
+        <v>8.8610407234478522E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,14 +1841,14 @@
         <v>67</v>
       </c>
       <c r="D55">
-        <v>379947083</v>
+        <v>404946548</v>
       </c>
       <c r="E55">
-        <v>34124732</v>
+        <v>35713634</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>8.98144334483547E-2</v>
+        <v>8.8193452139268519E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>370220959</v>
+        <v>400627223</v>
       </c>
       <c r="E56">
-        <v>32837976</v>
+        <v>34814793</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>8.8698317050170034E-2</v>
+        <v>8.6900717178672607E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,20 +1877,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>304704352</v>
+        <v>330171529</v>
       </c>
       <c r="E57">
-        <v>26111560</v>
+        <v>28316176</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>8.5694739273038015E-2</v>
+        <v>8.5762016142827385E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,20 +1898,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>320145256</v>
+        <v>416713765</v>
       </c>
       <c r="E58">
-        <v>26408642</v>
+        <v>35720024</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>8.2489562175489486E-2</v>
+        <v>8.5718368338516482E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,20 +1919,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>292587788</v>
+        <v>396980935</v>
       </c>
       <c r="E59">
-        <v>24139374</v>
+        <v>33923378</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>8.2503012736813194E-2</v>
+        <v>8.5453418562783129E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,20 +1940,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>376834676</v>
+        <v>350680507</v>
       </c>
       <c r="E60">
-        <v>30969073</v>
+        <v>29826602</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>8.2182121159147248E-2</v>
+        <v>8.5053492864945582E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,20 +1961,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>369945539</v>
+        <v>405599379</v>
       </c>
       <c r="E61">
-        <v>29791381</v>
+        <v>34024953</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>8.0529099176406077E-2</v>
+        <v>8.388807962154203E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,20 +1982,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>323656920</v>
+        <v>345175285</v>
       </c>
       <c r="E62">
-        <v>25952687</v>
+        <v>27544531</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>8.0185793648410178E-2</v>
+        <v>7.9798676779538252E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,14 +2009,14 @@
         <v>75</v>
       </c>
       <c r="D63">
-        <v>383835855</v>
+        <v>413047624</v>
       </c>
       <c r="E63">
-        <v>29867594</v>
+        <v>32735444</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>7.7813454920723862E-2</v>
+        <v>7.9253437371183136E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,20 +2024,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>390760194</v>
+        <v>393726951</v>
       </c>
       <c r="E64">
-        <v>30316144</v>
+        <v>30516381</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>7.7582477605177974E-2</v>
+        <v>7.7506457006546139E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,20 +2045,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>378626598</v>
+        <v>418308269</v>
       </c>
       <c r="E65">
-        <v>29044906</v>
+        <v>31484147</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>7.6711214038903838E-2</v>
+        <v>7.5265418671415271E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,20 +2066,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>383895627</v>
+        <v>408156426</v>
       </c>
       <c r="E66">
-        <v>29116786</v>
+        <v>30298421</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>7.5845578725490401E-2</v>
+        <v>7.4232375309950402E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,20 +2087,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>323040992</v>
+        <v>423619325</v>
       </c>
       <c r="E67">
-        <v>23561306</v>
+        <v>30583332</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>7.2935963495307746E-2</v>
+        <v>7.2195318284877588E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,20 +2108,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>375288469</v>
+        <v>431444226</v>
       </c>
       <c r="E68">
-        <v>26897951</v>
+        <v>31149293</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>7.1672735034126508E-2</v>
+        <v>7.2197728287595631E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,14 +2135,14 @@
         <v>81</v>
       </c>
       <c r="D69">
-        <v>380398059</v>
+        <v>413270327</v>
       </c>
       <c r="E69">
-        <v>27241585</v>
+        <v>28667503</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>7.1613364883126279E-2</v>
+        <v>6.9367436099519425E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,20 +2150,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>387159038</v>
+        <v>398573625</v>
       </c>
       <c r="E70">
-        <v>27312685</v>
+        <v>27195072</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>7.0546422320638166E-2</v>
+        <v>6.8230987436762786E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,20 +2171,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>395910248</v>
+        <v>348383917</v>
       </c>
       <c r="E71">
-        <v>27068237</v>
+        <v>23673778</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>6.8369629573215795E-2</v>
+        <v>6.79531311429626E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,20 +2192,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72">
-        <v>402958771</v>
+        <v>412228859</v>
       </c>
       <c r="E72">
-        <v>27496644</v>
+        <v>27574505</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>6.8236866843134181E-2</v>
+        <v>6.6891253239502083E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,20 +2213,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>393322210</v>
+        <v>423188325</v>
       </c>
       <c r="E73">
-        <v>25983168</v>
+        <v>27779241</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>6.606076987109373E-2</v>
+        <v>6.5642739553365512E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,20 +2234,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>409440674</v>
+        <v>387088330</v>
       </c>
       <c r="E74">
-        <v>26403107</v>
+        <v>25098686</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>6.4485794100661339E-2</v>
+        <v>6.4839686590396559E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,20 +2255,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>362437905</v>
+        <v>362278337</v>
       </c>
       <c r="E75">
-        <v>22967710</v>
+        <v>22618913</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>6.3370055071916384E-2</v>
+        <v>6.2435179501224222E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,20 +2276,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>352367149</v>
+        <v>379976080</v>
       </c>
       <c r="E76">
-        <v>22124504</v>
+        <v>23572485</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>6.2788214119245261E-2</v>
+        <v>6.2036760313965024E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,20 +2297,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>341191913</v>
+        <v>432683991</v>
       </c>
       <c r="E77">
-        <v>21016495</v>
+        <v>26758846</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>6.1597283520609121E-2</v>
+        <v>6.1843854999479288E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,23 +2318,24 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>329524148</v>
+        <v>351758972</v>
       </c>
       <c r="E78">
-        <v>19752624</v>
+        <v>20407216</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>5.9942872532667925E-2</v>
+        <v>5.8014770409324484E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79457390-E7EF-4D60-81D5-4967F44BDDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B12654C-F77E-40D5-BCCE-F8A93B78983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G6:G7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,6 +2336,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B12654C-F77E-40D5-BCCE-F8A93B78983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3436606D-21BE-4FE5-A4E1-24B3D6ECFF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,42 +57,42 @@
     <t>Kurni_s2l</t>
   </si>
   <si>
+    <t>Febrianto</t>
+  </si>
+  <si>
     <t>Winda Ayu Utami</t>
   </si>
   <si>
-    <t>Febrianto</t>
-  </si>
-  <si>
     <t>Muhammad Refaldy Rojak</t>
   </si>
   <si>
     <t>Zakka_S2l</t>
   </si>
   <si>
+    <t>Irvan Zaky Zulkarnain</t>
+  </si>
+  <si>
     <t>Indra Gunawan</t>
   </si>
   <si>
+    <t>Xinghao_s2l</t>
+  </si>
+  <si>
+    <t>Feriyan Wijaya S</t>
+  </si>
+  <si>
+    <t>Anzelma Tamalia</t>
+  </si>
+  <si>
     <t>Hansyah_S2l</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>Irvan Zaky Zulkarnain</t>
-  </si>
-  <si>
     <t>Amanda Agustin</t>
   </si>
   <si>
-    <t>Anzelma Tamalia</t>
-  </si>
-  <si>
-    <t>Xinghao_s2l</t>
-  </si>
-  <si>
-    <t>Feriyan Wijaya S</t>
-  </si>
-  <si>
     <t>Selomita Maharani</t>
   </si>
   <si>
@@ -102,6 +102,12 @@
     <t>Saizah Rafida Sari</t>
   </si>
   <si>
+    <t>Mkm_s2l</t>
+  </si>
+  <si>
+    <t>Willman zega</t>
+  </si>
+  <si>
     <t>Pertiwi</t>
   </si>
   <si>
@@ -111,160 +117,172 @@
     <t>Dimas Eka Putra</t>
   </si>
   <si>
-    <t>Mkm_s2l</t>
-  </si>
-  <si>
-    <t>Willman zega</t>
-  </si>
-  <si>
     <t>Desi Eka</t>
   </si>
   <si>
+    <t>EDN_S2l</t>
+  </si>
+  <si>
+    <t>Dwi Rahayu Maulani Putri</t>
+  </si>
+  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
+    <t>Dimas</t>
+  </si>
+  <si>
+    <t>Fikri Adriansyah</t>
+  </si>
+  <si>
     <t>Rahmat Hidayat</t>
   </si>
   <si>
-    <t>Dimas</t>
-  </si>
-  <si>
     <t>Elena Juwita Sari</t>
   </si>
   <si>
-    <t>Fikri Adriansyah</t>
-  </si>
-  <si>
     <t>Desi Skarsari</t>
   </si>
   <si>
+    <t>Rifal</t>
+  </si>
+  <si>
     <t>Adriansah</t>
   </si>
   <si>
-    <t>EDN_S2l</t>
+    <t>Ebiet Jaka Ramadan</t>
+  </si>
+  <si>
+    <t>Helmy Hidayat</t>
+  </si>
+  <si>
+    <t>Romli</t>
+  </si>
+  <si>
+    <t>Erika Fitriyanti</t>
+  </si>
+  <si>
+    <t>Fitriyani</t>
   </si>
   <si>
     <t xml:space="preserve">Miranti </t>
   </si>
   <si>
-    <t>Fitriyani</t>
-  </si>
-  <si>
-    <t>Helmy Hidayat</t>
-  </si>
-  <si>
-    <t>Romli</t>
+    <t>Dende Ayu Kencana Wungu</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Mutiara</t>
   </si>
   <si>
     <t>Ahmad Fauzi</t>
   </si>
   <si>
-    <t>Erika Fitriyanti</t>
-  </si>
-  <si>
-    <t>Rifal</t>
-  </si>
-  <si>
-    <t>Dwi Rahayu Maulani Putri</t>
-  </si>
-  <si>
     <t>Saeful Aziz</t>
   </si>
   <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Dende Ayu Kencana Wungu</t>
-  </si>
-  <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
     <t>Susanti</t>
   </si>
   <si>
+    <t>Muhammad Fadhil Fakhruddin</t>
+  </si>
+  <si>
     <t>Indisabellia</t>
   </si>
   <si>
-    <t>Mutiara</t>
+    <t>Lenny Nuraida</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>Rahma amelia</t>
   </si>
   <si>
     <t>Defister Zalukhu</t>
   </si>
   <si>
-    <t>Rahma amelia</t>
+    <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
     <t>Komariah</t>
   </si>
   <si>
-    <t>Muhammad Fadhil Fakhruddin</t>
-  </si>
-  <si>
-    <t>Ebiet Jaka Ramadan</t>
-  </si>
-  <si>
-    <t>Lenny Nuraida</t>
-  </si>
-  <si>
-    <t>Wahyu Febrianto Nur Tantular</t>
+    <t>Muhammad Ilham</t>
+  </si>
+  <si>
+    <t>Tasya Wiranda Agustin</t>
   </si>
   <si>
     <t>Bagoes Tjahaya</t>
   </si>
   <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
     <t>Amirah Syahidah</t>
   </si>
   <si>
-    <t>Muhammad Ilham</t>
-  </si>
-  <si>
     <t>Azizah Rahmawati</t>
   </si>
   <si>
+    <t>Muhammad Rizki Daelami</t>
+  </si>
+  <si>
+    <t>Imelda Astri Paidin</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
-    <t>Tasya Wiranda Agustin</t>
-  </si>
-  <si>
-    <t>Imelda Astri Paidin</t>
+    <t>Ridhoi Berkat Zebua</t>
   </si>
   <si>
     <t>Arisman Zega</t>
   </si>
   <si>
-    <t>Muhammad Rizki Daelami</t>
-  </si>
-  <si>
     <t>Fadilah Damayanti</t>
   </si>
   <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
+    <t>Aldi Taufik</t>
+  </si>
+  <si>
+    <t>Sema Salwanda Rivanka</t>
   </si>
   <si>
     <t>Maya Margareta</t>
   </si>
   <si>
-    <t>Sema Salwanda Rivanka</t>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>Mulhimah</t>
+  </si>
+  <si>
+    <t>Serius Zega</t>
+  </si>
+  <si>
+    <t>Abdul Hamid</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
   </si>
   <si>
     <t>Nurhasanah</t>
   </si>
   <si>
-    <t>Adistira Winditya P</t>
+    <t>Aura Devana Sopiyanti</t>
   </si>
   <si>
     <t>Aura Ramadhani</t>
@@ -273,31 +291,13 @@
     <t>Afsyal Suwandi</t>
   </si>
   <si>
-    <t>Serius Zega</t>
-  </si>
-  <si>
-    <t>Mulhimah</t>
-  </si>
-  <si>
-    <t>Abdul Hamid</t>
+    <t>Cici Fatma Ramadhani</t>
   </si>
   <si>
     <t>Ilham Syaid</t>
   </si>
   <si>
-    <t>Aura Devana Sopiyanti</t>
-  </si>
-  <si>
-    <t>Aldi Taufik</t>
-  </si>
-  <si>
     <t>Ahmad Septian</t>
-  </si>
-  <si>
-    <t>Erlangga Hutama</t>
-  </si>
-  <si>
-    <t>Cici Fatma Ramadhani</t>
   </si>
   <si>
     <t>Faoziah Sabaniah</t>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,14 +728,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>402161510</v>
+        <v>415178141</v>
       </c>
       <c r="E2">
-        <v>63364512</v>
+        <v>67065632</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.15755986195695357</v>
+        <v>0.16153459293031519</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,14 +749,14 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>412247685</v>
+        <v>412367485</v>
       </c>
       <c r="E3">
-        <v>64620472</v>
+        <v>65535592</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.15675157035751455</v>
+        <v>0.15892521690937877</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,14 +770,14 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>417726481</v>
+        <v>418701209</v>
       </c>
       <c r="E4">
-        <v>63277200</v>
+        <v>64251928</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.15147998242419303</v>
+        <v>0.15345531997257739</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,14 +791,14 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>389618058</v>
+        <v>404778795</v>
       </c>
       <c r="E5">
-        <v>56180363</v>
+        <v>58208995</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.14419342698946463</v>
+        <v>0.14380445744446668</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,20 +806,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6">
-        <v>403541958</v>
+        <v>400504193</v>
       </c>
       <c r="E6">
-        <v>56632594</v>
+        <v>57261023</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.14033879966454443</v>
+        <v>0.14297234336320669</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,20 +827,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>395566852</v>
+        <v>467696693</v>
       </c>
       <c r="E7">
-        <v>54412066</v>
+        <v>65373386</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.13755466547535686</v>
+        <v>0.13977731076238334</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,14 +854,14 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>334677951</v>
+        <v>402912409</v>
       </c>
       <c r="E8">
-        <v>44830920</v>
+        <v>56242387</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.13395241564628799</v>
+        <v>0.13958961239141185</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,20 +869,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>401453108</v>
+        <v>419621226</v>
       </c>
       <c r="E9">
-        <v>53741668</v>
+        <v>57384087</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.13386785885837507</v>
+        <v>0.13675210748276112</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,20 +890,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10">
-        <v>457878283</v>
+        <v>345623428</v>
       </c>
       <c r="E10">
-        <v>61129804</v>
+        <v>46632817</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.13350666819024479</v>
+        <v>0.13492377316505291</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,14 +917,14 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>412606800</v>
+        <v>422068119</v>
       </c>
       <c r="E11">
         <v>54796376</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.13280531489059316</v>
+        <v>0.12982827542110567</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,14 +938,14 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>402296294</v>
+        <v>415633756</v>
       </c>
       <c r="E12">
-        <v>52920505</v>
+        <v>53924947</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.13154609124984881</v>
+        <v>0.12974150011049632</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,20 +953,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>357713678</v>
+        <v>430419770</v>
       </c>
       <c r="E13">
-        <v>46260445</v>
+        <v>55229046</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.12932254997529058</v>
+        <v>0.12831438016892208</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,20 +974,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>417825945</v>
+        <v>365901345</v>
       </c>
       <c r="E14">
-        <v>53995747</v>
+        <v>46789999</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.12923023963961836</v>
+        <v>0.12787599619236165</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,20 +995,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>466997813</v>
+        <v>431004003</v>
       </c>
       <c r="E15">
-        <v>59008819</v>
+        <v>54448258</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.12635780587691961</v>
+        <v>0.12632889165996911</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,20 +1016,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>418264939</v>
+        <v>481097019</v>
       </c>
       <c r="E16">
-        <v>52459853</v>
+        <v>60237546</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.12542254468046626</v>
+        <v>0.12520872842905725</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,14 +1043,14 @@
         <v>28</v>
       </c>
       <c r="D17">
-        <v>394728636</v>
+        <v>407062462</v>
       </c>
       <c r="E17">
-        <v>49005796</v>
+        <v>49863032</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.12415059747527413</v>
+        <v>0.12249479294899955</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,20 +1058,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>404503941</v>
+        <v>376354544</v>
       </c>
       <c r="E18">
-        <v>48060808</v>
+        <v>44812243</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.1188141897485246</v>
+        <v>0.11906922266361689</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,20 +1079,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>395276294</v>
+        <v>418207490</v>
       </c>
       <c r="E19">
-        <v>46049742</v>
+        <v>49287599</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.11650013597830382</v>
+        <v>0.11785441480256606</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1103,17 +1103,17 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>393447996</v>
+        <v>403604007</v>
       </c>
       <c r="E20">
-        <v>45342137</v>
+        <v>47010799</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11524302439197072</v>
+        <v>0.11647753289030156</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,20 +1121,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>374428726</v>
+        <v>445905078</v>
       </c>
       <c r="E21">
-        <v>42991688</v>
+        <v>51449923</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.11481941692689465</v>
+        <v>0.1153831286935916</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,20 +1142,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>437263100</v>
+        <v>408220592</v>
       </c>
       <c r="E22">
-        <v>49954816</v>
+        <v>46879141</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.11424429822685701</v>
+        <v>0.11483776643976842</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,20 +1163,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>398548797</v>
+        <v>384780149</v>
       </c>
       <c r="E23">
-        <v>44983065</v>
+        <v>43792331</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.11286714534983279</v>
+        <v>0.11381130527084442</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,20 +1184,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>440382084</v>
+        <v>407345645</v>
       </c>
       <c r="E24">
-        <v>48845208</v>
+        <v>45819091</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.11091552035073253</v>
+        <v>0.11248209367747138</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,20 +1205,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>473763443</v>
+        <v>488133160</v>
       </c>
       <c r="E25">
-        <v>51920270</v>
+        <v>54797921</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.10959112773925024</v>
+        <v>0.11226018941224972</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,20 +1226,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>415216235</v>
+        <v>456776347</v>
       </c>
       <c r="E26">
-        <v>45038947</v>
+        <v>51138390</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.10847106448041464</v>
+        <v>0.11195498702125221</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,20 +1247,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>335755660</v>
+        <v>425409147</v>
       </c>
       <c r="E27">
-        <v>36402017</v>
+        <v>47274986</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.10841817826689802</v>
+        <v>0.11112827811386952</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,20 +1268,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>405827233</v>
+        <v>353254163</v>
       </c>
       <c r="E28">
-        <v>43873397</v>
+        <v>38429681</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.10810855810654776</v>
+        <v>0.10878762382766315</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,20 +1289,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>416550135</v>
+        <v>416855079</v>
       </c>
       <c r="E29">
-        <v>44814603</v>
+        <v>44885154</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.10758513618054644</v>
+        <v>0.10767567977743171</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1316,14 +1316,14 @@
         <v>42</v>
       </c>
       <c r="D30">
-        <v>401346740</v>
+        <v>417792499</v>
       </c>
       <c r="E30">
-        <v>43178598</v>
+        <v>44898022</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.10758427488410645</v>
+        <v>0.10746488294420049</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,20 +1331,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>479047120</v>
+        <v>426790430</v>
       </c>
       <c r="E31">
-        <v>51361286</v>
+        <v>45863827</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.10721551984280794</v>
+        <v>0.10746217294516187</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,20 +1352,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>366202118</v>
+        <v>484248972</v>
       </c>
       <c r="E32">
-        <v>39228189</v>
+        <v>51986422</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.10712168791989346</v>
+        <v>0.10735473899983829</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,20 +1373,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>318219828</v>
+        <v>354113076</v>
       </c>
       <c r="E33">
-        <v>34063021</v>
+        <v>37761469</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.10704242163062196</v>
+        <v>0.10663675407456571</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,20 +1394,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>411245373</v>
+        <v>422804876</v>
       </c>
       <c r="E34">
-        <v>43403887</v>
+        <v>44878013</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.10554255403136172</v>
+        <v>0.10614355592247238</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,20 +1415,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>342101627</v>
+        <v>445762687</v>
       </c>
       <c r="E35">
-        <v>35797836</v>
+        <v>47231148</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.1046409405121011</v>
+        <v>0.10595581321053908</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,20 +1436,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>434677457</v>
+        <v>425511445</v>
       </c>
       <c r="E36">
-        <v>45216429</v>
+        <v>44433827</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.10402294453471048</v>
+        <v>0.10442451671305809</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,20 +1457,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>413233638</v>
+        <v>429689818</v>
       </c>
       <c r="E37">
-        <v>42496483</v>
+        <v>44814603</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.10283887634529888</v>
+        <v>0.10429524071245272</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,20 +1478,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>394040553</v>
+        <v>335910782</v>
       </c>
       <c r="E38">
-        <v>40355788</v>
+        <v>34997365</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.10241531662859077</v>
+        <v>0.10418648901838465</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,20 +1499,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>414528536</v>
+        <v>424831554</v>
       </c>
       <c r="E39">
-        <v>42453611</v>
+        <v>43174000</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.10241420629242277</v>
+        <v>0.10162616122436141</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,20 +1520,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>398178039</v>
+        <v>405872483</v>
       </c>
       <c r="E40">
-        <v>39654676</v>
+        <v>40671748</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>9.9590314170993247E-2</v>
+        <v>0.10020819272934056</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,20 +1541,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>355718166</v>
+        <v>423027357</v>
       </c>
       <c r="E41">
-        <v>35335629</v>
+        <v>41654315</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>9.9336026038096686E-2</v>
+        <v>9.846718967634048E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>348235081</v>
+        <v>384006614</v>
       </c>
       <c r="E42">
-        <v>34171311</v>
+        <v>37627452</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>9.8127135559900699E-2</v>
+        <v>9.7986468535148724E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,20 +1583,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>394940785</v>
+        <v>398922975</v>
       </c>
       <c r="E43">
-        <v>38448256</v>
+        <v>38822552</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>9.7351951128572353E-2</v>
+        <v>9.7318415917258219E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,20 +1604,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>423585681</v>
+        <v>367068866</v>
       </c>
       <c r="E44">
-        <v>41195013</v>
+        <v>35335629</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>9.7253082074792802E-2</v>
+        <v>9.6264304257283426E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,14 +1631,14 @@
         <v>57</v>
       </c>
       <c r="D45">
-        <v>373718767</v>
+        <v>412845141</v>
       </c>
       <c r="E45">
-        <v>36119926</v>
+        <v>39654676</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>9.6650019184078062E-2</v>
+        <v>9.6052180495446352E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,14 +1652,14 @@
         <v>58</v>
       </c>
       <c r="D46">
-        <v>333861588</v>
+        <v>342058406</v>
       </c>
       <c r="E46">
-        <v>32103914</v>
+        <v>32743500</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>9.6159352120496117E-2</v>
+        <v>9.5724880387824757E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,20 +1667,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>403774477</v>
+        <v>359143211</v>
       </c>
       <c r="E47">
-        <v>38475109</v>
+        <v>34171311</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>9.5288610825195866E-2</v>
+        <v>9.5146754702262776E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,20 +1688,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>449034412</v>
+        <v>421247689</v>
       </c>
       <c r="E48">
-        <v>42179845</v>
+        <v>40037718</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>9.3934549051888694E-2</v>
+        <v>9.5045549318135247E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,14 +1715,14 @@
         <v>61</v>
       </c>
       <c r="D49">
-        <v>408413548</v>
+        <v>394529970</v>
       </c>
       <c r="E49">
-        <v>38139047</v>
+        <v>36986127</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>9.3383403138232818E-2</v>
+        <v>9.3747319120015146E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,20 +1730,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>452330898</v>
+        <v>415166667</v>
       </c>
       <c r="E50">
-        <v>41469789</v>
+        <v>38736174</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>9.1680203990840356E-2</v>
+        <v>9.3302707271535362E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,20 +1751,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>403648691</v>
+        <v>425383372</v>
       </c>
       <c r="E51">
-        <v>36941991</v>
+        <v>39064444</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>9.1520155580041257E-2</v>
+        <v>9.1833500252567465E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,20 +1772,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>413630004</v>
+        <v>463706600</v>
       </c>
       <c r="E52">
-        <v>37171494</v>
+        <v>42395362</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>8.9866532022662454E-2</v>
+        <v>9.1427126549417245E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,20 +1793,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>387536941</v>
+        <v>466146280</v>
       </c>
       <c r="E53">
-        <v>34712828</v>
+        <v>42491526</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>8.9572952478870912E-2</v>
+        <v>9.115491815144379E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,20 +1814,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>385004336</v>
+        <v>339741292</v>
       </c>
       <c r="E54">
-        <v>34115391</v>
+        <v>30953488</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>8.8610407234478522E-2</v>
+        <v>9.1108995959195915E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,14 +1841,14 @@
         <v>67</v>
       </c>
       <c r="D55">
-        <v>404946548</v>
+        <v>432942230</v>
       </c>
       <c r="E55">
-        <v>35713634</v>
+        <v>39023281</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>8.8193452139268519E-2</v>
+        <v>9.0135076451193036E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>400627223</v>
+        <v>361771764</v>
       </c>
       <c r="E56">
-        <v>34814793</v>
+        <v>31985472</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>8.6900717178672607E-2</v>
+        <v>8.8413400886642998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,20 +1877,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>330171529</v>
+        <v>418768511</v>
       </c>
       <c r="E57">
-        <v>28316176</v>
+        <v>36941991</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>8.5762016142827385E-2</v>
+        <v>8.8215780388511592E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,20 +1898,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>416713765</v>
+        <v>418564715</v>
       </c>
       <c r="E58">
-        <v>35720024</v>
+        <v>36479744</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>8.5718368338516482E-2</v>
+        <v>8.7154369904305001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,20 +1919,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>396980935</v>
+        <v>413773408</v>
       </c>
       <c r="E59">
-        <v>33923378</v>
+        <v>35789782</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>8.5453418562783129E-2</v>
+        <v>8.6496090149901561E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,20 +1940,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>350680507</v>
+        <v>429733887</v>
       </c>
       <c r="E60">
-        <v>29826602</v>
+        <v>36170024</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>8.5053492864945582E-2</v>
+        <v>8.4168423980955448E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,20 +1961,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>405599379</v>
+        <v>413637367</v>
       </c>
       <c r="E61">
-        <v>34024953</v>
+        <v>34698691</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>8.388807962154203E-2</v>
+        <v>8.3886741789457334E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,20 +1982,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>345175285</v>
+        <v>440563789</v>
       </c>
       <c r="E62">
-        <v>27544531</v>
+        <v>36670562</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>7.9798676779538252E-2</v>
+        <v>8.32355334586974E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,14 +2009,14 @@
         <v>75</v>
       </c>
       <c r="D63">
-        <v>413047624</v>
+        <v>423120796</v>
       </c>
       <c r="E63">
-        <v>32735444</v>
+        <v>34802379</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>7.9253437371183136E-2</v>
+        <v>8.2251639080391598E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,20 +2024,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>393726951</v>
+        <v>354553170</v>
       </c>
       <c r="E64">
-        <v>30516381</v>
+        <v>28935130</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>7.7506457006546139E-2</v>
+        <v>8.1610129166240428E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,20 +2045,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>418308269</v>
+        <v>375977817</v>
       </c>
       <c r="E65">
-        <v>31484147</v>
+        <v>29843364</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>7.5265418671415271E-2</v>
+        <v>7.9375331869645918E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,20 +2066,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>408156426</v>
+        <v>424965956</v>
       </c>
       <c r="E66">
-        <v>30298421</v>
+        <v>33223580</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>7.4232375309950402E-2</v>
+        <v>7.817939185697971E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,20 +2087,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>423619325</v>
+        <v>443703563</v>
       </c>
       <c r="E67">
-        <v>30583332</v>
+        <v>34659278</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>7.2195318284877588E-2</v>
+        <v>7.8113589545369511E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,20 +2108,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>431444226</v>
+        <v>410042769</v>
       </c>
       <c r="E68">
-        <v>31149293</v>
+        <v>31823133</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>7.2197728287595631E-2</v>
+        <v>7.7609301775054595E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,20 +2129,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>413270327</v>
+        <v>429764570</v>
       </c>
       <c r="E69">
-        <v>28667503</v>
+        <v>32710838</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>6.9367436099519425E-2</v>
+        <v>7.6113389244720664E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,20 +2150,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>398573625</v>
+        <v>407748223</v>
       </c>
       <c r="E70">
-        <v>27195072</v>
+        <v>30813222</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>6.8230987436762786E-2</v>
+        <v>7.5569236754221239E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,20 +2171,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>348383917</v>
+        <v>425512067</v>
       </c>
       <c r="E71">
-        <v>23673778</v>
+        <v>32051779</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>6.79531311429626E-2</v>
+        <v>7.5325194009127835E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,14 +2198,14 @@
         <v>84</v>
       </c>
       <c r="D72">
-        <v>412228859</v>
+        <v>419594731</v>
       </c>
       <c r="E72">
-        <v>27574505</v>
+        <v>30903214</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>6.6891253239502083E-2</v>
+        <v>7.3650147909030822E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,20 +2213,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>423188325</v>
+        <v>433847940</v>
       </c>
       <c r="E73">
-        <v>27779241</v>
+        <v>31195152</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>6.5642739553365512E-2</v>
+        <v>7.1903423121013318E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2240,14 +2240,14 @@
         <v>86</v>
       </c>
       <c r="D74">
-        <v>387088330</v>
+        <v>389399789</v>
       </c>
       <c r="E74">
-        <v>25098686</v>
+        <v>27223919</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>6.4839686590396559E-2</v>
+        <v>6.9912516054290927E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,20 +2255,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>362278337</v>
+        <v>359400935</v>
       </c>
       <c r="E75">
-        <v>22618913</v>
+        <v>23926212</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>6.2435179501224222E-2</v>
+        <v>6.6572481231858785E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,14 +2282,14 @@
         <v>88</v>
       </c>
       <c r="D76">
-        <v>379976080</v>
+        <v>400744309</v>
       </c>
       <c r="E76">
-        <v>23572485</v>
+        <v>25098686</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>6.2036760313965024E-2</v>
+        <v>6.2630174493632049E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2303,14 +2303,14 @@
         <v>89</v>
       </c>
       <c r="D77">
-        <v>432683991</v>
+        <v>444696045</v>
       </c>
       <c r="E77">
         <v>26758846</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>6.1843854999479288E-2</v>
+        <v>6.0173339297407064E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,20 +2318,20 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>351758972</v>
+        <v>365193216</v>
       </c>
       <c r="E78">
-        <v>20407216</v>
+        <v>21970585</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>5.8014770409324484E-2</v>
+        <v>6.0161536516603858E-2</v>
       </c>
     </row>
   </sheetData>

--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3436606D-21BE-4FE5-A4E1-24B3D6ECFF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC59A5D-B854-419B-AE4E-EFBF3E52BBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,10 +57,22 @@
     <t>Kurni_s2l</t>
   </si>
   <si>
+    <t>Winda Ayu Utami</t>
+  </si>
+  <si>
     <t>Febrianto</t>
   </si>
   <si>
-    <t>Winda Ayu Utami</t>
+    <t>Hansyah_S2l</t>
+  </si>
+  <si>
+    <t>Nur Halim</t>
+  </si>
+  <si>
+    <t>Mkm_s2l</t>
+  </si>
+  <si>
+    <t>Willman zega</t>
   </si>
   <si>
     <t>Muhammad Refaldy Rojak</t>
@@ -72,27 +84,21 @@
     <t>Irvan Zaky Zulkarnain</t>
   </si>
   <si>
+    <t>Xinghao_s2l</t>
+  </si>
+  <si>
+    <t>Feriyan Wijaya S</t>
+  </si>
+  <si>
     <t>Indra Gunawan</t>
   </si>
   <si>
-    <t>Xinghao_s2l</t>
-  </si>
-  <si>
-    <t>Feriyan Wijaya S</t>
+    <t>Amanda Agustin</t>
   </si>
   <si>
     <t>Anzelma Tamalia</t>
   </si>
   <si>
-    <t>Hansyah_S2l</t>
-  </si>
-  <si>
-    <t>Nur Halim</t>
-  </si>
-  <si>
-    <t>Amanda Agustin</t>
-  </si>
-  <si>
     <t>Selomita Maharani</t>
   </si>
   <si>
@@ -102,22 +108,22 @@
     <t>Saizah Rafida Sari</t>
   </si>
   <si>
-    <t>Mkm_s2l</t>
-  </si>
-  <si>
-    <t>Willman zega</t>
+    <t>Dimas Eka Putra</t>
   </si>
   <si>
     <t>Pertiwi</t>
   </si>
   <si>
+    <t>Desi Eka</t>
+  </si>
+  <si>
+    <t>Fikri Adriansyah</t>
+  </si>
+  <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
-    <t>Dimas Eka Putra</t>
-  </si>
-  <si>
-    <t>Desi Eka</t>
+    <t>Rifal</t>
   </si>
   <si>
     <t>EDN_S2l</t>
@@ -126,70 +132,79 @@
     <t>Dwi Rahayu Maulani Putri</t>
   </si>
   <si>
+    <t>Adriansah</t>
+  </si>
+  <si>
     <t>Annisa Putri Restu</t>
   </si>
   <si>
+    <t>Desi Skarsari</t>
+  </si>
+  <si>
+    <t>Rahmat Hidayat</t>
+  </si>
+  <si>
     <t>Dimas</t>
   </si>
   <si>
-    <t>Fikri Adriansyah</t>
-  </si>
-  <si>
-    <t>Rahmat Hidayat</t>
+    <t>Amirah Syahidah</t>
+  </si>
+  <si>
+    <t>Ebiet Jaka Ramadan</t>
   </si>
   <si>
     <t>Elena Juwita Sari</t>
   </si>
   <si>
-    <t>Desi Skarsari</t>
-  </si>
-  <si>
-    <t>Rifal</t>
-  </si>
-  <si>
-    <t>Adriansah</t>
-  </si>
-  <si>
-    <t>Ebiet Jaka Ramadan</t>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Komariah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miranti </t>
   </si>
   <si>
     <t>Helmy Hidayat</t>
   </si>
   <si>
+    <t>Fitriyani</t>
+  </si>
+  <si>
+    <t>Susanti</t>
+  </si>
+  <si>
+    <t>Erika Fitriyanti</t>
+  </si>
+  <si>
+    <t>Saeful Aziz</t>
+  </si>
+  <si>
+    <t>Dende Ayu Kencana Wungu</t>
+  </si>
+  <si>
     <t>Romli</t>
   </si>
   <si>
-    <t>Erika Fitriyanti</t>
-  </si>
-  <si>
-    <t>Fitriyani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miranti </t>
-  </si>
-  <si>
-    <t>Dende Ayu Kencana Wungu</t>
+    <t>Mutiara</t>
   </si>
   <si>
     <t>Debora Retima Sihombing</t>
   </si>
   <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>Mutiara</t>
+    <t>Muhammad Fadhil Fakhruddin</t>
   </si>
   <si>
     <t>Ahmad Fauzi</t>
   </si>
   <si>
-    <t>Saeful Aziz</t>
-  </si>
-  <si>
-    <t>Susanti</t>
-  </si>
-  <si>
-    <t>Muhammad Fadhil Fakhruddin</t>
+    <t>Muhammad Ilham</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
     <t>Indisabellia</t>
@@ -198,112 +213,97 @@
     <t>Lenny Nuraida</t>
   </si>
   <si>
-    <t>Yandi Nugraha</t>
+    <t>Tasya Wiranda Agustin</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>Bagoes Tjahaya</t>
+  </si>
+  <si>
+    <t>Defister Zalukhu</t>
   </si>
   <si>
     <t>Rahma amelia</t>
   </si>
   <si>
-    <t>Defister Zalukhu</t>
+    <t>Azizah Rahmawati</t>
   </si>
   <si>
     <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
-    <t>Komariah</t>
-  </si>
-  <si>
-    <t>Muhammad Ilham</t>
-  </si>
-  <si>
-    <t>Tasya Wiranda Agustin</t>
-  </si>
-  <si>
-    <t>Bagoes Tjahaya</t>
+    <t>Imelda Astri Paidin</t>
+  </si>
+  <si>
+    <t>Muhammad Rizki Daelami</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
   </si>
   <si>
     <t>Sucika Wardani</t>
   </si>
   <si>
-    <t>Amirah Syahidah</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
-  </si>
-  <si>
-    <t>Muhammad Rizki Daelami</t>
-  </si>
-  <si>
-    <t>Imelda Astri Paidin</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>Wasti Feronika Sihombing</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
+    <t>Maya Margareta</t>
   </si>
   <si>
     <t>Arisman Zega</t>
   </si>
   <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
     <t>Axl Wicaksono</t>
   </si>
   <si>
+    <t>Aura Devana Sopiyanti</t>
+  </si>
+  <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
     <t>Sema Salwanda Rivanka</t>
   </si>
   <si>
-    <t>Maya Margareta</t>
-  </si>
-  <si>
     <t>Erlangga Hutama</t>
   </si>
   <si>
+    <t>Aura Ramadhani</t>
+  </si>
+  <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
+    <t>Serius Zega</t>
+  </si>
+  <si>
+    <t>Abdul Hamid</t>
+  </si>
+  <si>
     <t>Mulhimah</t>
   </si>
   <si>
-    <t>Serius Zega</t>
-  </si>
-  <si>
-    <t>Abdul Hamid</t>
-  </si>
-  <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
     <t>Nurhasanah</t>
   </si>
   <si>
-    <t>Aura Devana Sopiyanti</t>
-  </si>
-  <si>
-    <t>Aura Ramadhani</t>
+    <t>Cici Fatma Ramadhani</t>
   </si>
   <si>
     <t>Afsyal Suwandi</t>
   </si>
   <si>
-    <t>Cici Fatma Ramadhani</t>
-  </si>
-  <si>
     <t>Ilham Syaid</t>
   </si>
   <si>
     <t>Ahmad Septian</t>
   </si>
   <si>
+    <t>Jamalluddin salim</t>
+  </si>
+  <si>
     <t>Faoziah Sabaniah</t>
-  </si>
-  <si>
-    <t>Jamalluddin salim</t>
   </si>
 </sst>
 </file>
@@ -728,14 +728,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>415178141</v>
+        <v>430113740</v>
       </c>
       <c r="E2">
-        <v>67065632</v>
+        <v>70272210</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.16153459293031519</v>
+        <v>0.1633805281365808</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,14 +749,14 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>412367485</v>
+        <v>425899564</v>
       </c>
       <c r="E3">
-        <v>65535592</v>
+        <v>69271007</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.15892521690937877</v>
+        <v>0.16264634400987554</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,20 +764,20 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>418701209</v>
+        <v>437569036</v>
       </c>
       <c r="E4">
-        <v>64251928</v>
+        <v>66599665</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.15345531997257739</v>
+        <v>0.1522037884783054</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,20 +785,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>404778795</v>
+        <v>442317836</v>
       </c>
       <c r="E5">
-        <v>58208995</v>
+        <v>67210705</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.14380445744446668</v>
+        <v>0.15195115260963613</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,20 +806,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>400504193</v>
+        <v>428828042</v>
       </c>
       <c r="E6">
-        <v>57261023</v>
+        <v>64597324</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.14297234336320669</v>
+        <v>0.15063689328413835</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,20 +827,20 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>467696693</v>
+        <v>418884602</v>
       </c>
       <c r="E7">
-        <v>65373386</v>
+        <v>60843473</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.13977731076238334</v>
+        <v>0.14525115678518066</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,20 +848,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>402912409</v>
+        <v>479870074</v>
       </c>
       <c r="E8">
-        <v>56242387</v>
+        <v>66984149</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.13958961239141185</v>
+        <v>0.13958809400562869</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,20 +869,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>419621226</v>
+        <v>411200114</v>
       </c>
       <c r="E9">
-        <v>57384087</v>
+        <v>57261023</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.13675210748276112</v>
+        <v>0.13925342199686258</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -893,17 +893,17 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>345623428</v>
+        <v>356226470</v>
       </c>
       <c r="E10">
-        <v>46632817</v>
+        <v>49227651</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.13492377316505291</v>
+        <v>0.13819200746087174</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,17 +914,17 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>422068119</v>
+        <v>423438481</v>
       </c>
       <c r="E11">
-        <v>54796376</v>
+        <v>57671785</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.12982827542110567</v>
+        <v>0.13619873390770076</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,20 +932,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>415633756</v>
+        <v>433872611</v>
       </c>
       <c r="E12">
-        <v>53924947</v>
+        <v>59061322</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.12974150011049632</v>
+        <v>0.13612595149501153</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,14 +959,14 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>430419770</v>
+        <v>427072749</v>
       </c>
       <c r="E13">
-        <v>55229046</v>
+        <v>57246140</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.12831438016892208</v>
+        <v>0.13404306440540414</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,20 +974,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
-        <v>365901345</v>
+        <v>492264895</v>
       </c>
       <c r="E14">
-        <v>46789999</v>
+        <v>62761577</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.12787599619236165</v>
+        <v>0.12749553672723302</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,14 +1001,14 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>431004003</v>
+        <v>381214582</v>
       </c>
       <c r="E15">
-        <v>54448258</v>
+        <v>47286884</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.12632889165996911</v>
+        <v>0.12404269467320639</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,20 +1016,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>481097019</v>
+        <v>418494897</v>
       </c>
       <c r="E16">
-        <v>60237546</v>
+        <v>51797786</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.12520872842905725</v>
+        <v>0.12377160718401782</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,20 +1037,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17">
-        <v>407062462</v>
+        <v>458394198</v>
       </c>
       <c r="E17">
-        <v>49863032</v>
+        <v>56290581</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.12249479294899955</v>
+        <v>0.12279950585238428</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,20 +1058,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
       <c r="D18">
-        <v>376354544</v>
+        <v>449119003</v>
       </c>
       <c r="E18">
-        <v>44812243</v>
+        <v>54560078</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.11906922266361689</v>
+        <v>0.12148245261401242</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,17 +1082,17 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>418207490</v>
+        <v>506852332</v>
       </c>
       <c r="E19">
-        <v>49287599</v>
+        <v>61165413</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.11785441480256606</v>
+        <v>0.12067698842115616</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,20 +1100,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20">
-        <v>403604007</v>
+        <v>390223075</v>
       </c>
       <c r="E20">
-        <v>47010799</v>
+        <v>46583269</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11647753289030156</v>
+        <v>0.11937599794681542</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,20 +1121,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
-        <v>445905078</v>
+        <v>472103272</v>
       </c>
       <c r="E21">
-        <v>51449923</v>
+        <v>55300936</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.1153831286935916</v>
+        <v>0.11713737074035785</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,20 +1142,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22">
-        <v>408220592</v>
+        <v>428895959</v>
       </c>
       <c r="E22">
-        <v>46879141</v>
+        <v>49581981</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.11483776643976842</v>
+        <v>0.11560374948648094</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,20 +1163,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>384780149</v>
+        <v>419700393</v>
       </c>
       <c r="E23">
-        <v>43792331</v>
+        <v>48106702</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.11381130527084442</v>
+        <v>0.11462153193647355</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,20 +1184,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24">
-        <v>407345645</v>
+        <v>418343949</v>
       </c>
       <c r="E24">
-        <v>45819091</v>
+        <v>47853869</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.11248209367747138</v>
+        <v>0.11438881598356762</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,20 +1205,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
       <c r="D25">
-        <v>488133160</v>
+        <v>414799678</v>
       </c>
       <c r="E25">
-        <v>54797921</v>
+        <v>47279176</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.11226018941224972</v>
+        <v>0.11398074421841764</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,20 +1226,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>456776347</v>
+        <v>473060526</v>
       </c>
       <c r="E26">
-        <v>51138390</v>
+        <v>53466007</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.11195498702125221</v>
+        <v>0.11302149315244282</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,14 +1253,14 @@
         <v>39</v>
       </c>
       <c r="D27">
-        <v>425409147</v>
+        <v>435762394</v>
       </c>
       <c r="E27">
-        <v>47274986</v>
+        <v>48921539</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.11112827811386952</v>
+        <v>0.11226654634176625</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,20 +1268,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>353254163</v>
+        <v>397536978</v>
       </c>
       <c r="E28">
-        <v>38429681</v>
+        <v>44551077</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.10878762382766315</v>
+        <v>0.11206775587049918</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,20 +1289,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>416855079</v>
+        <v>458665999</v>
       </c>
       <c r="E29">
-        <v>44885154</v>
+        <v>50794823</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.10767567977743171</v>
+        <v>0.11074468809710047</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,20 +1310,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>417792499</v>
+        <v>369826520</v>
       </c>
       <c r="E30">
-        <v>44898022</v>
+        <v>40886601</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.10746488294420049</v>
+        <v>0.11055616292741798</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,20 +1331,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>426790430</v>
+        <v>493366183</v>
       </c>
       <c r="E31">
-        <v>45863827</v>
+        <v>54421825</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.10746217294516187</v>
+        <v>0.11030716509404537</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,20 +1352,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>484248972</v>
+        <v>363797670</v>
       </c>
       <c r="E32">
-        <v>51986422</v>
+        <v>40071032</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.10735473899983829</v>
+        <v>0.11014647784852498</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,20 +1373,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>354113076</v>
+        <v>436238020</v>
       </c>
       <c r="E33">
-        <v>37761469</v>
+        <v>47960858</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.10663675407456571</v>
+        <v>0.10994194866371344</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,20 +1394,20 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34">
-        <v>422804876</v>
+        <v>434957395</v>
       </c>
       <c r="E34">
-        <v>44878013</v>
+        <v>47481226</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.10614355592247238</v>
+        <v>0.10916293537209547</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,20 +1415,20 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35">
-        <v>445762687</v>
+        <v>428716207</v>
       </c>
       <c r="E35">
-        <v>47231148</v>
+        <v>46364200</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.10595581321053908</v>
+        <v>0.1081465996455786</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,20 +1436,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>425511445</v>
+        <v>353546280</v>
       </c>
       <c r="E36">
-        <v>44433827</v>
+        <v>37797058</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.10442451671305809</v>
+        <v>0.1069083742020988</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,20 +1457,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>429689818</v>
+        <v>364861942</v>
       </c>
       <c r="E37">
-        <v>44814603</v>
+        <v>38844896</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.10429524071245272</v>
+        <v>0.10646464190556766</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,20 +1478,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>335910782</v>
+        <v>429318277</v>
       </c>
       <c r="E38">
-        <v>34997365</v>
+        <v>45392419</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.10418648901838465</v>
+        <v>0.10573139191090157</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,20 +1499,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>424831554</v>
+        <v>438408215</v>
       </c>
       <c r="E39">
-        <v>43174000</v>
+        <v>46287202</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.10162616122436141</v>
+        <v>0.10558014292683818</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,20 +1520,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>405872483</v>
+        <v>433789101</v>
       </c>
       <c r="E40">
-        <v>40671748</v>
+        <v>44911477</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0.10020819272934056</v>
+        <v>0.10353297696153965</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,14 +1547,14 @@
         <v>53</v>
       </c>
       <c r="D41">
-        <v>423027357</v>
+        <v>420196332</v>
       </c>
       <c r="E41">
-        <v>41654315</v>
+        <v>43303170</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>9.846718967634048E-2</v>
+        <v>0.10305461209975531</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>384006614</v>
+        <v>443461999</v>
       </c>
       <c r="E42">
-        <v>37627452</v>
+        <v>45576832</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>9.7986468535148724E-2</v>
+        <v>0.10277505649362303</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,20 +1583,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>398922975</v>
+        <v>431493201</v>
       </c>
       <c r="E43">
-        <v>38822552</v>
+        <v>44155940</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>9.7318415917258219E-2</v>
+        <v>0.10233287546053361</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,20 +1604,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>367068866</v>
+        <v>414864706</v>
       </c>
       <c r="E44">
-        <v>35335629</v>
+        <v>42344083</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>9.6264304257283426E-2</v>
+        <v>0.10206720983394524</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,20 +1625,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>412845141</v>
+        <v>429723447</v>
       </c>
       <c r="E45">
-        <v>39654676</v>
+        <v>43029562</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>9.6052180495446352E-2</v>
+        <v>0.10013314912276593</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,20 +1646,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>342058406</v>
+        <v>438783872</v>
       </c>
       <c r="E46">
-        <v>32743500</v>
+        <v>43061597</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>9.5724880387824757E-2</v>
+        <v>9.8138513623399537E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,20 +1667,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>359143211</v>
+        <v>397151073</v>
       </c>
       <c r="E47">
-        <v>34171311</v>
+        <v>38281447</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>9.5146754702262776E-2</v>
+        <v>9.6390138671487366E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,20 +1688,20 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
       </c>
       <c r="D48">
-        <v>421247689</v>
+        <v>405447118</v>
       </c>
       <c r="E48">
-        <v>40037718</v>
+        <v>38711867</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>9.5045549318135247E-2</v>
+        <v>9.5479447951088897E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,20 +1709,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>394529970</v>
+        <v>430422347</v>
       </c>
       <c r="E49">
-        <v>36986127</v>
+        <v>40928722</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>9.3747319120015146E-2</v>
+        <v>9.5089677116601934E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1736,14 +1736,14 @@
         <v>62</v>
       </c>
       <c r="D50">
-        <v>415166667</v>
+        <v>425884030</v>
       </c>
       <c r="E50">
-        <v>38736174</v>
+        <v>40434302</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>9.3302707271535362E-2</v>
+        <v>9.4942047956106737E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,20 +1751,20 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
       </c>
       <c r="D51">
-        <v>425383372</v>
+        <v>422739199</v>
       </c>
       <c r="E51">
-        <v>39064444</v>
+        <v>39699176</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>9.1833500252567465E-2</v>
+        <v>9.390937981126278E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,20 +1772,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>463706600</v>
+        <v>378281500</v>
       </c>
       <c r="E52">
-        <v>42395362</v>
+        <v>35535629</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>9.1427126549417245E-2</v>
+        <v>9.3939642832123693E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,20 +1793,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>466146280</v>
+        <v>477581271</v>
       </c>
       <c r="E53">
-        <v>42491526</v>
+        <v>44765455</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>9.115491815144379E-2</v>
+        <v>9.3733690406799894E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,14 +1820,14 @@
         <v>66</v>
       </c>
       <c r="D54">
-        <v>339741292</v>
+        <v>359197729</v>
       </c>
       <c r="E54">
-        <v>30953488</v>
+        <v>32792500</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>9.1108995959195915E-2</v>
+        <v>9.129372864158615E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,14 +1841,14 @@
         <v>67</v>
       </c>
       <c r="D55">
-        <v>432942230</v>
+        <v>444095245</v>
       </c>
       <c r="E55">
-        <v>39023281</v>
+        <v>40502090</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>9.0135076451193036E-2</v>
+        <v>9.1201359293995587E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>361771764</v>
+        <v>351721090</v>
       </c>
       <c r="E56">
-        <v>31985472</v>
+        <v>32037408</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>8.8413400886642998E-2</v>
+        <v>9.1087537571318225E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,20 +1877,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>418768511</v>
+        <v>438140747</v>
       </c>
       <c r="E57">
-        <v>36941991</v>
+        <v>39861917</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>8.8215780388511592E-2</v>
+        <v>9.0979707486553402E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,20 +1898,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>418564715</v>
+        <v>376566063</v>
       </c>
       <c r="E58">
-        <v>36479744</v>
+        <v>34084960</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>8.7154369904305001E-2</v>
+        <v>9.0515219901799809E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,20 +1919,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>413773408</v>
+        <v>441493055</v>
       </c>
       <c r="E59">
-        <v>35789782</v>
+        <v>39823486</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>8.6496090149901561E-2</v>
+        <v>9.0201840207882772E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,20 +1940,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>429733887</v>
+        <v>363985744</v>
       </c>
       <c r="E60">
-        <v>36170024</v>
+        <v>32406021</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>8.4168423980955448E-2</v>
+        <v>8.9031017104889684E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,20 +1961,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>413637367</v>
+        <v>424464084</v>
       </c>
       <c r="E61">
-        <v>34698691</v>
+        <v>37361050</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>8.3886741789457334E-2</v>
+        <v>8.8019343469352279E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,20 +1982,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>440563789</v>
+        <v>427665743</v>
       </c>
       <c r="E62">
-        <v>36670562</v>
+        <v>36648284</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>8.32355334586974E-2</v>
+        <v>8.5693756397037399E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,20 +2003,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>423120796</v>
+        <v>441241930</v>
       </c>
       <c r="E63">
-        <v>34802379</v>
+        <v>36519943</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>8.2251639080391598E-2</v>
+        <v>8.2766257050865502E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,20 +2024,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>354553170</v>
+        <v>454273498</v>
       </c>
       <c r="E64">
-        <v>28935130</v>
+        <v>36670562</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>8.1610129166240428E-2</v>
+        <v>8.0723533645363568E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,20 +2045,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>375977817</v>
+        <v>439626427</v>
       </c>
       <c r="E65">
-        <v>29843364</v>
+        <v>35495333</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>7.9375331869645918E-2</v>
+        <v>8.0739761806903385E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,20 +2066,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>424965956</v>
+        <v>387767676</v>
       </c>
       <c r="E66">
-        <v>33223580</v>
+        <v>31022908</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>7.817939185697971E-2</v>
+        <v>8.0003852616121612E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,20 +2087,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>443703563</v>
+        <v>430173309</v>
       </c>
       <c r="E67">
-        <v>34659278</v>
+        <v>34352922</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>7.8113589545369511E-2</v>
+        <v>7.9858329843518955E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,20 +2108,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>410042769</v>
+        <v>440422803</v>
       </c>
       <c r="E68">
-        <v>31823133</v>
+        <v>34886141</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>7.7609301775054595E-2</v>
+        <v>7.9210569394609659E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,20 +2129,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>429764570</v>
+        <v>460019677</v>
       </c>
       <c r="E69">
-        <v>32710838</v>
+        <v>35742438</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>7.6113389244720664E-2</v>
+        <v>7.7697628573396876E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2150,20 +2150,20 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>82</v>
       </c>
       <c r="D70">
-        <v>407748223</v>
+        <v>423323555</v>
       </c>
       <c r="E70">
-        <v>30813222</v>
+        <v>32793571</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>7.5569236754221239E-2</v>
+        <v>7.7466917710260652E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,20 +2171,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>425512067</v>
+        <v>437709041</v>
       </c>
       <c r="E71">
-        <v>32051779</v>
+        <v>33891014</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>7.5325194009127835E-2</v>
+        <v>7.7428179053765533E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,20 +2192,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72">
-        <v>419594731</v>
+        <v>418190468</v>
       </c>
       <c r="E72">
-        <v>30903214</v>
+        <v>30813222</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>7.3650147909030822E-2</v>
+        <v>7.3682267669477344E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2213,20 +2213,20 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
         <v>85</v>
       </c>
       <c r="D73">
-        <v>433847940</v>
+        <v>402868509</v>
       </c>
       <c r="E73">
-        <v>31195152</v>
+        <v>28536059</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>7.1903423121013318E-2</v>
+        <v>7.0832190559724284E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,20 +2234,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>389399789</v>
+        <v>446265924</v>
       </c>
       <c r="E74">
-        <v>27223919</v>
+        <v>31395152</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>6.9912516054290927E-2</v>
+        <v>7.0350771393425951E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,20 +2255,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>359400935</v>
+        <v>369159299</v>
       </c>
       <c r="E75">
-        <v>23926212</v>
+        <v>25558315</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>6.6572481231858785E-2</v>
+        <v>6.9233837720555427E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,20 +2276,20 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
         <v>88</v>
       </c>
       <c r="D76">
-        <v>400744309</v>
+        <v>410757133</v>
       </c>
       <c r="E76">
-        <v>25098686</v>
+        <v>26509560</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>6.2630174493632049E-2</v>
+        <v>6.4538282771586103E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,20 +2297,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>444696045</v>
+        <v>377274096</v>
       </c>
       <c r="E77">
-        <v>26758846</v>
+        <v>22599199</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>6.0173339297407064E-2</v>
+        <v>5.9901274006365919E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,23 +2318,24 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
       <c r="D78">
-        <v>365193216</v>
+        <v>455406421</v>
       </c>
       <c r="E78">
-        <v>21970585</v>
+        <v>27225088</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>6.0161536516603858E-2</v>
+        <v>5.9781959025123191E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC59A5D-B854-419B-AE4E-EFBF3E52BBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{135C6C77-EF6D-4B65-9870-CF883895BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,6 +2336,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risnur.xlsx
+++ b/risnur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL Pendanaan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{135C6C77-EF6D-4B65-9870-CF883895BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DDC5EA-9F00-48B3-BE80-E259803BE653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,75 +57,93 @@
     <t>Kurni_s2l</t>
   </si>
   <si>
+    <t>Muhammad Refaldy Rojak</t>
+  </si>
+  <si>
     <t>Winda Ayu Utami</t>
   </si>
   <si>
     <t>Febrianto</t>
   </si>
   <si>
+    <t>Mkm_s2l</t>
+  </si>
+  <si>
+    <t>Willman zega</t>
+  </si>
+  <si>
     <t>Hansyah_S2l</t>
   </si>
   <si>
     <t>Nur Halim</t>
   </si>
   <si>
-    <t>Mkm_s2l</t>
-  </si>
-  <si>
-    <t>Willman zega</t>
-  </si>
-  <si>
-    <t>Muhammad Refaldy Rojak</t>
-  </si>
-  <si>
     <t>Zakka_S2l</t>
   </si>
   <si>
     <t>Irvan Zaky Zulkarnain</t>
   </si>
   <si>
+    <t>Amanda Agustin</t>
+  </si>
+  <si>
+    <t>Selomita Maharani</t>
+  </si>
+  <si>
+    <t>Indra Gunawan</t>
+  </si>
+  <si>
     <t>Xinghao_s2l</t>
   </si>
   <si>
     <t>Feriyan Wijaya S</t>
   </si>
   <si>
-    <t>Indra Gunawan</t>
-  </si>
-  <si>
-    <t>Amanda Agustin</t>
+    <t>Cpu_s2l</t>
+  </si>
+  <si>
+    <t>Saizah Rafida Sari</t>
   </si>
   <si>
     <t>Anzelma Tamalia</t>
   </si>
   <si>
-    <t>Selomita Maharani</t>
-  </si>
-  <si>
-    <t>Cpu_s2l</t>
-  </si>
-  <si>
-    <t>Saizah Rafida Sari</t>
+    <t>Desi Eka</t>
+  </si>
+  <si>
+    <t>Annisa Putri Restu</t>
+  </si>
+  <si>
+    <t>Pertiwi</t>
+  </si>
+  <si>
+    <t>Fikri Adriansyah</t>
   </si>
   <si>
     <t>Dimas Eka Putra</t>
   </si>
   <si>
-    <t>Pertiwi</t>
-  </si>
-  <si>
-    <t>Desi Eka</t>
-  </si>
-  <si>
-    <t>Fikri Adriansyah</t>
+    <t>Dimas</t>
   </si>
   <si>
     <t>Erick Ervan Dewanggga</t>
   </si>
   <si>
+    <t>Riska Nurlita</t>
+  </si>
+  <si>
+    <t>Fitriyani</t>
+  </si>
+  <si>
     <t>Rifal</t>
   </si>
   <si>
+    <t>Muhammad Fadhil Fakhruddin</t>
+  </si>
+  <si>
+    <t>Rahmat Hidayat</t>
+  </si>
+  <si>
     <t>EDN_S2l</t>
   </si>
   <si>
@@ -135,157 +153,139 @@
     <t>Adriansah</t>
   </si>
   <si>
-    <t>Annisa Putri Restu</t>
+    <t>Komariah</t>
+  </si>
+  <si>
+    <t>Helmy Hidayat</t>
+  </si>
+  <si>
+    <t>Debora Retima Sihombing</t>
+  </si>
+  <si>
+    <t>Ebiet Jaka Ramadan</t>
+  </si>
+  <si>
+    <t>Yandi Nugraha</t>
+  </si>
+  <si>
+    <t>Amirah Syahidah</t>
   </si>
   <si>
     <t>Desi Skarsari</t>
   </si>
   <si>
-    <t>Rahmat Hidayat</t>
-  </si>
-  <si>
-    <t>Dimas</t>
-  </si>
-  <si>
-    <t>Amirah Syahidah</t>
-  </si>
-  <si>
-    <t>Ebiet Jaka Ramadan</t>
+    <t>Tasya Wiranda Agustin</t>
   </si>
   <si>
     <t>Elena Juwita Sari</t>
   </si>
   <si>
-    <t>Riska Nurlita</t>
-  </si>
-  <si>
-    <t>Komariah</t>
-  </si>
-  <si>
     <t xml:space="preserve">Miranti </t>
   </si>
   <si>
-    <t>Helmy Hidayat</t>
-  </si>
-  <si>
-    <t>Fitriyani</t>
-  </si>
-  <si>
     <t>Susanti</t>
   </si>
   <si>
+    <t>Romli</t>
+  </si>
+  <si>
     <t>Erika Fitriyanti</t>
   </si>
   <si>
+    <t>Mutiara</t>
+  </si>
+  <si>
+    <t>Muhammad Ilham</t>
+  </si>
+  <si>
     <t>Saeful Aziz</t>
   </si>
   <si>
     <t>Dende Ayu Kencana Wungu</t>
   </si>
   <si>
-    <t>Romli</t>
-  </si>
-  <si>
-    <t>Mutiara</t>
-  </si>
-  <si>
-    <t>Debora Retima Sihombing</t>
-  </si>
-  <si>
-    <t>Muhammad Fadhil Fakhruddin</t>
-  </si>
-  <si>
     <t>Ahmad Fauzi</t>
   </si>
   <si>
-    <t>Muhammad Ilham</t>
-  </si>
-  <si>
-    <t>Yandi Nugraha</t>
-  </si>
-  <si>
     <t>Wasti Feronika Sihombing</t>
   </si>
   <si>
+    <t>Azizah Rahmawati</t>
+  </si>
+  <si>
+    <t>Lenny Nuraida</t>
+  </si>
+  <si>
+    <t>Ridhoi Berkat Zebua</t>
+  </si>
+  <si>
+    <t>Nuraini</t>
+  </si>
+  <si>
+    <t>Defister Zalukhu</t>
+  </si>
+  <si>
     <t>Indisabellia</t>
   </si>
   <si>
-    <t>Lenny Nuraida</t>
-  </si>
-  <si>
-    <t>Tasya Wiranda Agustin</t>
-  </si>
-  <si>
-    <t>Ridhoi Berkat Zebua</t>
+    <t>Rahma amelia</t>
+  </si>
+  <si>
+    <t>Imelda Astri Paidin</t>
+  </si>
+  <si>
+    <t>Aura Devana Sopiyanti</t>
   </si>
   <si>
     <t>Bagoes Tjahaya</t>
   </si>
   <si>
-    <t>Defister Zalukhu</t>
-  </si>
-  <si>
-    <t>Rahma amelia</t>
-  </si>
-  <si>
-    <t>Azizah Rahmawati</t>
+    <t>Maya Margareta</t>
+  </si>
+  <si>
+    <t>Sucika Wardani</t>
+  </si>
+  <si>
+    <t>Arisman Zega</t>
+  </si>
+  <si>
+    <t>Axl Wicaksono</t>
+  </si>
+  <si>
+    <t>Muhammad Rizki Daelami</t>
+  </si>
+  <si>
+    <t>Fadilah Damayanti</t>
   </si>
   <si>
     <t>Wahyu Febrianto Nur Tantular</t>
   </si>
   <si>
-    <t>Imelda Astri Paidin</t>
-  </si>
-  <si>
-    <t>Muhammad Rizki Daelami</t>
-  </si>
-  <si>
-    <t>Fadilah Damayanti</t>
-  </si>
-  <si>
-    <t>Nuraini</t>
-  </si>
-  <si>
-    <t>Sucika Wardani</t>
-  </si>
-  <si>
-    <t>Maya Margareta</t>
-  </si>
-  <si>
-    <t>Arisman Zega</t>
-  </si>
-  <si>
-    <t>Axl Wicaksono</t>
-  </si>
-  <si>
-    <t>Aura Devana Sopiyanti</t>
+    <t>Erlangga Hutama</t>
+  </si>
+  <si>
+    <t>Nurhasanah</t>
   </si>
   <si>
     <t>Aldi Taufik</t>
   </si>
   <si>
+    <t>Adistira Winditya P</t>
+  </si>
+  <si>
     <t>Sema Salwanda Rivanka</t>
   </si>
   <si>
-    <t>Erlangga Hutama</t>
+    <t>Abdul Hamid</t>
+  </si>
+  <si>
+    <t>Mulhimah</t>
   </si>
   <si>
     <t>Aura Ramadhani</t>
   </si>
   <si>
-    <t>Adistira Winditya P</t>
-  </si>
-  <si>
     <t>Serius Zega</t>
-  </si>
-  <si>
-    <t>Abdul Hamid</t>
-  </si>
-  <si>
-    <t>Mulhimah</t>
-  </si>
-  <si>
-    <t>Nurhasanah</t>
   </si>
   <si>
     <t>Cici Fatma Ramadhani</t>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,14 +728,14 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>430113740</v>
+        <v>440856519</v>
       </c>
       <c r="E2">
-        <v>70272210</v>
+        <v>74089170</v>
       </c>
       <c r="F2" s="1">
         <f>E2/D2</f>
-        <v>0.1633805281365808</v>
+        <v>0.16805733114269769</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,14 +749,14 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>425899564</v>
+        <v>440674330</v>
       </c>
       <c r="E3">
-        <v>69271007</v>
+        <v>73345573</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" si="0">E3/D3</f>
-        <v>0.16264634400987554</v>
+        <v>0.16643940435559293</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,20 +764,20 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4">
-        <v>437569036</v>
+        <v>437645734</v>
       </c>
       <c r="E4">
-        <v>66599665</v>
+        <v>71892952</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.1522037884783054</v>
+        <v>0.16427202738368291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,20 +785,20 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5">
-        <v>442317836</v>
+        <v>452839109</v>
       </c>
       <c r="E5">
-        <v>67210705</v>
+        <v>70097650</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.15195115260963613</v>
+        <v>0.15479592775190271</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -806,20 +806,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6">
-        <v>428828042</v>
+        <v>448283180</v>
       </c>
       <c r="E6">
-        <v>64597324</v>
+        <v>69086830</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.15063689328413835</v>
+        <v>0.15411425875938509</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,14 +833,14 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>418884602</v>
+        <v>429646942</v>
       </c>
       <c r="E7">
-        <v>60843473</v>
+        <v>66143733</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.14525115678518066</v>
+        <v>0.15394903706774202</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,20 +848,20 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8">
-        <v>479870074</v>
+        <v>369543675</v>
       </c>
       <c r="E8">
-        <v>66984149</v>
+        <v>53195256</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.13958809400562869</v>
+        <v>0.14394849539773613</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,20 +869,20 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>411200114</v>
+        <v>447242843</v>
       </c>
       <c r="E9">
-        <v>57261023</v>
+        <v>63771652</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.13925342199686258</v>
+        <v>0.14258842371234995</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,20 +890,20 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>356226470</v>
+        <v>421695430</v>
       </c>
       <c r="E10">
-        <v>49227651</v>
+        <v>59502451</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.13819200746087174</v>
+        <v>0.141102906901315</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,20 +911,20 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>423438481</v>
+        <v>502115300</v>
       </c>
       <c r="E11">
-        <v>57671785</v>
+        <v>70291702</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.13619873390770076</v>
+        <v>0.13999115740946352</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,20 +932,20 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>433872611</v>
+        <v>436333983</v>
       </c>
       <c r="E12">
-        <v>59061322</v>
+        <v>59513672</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.13612595149501153</v>
+        <v>0.13639476712498005</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,20 +953,20 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13">
-        <v>427072749</v>
+        <v>432690806</v>
       </c>
       <c r="E13">
-        <v>57246140</v>
+        <v>58309174</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.13404306440540414</v>
+        <v>0.13475944760425532</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,20 +974,20 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14">
-        <v>492264895</v>
+        <v>430239308</v>
       </c>
       <c r="E14">
-        <v>62761577</v>
+        <v>56632435</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.12749553672723302</v>
+        <v>0.13163008108966184</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -995,20 +995,20 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15">
-        <v>381214582</v>
+        <v>438777829</v>
       </c>
       <c r="E15">
-        <v>47286884</v>
+        <v>57250988</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.12404269467320639</v>
+        <v>0.13047830636857452</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,20 +1016,20 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16">
-        <v>418494897</v>
+        <v>393133056</v>
       </c>
       <c r="E16">
-        <v>51797786</v>
+        <v>49522107</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.12377160718401782</v>
+        <v>0.12596780210718275</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,20 +1037,20 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17">
-        <v>458394198</v>
+        <v>470922132</v>
       </c>
       <c r="E17">
-        <v>56290581</v>
+        <v>59128798</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.12279950585238428</v>
+        <v>0.12555960737899657</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,20 +1058,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18">
-        <v>449119003</v>
+        <v>509182613</v>
       </c>
       <c r="E18">
-        <v>54560078</v>
+        <v>63378806</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.12148245261401242</v>
+        <v>0.12447166180043936</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,20 +1079,20 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19">
-        <v>506852332</v>
+        <v>426006618</v>
       </c>
       <c r="E19">
-        <v>61165413</v>
+        <v>52975984</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.12067698842115616</v>
+        <v>0.12435483807437001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,20 +1100,20 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
       <c r="D20">
-        <v>390223075</v>
+        <v>460708419</v>
       </c>
       <c r="E20">
-        <v>46583269</v>
+        <v>56061755</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11937599794681542</v>
+        <v>0.12168597900096112</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,20 +1121,20 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>472103272</v>
+        <v>468998907</v>
       </c>
       <c r="E21">
-        <v>55300936</v>
+        <v>56874493</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.11713737074035785</v>
+        <v>0.12126785830654399</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,20 +1142,20 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>428895959</v>
+        <v>445368536</v>
       </c>
       <c r="E22">
-        <v>49581981</v>
+        <v>53688668</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.11560374948648094</v>
+        <v>0.12054885709303902</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,20 +1163,20 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>419700393</v>
+        <v>518648464</v>
       </c>
       <c r="E23">
-        <v>48106702</v>
+        <v>62441592</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.11462153193647355</v>
+        <v>0.12039289872455884</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,20 +1184,20 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>418343949</v>
+        <v>431753810</v>
       </c>
       <c r="E24">
-        <v>47853869</v>
+        <v>51340589</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.11438881598356762</v>
+        <v>0.11891172193709187</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,20 +1205,20 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>414799678</v>
+        <v>430050788</v>
       </c>
       <c r="E25">
-        <v>47279176</v>
+        <v>51153472</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.11398074421841764</v>
+        <v>0.11894751370621835</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,20 +1226,20 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26">
-        <v>473060526</v>
+        <v>399598139</v>
       </c>
       <c r="E26">
-        <v>53466007</v>
+        <v>47495547</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.11302149315244282</v>
+        <v>0.11885827876690887</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,20 +1247,20 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>435762394</v>
+        <v>480219908</v>
       </c>
       <c r="E27">
-        <v>48921539</v>
+        <v>56928961</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.11226654634176625</v>
+        <v>0.11854769044685252</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1268,20 +1268,20 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>397536978</v>
+        <v>378092747</v>
       </c>
       <c r="E28">
-        <v>44551077</v>
+        <v>44131382</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.11206775587049918</v>
+        <v>0.11672104887005409</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1289,20 +1289,20 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>458665999</v>
+        <v>374367381</v>
       </c>
       <c r="E29">
-        <v>50794823</v>
+        <v>43453831</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.11074468809710047</v>
+        <v>0.11607269544672216</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,20 +1310,20 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>369826520</v>
+        <v>445355085</v>
       </c>
       <c r="E30">
-        <v>40886601</v>
+        <v>51172846</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.11055616292741798</v>
+        <v>0.1149034730343317</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,20 +1331,20 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>493366183</v>
+        <v>445957006</v>
       </c>
       <c r="E31">
-        <v>54421825</v>
+        <v>51186830</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>0.11030716509404537</v>
+        <v>0.11477974179421234</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,20 +1352,20 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>363797670</v>
+        <v>425996984</v>
       </c>
       <c r="E32">
-        <v>40071032</v>
+        <v>48730144</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>0.11014647784852498</v>
+        <v>0.11439081925518985</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,20 +1373,20 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
       <c r="D33">
-        <v>436238020</v>
+        <v>483255872</v>
       </c>
       <c r="E33">
-        <v>47960858</v>
+        <v>55095399</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>0.10994194866371344</v>
+        <v>0.11400875228268308</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,14 +1400,14 @@
         <v>46</v>
       </c>
       <c r="D34">
-        <v>434957395</v>
+        <v>431599158</v>
       </c>
       <c r="E34">
-        <v>47481226</v>
+        <v>48965954</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
-        <v>0.10916293537209547</v>
+        <v>0.11345238537281854</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,14 +1421,14 @@
         <v>47</v>
       </c>
       <c r="D35">
-        <v>428716207</v>
+        <v>414067204</v>
       </c>
       <c r="E35">
-        <v>46364200</v>
+        <v>46457523</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="0"/>
-        <v>0.1081465996455786</v>
+        <v>0.11219802619286892</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,20 +1436,20 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
       </c>
       <c r="D36">
-        <v>353546280</v>
+        <v>408173578</v>
       </c>
       <c r="E36">
-        <v>37797058</v>
+        <v>44685260</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="0"/>
-        <v>0.1069083742020988</v>
+        <v>0.10947612096538008</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,20 +1457,20 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37">
-        <v>364861942</v>
+        <v>507957819</v>
       </c>
       <c r="E37">
-        <v>38844896</v>
+        <v>55497181</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
-        <v>0.10646464190556766</v>
+        <v>0.109255491153292</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,20 +1478,20 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
       </c>
       <c r="D38">
-        <v>429318277</v>
+        <v>448647726</v>
       </c>
       <c r="E38">
-        <v>45392419</v>
+        <v>48923827</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>0.10573139191090157</v>
+        <v>0.10904730853355535</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,20 +1499,20 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39">
-        <v>438408215</v>
+        <v>438902305</v>
       </c>
       <c r="E39">
-        <v>46287202</v>
+        <v>47627660</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>0.10558014292683818</v>
+        <v>0.10851540185007687</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,20 +1520,20 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>52</v>
       </c>
       <c r="D40">
-        <v>433789101</v>
+        <v>438537528</v>
       </c>
       <c r="E40">
-        <v>44911477</v>
+        <v>47508890</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>0.10353297696153965</v>
+        <v>0.10833483331898565</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,20 +1541,20 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
       </c>
       <c r="D41">
-        <v>420196332</v>
+        <v>453954024</v>
       </c>
       <c r="E41">
-        <v>43303170</v>
+        <v>49138328</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>0.10305461209975531</v>
+        <v>0.10824516449269321</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1562,20 +1562,20 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
       </c>
       <c r="D42">
-        <v>443461999</v>
+        <v>443956832</v>
       </c>
       <c r="E42">
-        <v>45576832</v>
+        <v>47617454</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>0.10277505649362303</v>
+        <v>0.10725694609875944</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,20 +1583,20 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="D43">
-        <v>431493201</v>
+        <v>366130648</v>
       </c>
       <c r="E43">
-        <v>44155940</v>
+        <v>39240017</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>0.10233287546053361</v>
+        <v>0.10717490386109386</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,20 +1604,20 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>56</v>
       </c>
       <c r="D44">
-        <v>414864706</v>
+        <v>383453404</v>
       </c>
       <c r="E44">
-        <v>42344083</v>
+        <v>39938446</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>0.10206720983394524</v>
+        <v>0.10415462630760738</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,20 +1625,20 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>429723447</v>
+        <v>451928192</v>
       </c>
       <c r="E45">
-        <v>43029562</v>
+        <v>46179826</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>0.10013314912276593</v>
+        <v>0.10218399032738369</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,20 +1646,20 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
         <v>58</v>
       </c>
       <c r="D46">
-        <v>438783872</v>
+        <v>439444412</v>
       </c>
       <c r="E46">
-        <v>43061597</v>
+        <v>44485160</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>9.8138513623399537E-2</v>
+        <v>0.10123046006556115</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,20 +1667,20 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>59</v>
       </c>
       <c r="D47">
-        <v>397151073</v>
+        <v>487181115</v>
       </c>
       <c r="E47">
-        <v>38281447</v>
+        <v>49038848</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>9.6390138671487366E-2</v>
+        <v>0.10065835166866023</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,14 +1694,14 @@
         <v>60</v>
       </c>
       <c r="D48">
-        <v>405447118</v>
+        <v>410404342</v>
       </c>
       <c r="E48">
-        <v>38711867</v>
+        <v>41201399</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
-        <v>9.5479447951088897E-2</v>
+        <v>0.10039221027539713</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,20 +1709,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49">
-        <v>430422347</v>
+        <v>441238382</v>
       </c>
       <c r="E49">
-        <v>40928722</v>
+        <v>43601161</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="0"/>
-        <v>9.5089677116601934E-2</v>
+        <v>9.8815431246867369E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,20 +1730,20 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
         <v>62</v>
       </c>
       <c r="D50">
-        <v>425884030</v>
+        <v>386639988</v>
       </c>
       <c r="E50">
-        <v>40434302</v>
+        <v>37784267</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="0"/>
-        <v>9.4942047956106737E-2</v>
+        <v>9.772467456211488E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,14 +1757,14 @@
         <v>63</v>
       </c>
       <c r="D51">
-        <v>422739199</v>
+        <v>439864694</v>
       </c>
       <c r="E51">
-        <v>39699176</v>
+        <v>42695950</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
-        <v>9.390937981126278E-2</v>
+        <v>9.7066099149116972E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,20 +1772,20 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>64</v>
       </c>
       <c r="D52">
-        <v>378281500</v>
+        <v>452989351</v>
       </c>
       <c r="E52">
-        <v>35535629</v>
+        <v>43327082</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
-        <v>9.3939642832123693E-2</v>
+        <v>9.5647021070921379E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1793,20 +1793,20 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53">
-        <v>477581271</v>
+        <v>389160910</v>
       </c>
       <c r="E53">
-        <v>44765455</v>
+        <v>37201529</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="0"/>
-        <v>9.3733690406799894E-2</v>
+        <v>9.5594208061647298E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,20 +1814,20 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>66</v>
       </c>
       <c r="D54">
-        <v>359197729</v>
+        <v>459744001</v>
       </c>
       <c r="E54">
-        <v>32792500</v>
+        <v>43717814</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="0"/>
-        <v>9.129372864158615E-2</v>
+        <v>9.5091646448693959E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,20 +1835,20 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55">
-        <v>444095245</v>
+        <v>450859820</v>
       </c>
       <c r="E55">
-        <v>40502090</v>
+        <v>42586902</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
-        <v>9.1201359293995587E-2</v>
+        <v>9.4457079808087582E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,20 +1856,20 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
       </c>
       <c r="D56">
-        <v>351721090</v>
+        <v>440634434</v>
       </c>
       <c r="E56">
-        <v>32037408</v>
+        <v>41605649</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>9.1087537571318225E-2</v>
+        <v>9.4422146318233494E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,20 +1877,20 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57">
-        <v>438140747</v>
+        <v>375411116</v>
       </c>
       <c r="E57">
-        <v>39861917</v>
+        <v>34765301</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>9.0979707486553402E-2</v>
+        <v>9.260594457197692E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,20 +1898,20 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
         <v>70</v>
       </c>
       <c r="D58">
-        <v>376566063</v>
+        <v>452486643</v>
       </c>
       <c r="E58">
-        <v>34084960</v>
+        <v>41773083</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>9.0515219901799809E-2</v>
+        <v>9.231893061647789E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,20 +1919,20 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>441493055</v>
+        <v>435905913</v>
       </c>
       <c r="E59">
-        <v>39823486</v>
+        <v>39843975</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>9.0201840207882772E-2</v>
+        <v>9.1404988580643554E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,20 +1940,20 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="D60">
-        <v>363985744</v>
+        <v>436922361</v>
       </c>
       <c r="E60">
-        <v>32406021</v>
+        <v>39895009</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>8.9031017104889684E-2</v>
+        <v>9.1309149087015942E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,20 +1961,20 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>424464084</v>
+        <v>363823164</v>
       </c>
       <c r="E61">
-        <v>37361050</v>
+        <v>33038420</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
-        <v>8.8019343469352279E-2</v>
+        <v>9.0809006322643049E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1982,20 +1982,20 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
       </c>
       <c r="D62">
-        <v>427665743</v>
+        <v>449627247</v>
       </c>
       <c r="E62">
-        <v>36648284</v>
+        <v>40309522</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
-        <v>8.5693756397037399E-2</v>
+        <v>8.9650977045881736E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,20 +2003,20 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>75</v>
       </c>
       <c r="D63">
-        <v>441241930</v>
+        <v>370633053</v>
       </c>
       <c r="E63">
-        <v>36519943</v>
+        <v>33106227</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="0"/>
-        <v>8.2766257050865502E-2</v>
+        <v>8.9323460851722797E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,20 +2024,20 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>76</v>
       </c>
       <c r="D64">
-        <v>454273498</v>
+        <v>397563836</v>
       </c>
       <c r="E64">
-        <v>36670562</v>
+        <v>34597319</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="0"/>
-        <v>8.0723533645363568E-2</v>
+        <v>8.7023305107660751E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,20 +2045,20 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
         <v>77</v>
       </c>
       <c r="D65">
-        <v>439626427</v>
+        <v>430057831</v>
       </c>
       <c r="E65">
-        <v>35495333</v>
+        <v>36981137</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
-        <v>8.0739761806903385E-2</v>
+        <v>8.599107918581303E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,20 +2066,20 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
       </c>
       <c r="D66">
-        <v>387767676</v>
+        <v>463805235</v>
       </c>
       <c r="E66">
-        <v>31022908</v>
+        <v>39587893</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
-        <v>8.0003852616121612E-2</v>
+        <v>8.5354562675429915E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,20 +2087,20 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>79</v>
       </c>
       <c r="D67">
-        <v>430173309</v>
+        <v>449538073</v>
       </c>
       <c r="E67">
-        <v>34352922</v>
+        <v>37991043</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ref="F67:F78" si="1">E67/D67</f>
-        <v>7.9858329843518955E-2</v>
+        <v>8.4511291216039008E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,20 +2108,20 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
       </c>
       <c r="D68">
-        <v>440422803</v>
+        <v>450648669</v>
       </c>
       <c r="E68">
-        <v>34886141</v>
+        <v>37516111</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>7.9210569394609659E-2</v>
+        <v>8.3249133040266446E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,20 +2129,20 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
       </c>
       <c r="D69">
-        <v>460019677</v>
+        <v>433185195</v>
       </c>
       <c r="E69">
-        <v>35742438</v>
+        <v>35883191</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>7.7697628573396876E-2</v>
+        <v>8.2835681861195651E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2156,14 +2156,14 @@
         <v>82</v>
       </c>
       <c r="D70">
-        <v>423323555</v>
+        <v>452619179</v>
       </c>
       <c r="E70">
-        <v>32793571</v>
+        <v>37064781</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>7.7466917710260652E-2</v>
+        <v>8.1889550243738118E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,20 +2171,20 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
         <v>83</v>
       </c>
       <c r="D71">
-        <v>437709041</v>
+        <v>441144234</v>
       </c>
       <c r="E71">
-        <v>33891014</v>
+        <v>35027659</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>7.7428179053765533E-2</v>
+        <v>7.9401828926545598E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,20 +2192,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72">
-        <v>418190468</v>
+        <v>473430006</v>
       </c>
       <c r="E72">
-        <v>30813222</v>
+        <v>36377907</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>7.3682267669477344E-2</v>
+        <v>7.6839039644648124E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,14 +2219,14 @@
         <v>85</v>
       </c>
       <c r="D73">
-        <v>402868509</v>
+        <v>417142824</v>
       </c>
       <c r="E73">
-        <v>28536059</v>
+        <v>31151064</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>7.0832190559724284E-2</v>
+        <v>7.4677214152436194E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,20 +2234,20 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>446265924</v>
+        <v>459851750</v>
       </c>
       <c r="E74">
-        <v>31395152</v>
+        <v>33582965</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="1"/>
-        <v>7.0350771393425951E-2</v>
+        <v>7.3029981945268233E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,20 +2255,20 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
       </c>
       <c r="D75">
-        <v>369159299</v>
+        <v>382445633</v>
       </c>
       <c r="E75">
         <v>25558315</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="1"/>
-        <v>6.9233837720555427E-2</v>
+        <v>6.6828622932661383E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2282,14 +2282,14 @@
         <v>88</v>
       </c>
       <c r="D76">
-        <v>410757133</v>
+        <v>421008062</v>
       </c>
       <c r="E76">
-        <v>26509560</v>
+        <v>27381784</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="1"/>
-        <v>6.4538282771586103E-2</v>
+        <v>6.5038621516943784E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2297,20 +2297,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
       </c>
       <c r="D77">
-        <v>377274096</v>
+        <v>391233145</v>
       </c>
       <c r="E77">
-        <v>22599199</v>
+        <v>23503437</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="1"/>
-        <v>5.9901274006365919E-2</v>
+        <v>6.0075270463089213E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2324,17 +2324,18 @@
         <v>90</v>
       </c>
       <c r="D78">
-        <v>455406421</v>
+        <v>466253481</v>
       </c>
       <c r="E78">
-        <v>27225088</v>
+        <v>27337560</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="1"/>
-        <v>5.9781959025123191E-2</v>
+        <v>5.8632398714466648E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>